--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14280"/>
+    <workbookView windowHeight="13005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="252">
   <si>
     <t>Id</t>
   </si>
@@ -181,7 +181,7 @@
     <t>unit_knight_3_</t>
   </si>
   <si>
-    <t>mal:0</t>
+    <t>mal:100106</t>
   </si>
   <si>
     <t>骑士4</t>
@@ -283,6 +283,9 @@
     <t>ott:16</t>
   </si>
   <si>
+    <t>hre_ha_01:1.6</t>
+  </si>
+  <si>
     <t>火长矛3</t>
   </si>
   <si>
@@ -382,6 +385,9 @@
     <t>unit_horseman_3_</t>
   </si>
   <si>
+    <t>mal</t>
+  </si>
+  <si>
     <t>mal:7.5</t>
   </si>
   <si>
@@ -400,10 +406,10 @@
     <t>unit_ram_3_</t>
   </si>
   <si>
-    <t>冲车钟楼</t>
-  </si>
-  <si>
-    <t>unit_ram_3_clocktower_chi</t>
+    <t>苏丹之塔</t>
+  </si>
+  <si>
+    <t>unit_ram_tower_3_abb_ha_01</t>
   </si>
   <si>
     <t>旗本武士2</t>
@@ -625,9 +631,6 @@
     <t>unit_gbeto_2_</t>
   </si>
   <si>
-    <t>mal</t>
-  </si>
-  <si>
     <t>穆索法迪3</t>
   </si>
   <si>
@@ -745,6 +748,9 @@
     <t>Placeholder</t>
   </si>
   <si>
+    <t>Hide</t>
+  </si>
+  <si>
     <t>Villager</t>
   </si>
   <si>
@@ -763,7 +769,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>jpn;mon</t>
+    <t>byz;byz</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -774,9 +780,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -803,14 +809,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,16 +838,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,30 +893,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,38 +923,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,19 +1015,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1051,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,37 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,19 +1111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,25 +1129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,31 +1159,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,6 +1194,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1215,6 +1232,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1233,58 +1289,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,10 +1302,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,133 +1314,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1864,8 +1870,8 @@
   <sheetPr/>
   <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2314,12 +2320,8 @@
       <c r="L11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q11"/>
+      <c r="R11"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:18">
       <c r="A12" s="12">
@@ -2346,12 +2348,8 @@
         <v>1</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="Q12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11">
@@ -2439,6 +2437,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>2.99999997</v>
@@ -2479,6 +2480,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>3.99999996</v>
@@ -2489,9 +2493,6 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="Q16" t="s">
         <v>30</v>
       </c>
@@ -2563,15 +2564,15 @@
         <v>61</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
-        <v>7.99999992</v>
+        <v>9.33333324</v>
       </c>
       <c r="H19">
         <v>200054</v>
@@ -2594,15 +2595,15 @@
         <v>63</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" ref="D20:D25" si="2">MMULT(C20,1)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ref="F20:F25" si="3">MMULT(C20,0.33333333)</f>
-        <v>9.9999999</v>
+        <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
         <v>64</v>
@@ -2629,6 +2630,9 @@
         <f t="shared" si="3"/>
         <v>21.99999978</v>
       </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
       <c r="H21">
         <v>200055</v>
       </c>
@@ -2912,10 +2916,10 @@
         <v>87</v>
       </c>
       <c r="Q30" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="R30" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2923,7 +2927,7 @@
         <v>100099</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -2943,7 +2947,7 @@
         <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2954,7 +2958,7 @@
         <v>200099</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -2968,7 +2972,7 @@
         <v>2.99999997</v>
       </c>
       <c r="J32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2979,7 +2983,7 @@
         <v>100100</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>47</v>
@@ -3002,7 +3006,7 @@
         <v>540</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3013,7 +3017,7 @@
         <v>200100</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>52</v>
@@ -3036,7 +3040,7 @@
         <v>924</v>
       </c>
       <c r="J34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -3047,7 +3051,7 @@
         <v>300100</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <v>111.6</v>
@@ -3067,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3078,7 +3082,7 @@
         <v>100101</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>63</v>
@@ -3098,7 +3102,7 @@
         <v>580</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3109,7 +3113,7 @@
         <v>200101</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37">
         <v>67</v>
@@ -3123,7 +3127,7 @@
         <v>22.33333311</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3134,7 +3138,7 @@
         <v>100102</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="8">
         <v>8</v>
@@ -3154,7 +3158,7 @@
         <v>200</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K38" s="8" t="b">
         <v>0</v>
@@ -3166,7 +3170,7 @@
         <v>200102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" s="8">
         <v>10</v>
@@ -3186,7 +3190,7 @@
         <v>290</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K39" s="8" t="b">
         <v>0</v>
@@ -3198,7 +3202,7 @@
         <v>300102</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="8">
         <v>12</v>
@@ -3212,7 +3216,7 @@
         <v>3.99999996</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K40" s="8" t="b">
         <v>0</v>
@@ -3224,7 +3228,7 @@
         <v>100103</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -3238,7 +3242,7 @@
         <v>8.33333325</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3249,21 +3253,21 @@
         <v>100104</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="5"/>
-        <v>8.66666658</v>
+        <v>11.33333322</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3274,7 +3278,7 @@
         <v>100105</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -3294,7 +3298,7 @@
         <v>220</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3305,7 +3309,7 @@
         <v>200105</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3319,7 +3323,7 @@
         <v>2.66666664</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3330,7 +3334,7 @@
         <v>100106</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3346,6 +3350,9 @@
         <f t="shared" si="5"/>
         <v>1.66666665</v>
       </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
       <c r="H45">
         <v>200106</v>
       </c>
@@ -3353,13 +3360,13 @@
         <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q45" t="s">
         <v>30</v>
@@ -3373,7 +3380,7 @@
         <v>200106</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -3396,13 +3403,19 @@
         <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
+      <c r="M46">
+        <v>100052</v>
+      </c>
+      <c r="N46" t="s">
+        <v>122</v>
+      </c>
       <c r="O46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q46" t="s">
         <v>30</v>
@@ -3416,7 +3429,7 @@
         <v>300106</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -3433,13 +3446,19 @@
         <v>2.33333331</v>
       </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
       </c>
+      <c r="M47">
+        <v>200052</v>
+      </c>
+      <c r="N47" t="s">
+        <v>122</v>
+      </c>
       <c r="O47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q47" t="s">
         <v>30</v>
@@ -3453,7 +3472,7 @@
         <v>100107</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -3466,11 +3485,14 @@
         <f t="shared" ref="F48:F70" si="6">MMULT(C48,0.33333333)</f>
         <v>9.9999999</v>
       </c>
+      <c r="H48">
+        <v>200107</v>
+      </c>
       <c r="I48">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J48" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -3481,21 +3503,21 @@
         <v>200107</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F49" s="7">
         <f t="shared" si="6"/>
-        <v>11.66666655</v>
+        <v>19.9999998</v>
       </c>
       <c r="J49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3506,7 +3528,7 @@
         <v>100108</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3526,7 +3548,7 @@
         <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3537,7 +3559,7 @@
         <v>200108</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -3557,7 +3579,7 @@
         <v>320</v>
       </c>
       <c r="J51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3568,7 +3590,7 @@
         <v>300108</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -3582,7 +3604,7 @@
         <v>4.99999995</v>
       </c>
       <c r="J52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3593,7 +3615,7 @@
         <v>100109</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3613,7 +3635,7 @@
         <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3624,7 +3646,7 @@
         <v>200109</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3644,7 +3666,7 @@
         <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3655,7 +3677,7 @@
         <v>300109</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C55">
         <v>12.7</v>
@@ -3669,7 +3691,7 @@
         <v>4.233333291</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3680,7 +3702,7 @@
         <v>100110</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -3700,7 +3722,7 @@
         <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3711,7 +3733,7 @@
         <v>200110</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57">
         <v>11.5</v>
@@ -3731,7 +3753,7 @@
         <v>320</v>
       </c>
       <c r="J57" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3742,7 +3764,7 @@
         <v>300110</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -3756,7 +3778,7 @@
         <v>4.33333329</v>
       </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3767,7 +3789,7 @@
         <v>100111</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -3781,7 +3803,7 @@
         <v>1.99999998</v>
       </c>
       <c r="J59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3792,7 +3814,7 @@
         <v>100112</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -3809,13 +3831,13 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" customFormat="1" spans="1:12">
@@ -3823,7 +3845,7 @@
         <v>100113</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -3840,13 +3862,13 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3854,7 +3876,7 @@
         <v>110001</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C62">
         <v>80</v>
@@ -3871,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3882,7 +3904,7 @@
         <v>110002</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C63">
         <v>100</v>
@@ -3899,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -3910,7 +3932,7 @@
         <v>110003</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -3927,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3938,7 +3960,7 @@
         <v>110004</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C65">
         <v>19</v>
@@ -3955,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -3997,7 +4019,7 @@
         <v>110006</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -4014,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4025,7 +4047,7 @@
         <v>110007</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68">
         <v>120</v>
@@ -4045,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4056,7 +4078,7 @@
         <v>110008</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C69">
         <v>140</v>
@@ -4076,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4087,7 +4109,7 @@
         <v>110009</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -4104,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4115,7 +4137,7 @@
         <v>110010</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -4132,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4143,7 +4165,7 @@
         <v>110011</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C72">
         <v>26</v>
@@ -4160,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4171,7 +4193,7 @@
         <v>110012</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C73">
         <v>19</v>
@@ -4188,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4216,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
@@ -4247,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K75" t="b">
         <v>1</v>
@@ -4262,7 +4284,7 @@
         <v>210101</v>
       </c>
       <c r="B76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -4279,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
@@ -4289,7 +4311,7 @@
         <v>100097</v>
       </c>
       <c r="N76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" customFormat="1" spans="1:14">
@@ -4297,18 +4319,18 @@
         <v>210102</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C77">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="8"/>
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" si="10"/>
-        <v>1.366666653</v>
+        <v>1.066666656</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4317,10 +4339,10 @@
         <v>210112</v>
       </c>
       <c r="I77">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
@@ -4330,7 +4352,7 @@
         <v>100050</v>
       </c>
       <c r="N77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4338,18 +4360,18 @@
         <v>210112</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C78">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="8"/>
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="F78" s="7">
         <f t="shared" si="10"/>
-        <v>1.699999983</v>
+        <v>1.499999985</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -4358,10 +4380,10 @@
         <v>210122</v>
       </c>
       <c r="I78">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="J78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
@@ -4370,7 +4392,7 @@
         <v>200050</v>
       </c>
       <c r="N78" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4378,18 +4400,18 @@
         <v>210122</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F79" s="7">
         <f t="shared" si="10"/>
-        <v>1.99999998</v>
+        <v>1.833333315</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -4398,10 +4420,10 @@
         <v>210132</v>
       </c>
       <c r="I79">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="J79" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
@@ -4410,7 +4432,7 @@
         <v>300050</v>
       </c>
       <c r="N79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4418,24 +4440,24 @@
         <v>210132</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C80">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="8"/>
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="10"/>
-        <v>2.266666644</v>
+        <v>2.166666645</v>
       </c>
       <c r="G80">
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
@@ -4444,7 +4466,7 @@
         <v>400050</v>
       </c>
       <c r="N80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4452,7 +4474,7 @@
         <v>210103</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C81">
         <v>4.9</v>
@@ -4475,7 +4497,7 @@
         <v>180</v>
       </c>
       <c r="J81" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
@@ -4484,7 +4506,7 @@
         <v>100051</v>
       </c>
       <c r="N81" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4492,7 +4514,7 @@
         <v>210113</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C82">
         <v>5.7</v>
@@ -4515,7 +4537,7 @@
         <v>240</v>
       </c>
       <c r="J82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
@@ -4524,7 +4546,7 @@
         <v>200051</v>
       </c>
       <c r="N82" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4532,7 +4554,7 @@
         <v>210123</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C83">
         <v>6.4</v>
@@ -4549,7 +4571,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
@@ -4558,7 +4580,7 @@
         <v>300051</v>
       </c>
       <c r="N83" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:14">
@@ -4566,7 +4588,7 @@
         <v>210104</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C84">
         <v>6.4</v>
@@ -4589,7 +4611,7 @@
         <v>250</v>
       </c>
       <c r="J84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
@@ -4599,7 +4621,7 @@
         <v>100112</v>
       </c>
       <c r="N84" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:14">
@@ -4607,7 +4629,7 @@
         <v>210114</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C85">
         <v>7.2</v>
@@ -4624,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
@@ -4634,7 +4656,7 @@
         <v>200112</v>
       </c>
       <c r="N85" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" customFormat="1" spans="1:14">
@@ -4642,7 +4664,7 @@
         <v>210105</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -4659,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -4669,7 +4691,7 @@
         <v>100113</v>
       </c>
       <c r="N86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" customFormat="1" spans="1:14">
@@ -4677,7 +4699,7 @@
         <v>210201</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C87">
         <v>110</v>
@@ -4713,7 +4735,7 @@
         <v>100056</v>
       </c>
       <c r="N87" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:14">
@@ -4751,7 +4773,7 @@
         <v>200056</v>
       </c>
       <c r="N88" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4759,7 +4781,7 @@
         <v>210301</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C89">
         <v>4.7</v>
@@ -4782,7 +4804,7 @@
         <v>180</v>
       </c>
       <c r="J89" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
@@ -4791,7 +4813,7 @@
         <v>100050</v>
       </c>
       <c r="N89" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4799,7 +4821,7 @@
         <v>210311</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -4822,7 +4844,7 @@
         <v>210</v>
       </c>
       <c r="J90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
@@ -4831,7 +4853,7 @@
         <v>200050</v>
       </c>
       <c r="N90" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4839,7 +4861,7 @@
         <v>210321</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C91">
         <v>5.4</v>
@@ -4856,7 +4878,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -4865,7 +4887,7 @@
         <v>300050</v>
       </c>
       <c r="N91" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4873,7 +4895,7 @@
         <v>210302</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C92">
         <v>4.7</v>
@@ -4896,7 +4918,7 @@
         <v>160</v>
       </c>
       <c r="J92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
@@ -4905,7 +4927,7 @@
         <v>100051</v>
       </c>
       <c r="N92" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4913,7 +4935,7 @@
         <v>210312</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C93">
         <v>5.7</v>
@@ -4936,7 +4958,7 @@
         <v>220</v>
       </c>
       <c r="J93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
@@ -4945,7 +4967,7 @@
         <v>200051</v>
       </c>
       <c r="N93" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4953,7 +4975,7 @@
         <v>210322</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94">
         <v>6.7</v>
@@ -4970,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
@@ -4979,7 +5001,7 @@
         <v>300051</v>
       </c>
       <c r="N94" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" customFormat="1" spans="1:14">
@@ -4987,7 +5009,7 @@
         <v>210303</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -5010,7 +5032,7 @@
         <v>120</v>
       </c>
       <c r="J95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
@@ -5020,7 +5042,7 @@
         <v>100112</v>
       </c>
       <c r="N95" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:14">
@@ -5028,7 +5050,7 @@
         <v>210313</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -5051,7 +5073,7 @@
         <v>195</v>
       </c>
       <c r="J96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -5061,7 +5083,7 @@
         <v>200112</v>
       </c>
       <c r="N96" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:14">
@@ -5069,7 +5091,7 @@
         <v>210323</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97">
         <v>6.2</v>
@@ -5092,7 +5114,7 @@
         <v>300</v>
       </c>
       <c r="J97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
@@ -5102,7 +5124,7 @@
         <v>300112</v>
       </c>
       <c r="N97" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5110,7 +5132,7 @@
         <v>210333</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C98">
         <v>7.1</v>
@@ -5127,7 +5149,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
@@ -5136,7 +5158,7 @@
         <v>400112</v>
       </c>
       <c r="N98" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5144,7 +5166,7 @@
         <v>210401</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C99">
         <v>6.1</v>
@@ -5167,7 +5189,7 @@
         <v>200</v>
       </c>
       <c r="J99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
@@ -5176,7 +5198,7 @@
         <v>100112</v>
       </c>
       <c r="N99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5184,7 +5206,7 @@
         <v>210411</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100">
         <v>7.2</v>
@@ -5207,7 +5229,7 @@
         <v>230</v>
       </c>
       <c r="J100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
@@ -5216,7 +5238,7 @@
         <v>200112</v>
       </c>
       <c r="N100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5224,7 +5246,7 @@
         <v>210421</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -5241,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
@@ -5250,7 +5272,7 @@
         <v>300112</v>
       </c>
       <c r="N101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -5275,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
@@ -5284,12 +5306,12 @@
         <v>100097</v>
       </c>
     </row>
-    <row r="103" customFormat="1" spans="1:14">
+    <row r="103" customFormat="1" spans="1:18">
       <c r="A103" s="21">
         <v>210601</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -5312,7 +5334,7 @@
         <v>200</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
@@ -5322,10 +5344,16 @@
         <v>100050</v>
       </c>
       <c r="N103" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:14">
+        <v>232</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>30</v>
+      </c>
+      <c r="R103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:18">
       <c r="A104" s="21">
         <v>210611</v>
       </c>
@@ -5363,10 +5391,16 @@
         <v>200050</v>
       </c>
       <c r="N104" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:14">
+        <v>232</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>30</v>
+      </c>
+      <c r="R104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:18">
       <c r="A105" s="21">
         <v>210621</v>
       </c>
@@ -5398,7 +5432,13 @@
         <v>300050</v>
       </c>
       <c r="N105" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>30</v>
+      </c>
+      <c r="R105" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106" customFormat="1" spans="1:14">
@@ -5406,7 +5446,7 @@
         <v>210701</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C106">
         <v>5.7</v>
@@ -5429,7 +5469,7 @@
         <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -5439,7 +5479,7 @@
         <v>100112</v>
       </c>
       <c r="N106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:14">
@@ -5447,7 +5487,7 @@
         <v>210711</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C107">
         <v>6.2</v>
@@ -5470,7 +5510,7 @@
         <v>245</v>
       </c>
       <c r="J107" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
@@ -5480,7 +5520,7 @@
         <v>200112</v>
       </c>
       <c r="N107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:14">
@@ -5488,7 +5528,7 @@
         <v>210721</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -5505,7 +5545,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
@@ -5515,7 +5555,7 @@
         <v>300112</v>
       </c>
       <c r="N108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -5576,20 +5616,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5597,7 +5637,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5605,7 +5645,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5613,7 +5653,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5621,10 +5661,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5649,22 +5697,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5678,7 +5726,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5693,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5701,7 +5749,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5710,7 +5758,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5"/>
     </row>
@@ -5719,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5727,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13005" activeTab="3"/>
+    <workbookView windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="272">
   <si>
     <t>Id</t>
   </si>
@@ -73,6 +73,9 @@
     <t>OverloadUpPriceMult</t>
   </si>
   <si>
+    <t>SquadCount</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Dict&lt;String,Double&gt;</t>
   </si>
   <si>
+    <t>Int16</t>
+  </si>
+  <si>
     <t>EnumRef:ESquadType</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>Reference:Squad.SquadData</t>
   </si>
   <si>
+    <t>Default:1</t>
+  </si>
+  <si>
     <t>Partial:3;CustomEnum:_SquadType,_Type;</t>
   </si>
   <si>
@@ -214,331 +223,373 @@
     <t>unit_war_elephant_tower2_4_sul</t>
   </si>
   <si>
-    <t>蜂窝炮4</t>
+    <t>巨投</t>
+  </si>
+  <si>
+    <t>unit_trebuchet_4_cw_</t>
+  </si>
+  <si>
+    <t>蜂窝炮钟楼</t>
+  </si>
+  <si>
+    <t>unit_nest_of_bees_4_clocktower_chi</t>
+  </si>
+  <si>
+    <t>手推炮4</t>
+  </si>
+  <si>
+    <t>unit_bombard_4_</t>
+  </si>
+  <si>
+    <t>ott:210201</t>
+  </si>
+  <si>
+    <t>火炮4</t>
+  </si>
+  <si>
+    <t>unit_cannon_4_</t>
+  </si>
+  <si>
+    <t>乌尔班巨炮</t>
+  </si>
+  <si>
+    <t>unit_great_bombard_4_ott</t>
+  </si>
+  <si>
+    <t>诸葛弩2</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_2_chi</t>
+  </si>
+  <si>
+    <t>诸葛弩3</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_3_chi</t>
+  </si>
+  <si>
+    <t>诸葛弩4</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_4_chi</t>
+  </si>
+  <si>
+    <t>教士</t>
+  </si>
+  <si>
+    <t>unit_monk_3_</t>
+  </si>
+  <si>
+    <t>byz:210001;sul:210001;hre:210002;jpn:210101;abb_ha_01:210501;hre_ha_01:210002</t>
+  </si>
+  <si>
+    <t>火枪4</t>
+  </si>
+  <si>
+    <t>unit_handcannon_4_</t>
+  </si>
+  <si>
+    <t>ott:16</t>
+  </si>
+  <si>
+    <t>hre_ha_01:1.6</t>
+  </si>
+  <si>
+    <t>火长矛3</t>
+  </si>
+  <si>
+    <t>unit_firelancer_3_chi</t>
+  </si>
+  <si>
+    <t>火长矛4</t>
+  </si>
+  <si>
+    <t>unit_firelancer_4_chi</t>
+  </si>
+  <si>
+    <t>弩车3</t>
+  </si>
+  <si>
+    <t>unit_springald_3_</t>
+  </si>
+  <si>
+    <t>弩车钟楼</t>
+  </si>
+  <si>
+    <t>unit_springald_3_clocktower_chi</t>
+  </si>
+  <si>
+    <t>长管炮</t>
+  </si>
+  <si>
+    <t>unit_culverin_4_fre</t>
+  </si>
+  <si>
+    <t>投石车3</t>
+  </si>
+  <si>
+    <t>unit_mangonel_3_</t>
+  </si>
+  <si>
+    <t>投石车钟楼</t>
+  </si>
+  <si>
+    <t>unit_mangonel_3_clocktower_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵2</t>
+  </si>
+  <si>
+    <t>unit_grenadier_2_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵3</t>
+  </si>
+  <si>
+    <t>unit_grenadier_3_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵4</t>
+  </si>
+  <si>
+    <t>unit_grenadier_4_chi</t>
+  </si>
+  <si>
+    <t>军乐队2</t>
+  </si>
+  <si>
+    <t>unit_mehter_2_ott</t>
+  </si>
+  <si>
+    <t>战象3</t>
+  </si>
+  <si>
+    <t>unit_war_elephant_3_sul</t>
+  </si>
+  <si>
+    <t>骆驼骑手3</t>
+  </si>
+  <si>
+    <t>unit_camel_rider_3_abb</t>
+  </si>
+  <si>
+    <t>骆驼骑手4</t>
+  </si>
+  <si>
+    <t>unit_camel_rider_4_abb</t>
+  </si>
+  <si>
+    <t>骑手2</t>
+  </si>
+  <si>
+    <t>unit_horseman_2_</t>
+  </si>
+  <si>
+    <t>mal:6.5</t>
+  </si>
+  <si>
+    <t>骑手3</t>
+  </si>
+  <si>
+    <t>unit_horseman_3_</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>mal:7.5</t>
+  </si>
+  <si>
+    <t>骑手4</t>
+  </si>
+  <si>
+    <t>unit_horseman_4_</t>
+  </si>
+  <si>
+    <t>mal:8.5</t>
+  </si>
+  <si>
+    <t>冲车3</t>
+  </si>
+  <si>
+    <t>unit_ram_3_</t>
+  </si>
+  <si>
+    <t>苏丹之塔</t>
+  </si>
+  <si>
+    <t>unit_ram_tower_3_abb_ha_01</t>
+  </si>
+  <si>
+    <t>旗本武士2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本武士3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本武士4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_4_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_4_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_4_jpn</t>
+  </si>
+  <si>
+    <t>武僧</t>
+  </si>
+  <si>
+    <t>unit_monk_shaolin_3_chi_ha_01</t>
+  </si>
+  <si>
+    <t>国家特殊1</t>
+  </si>
+  <si>
+    <t>abb:210401;mal:210303;jpn:210104;mon:210701</t>
+  </si>
+  <si>
+    <t>国家特殊2</t>
+  </si>
+  <si>
+    <t>jpn:210105</t>
+  </si>
+  <si>
+    <t>风琴炮</t>
+  </si>
+  <si>
+    <t>unit_ribauldequin_4_ott</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>unit_abbey_king_2</t>
+  </si>
+  <si>
+    <t>精锐古拉姆</t>
+  </si>
+  <si>
+    <t>unit_ghulam_4_merc_byz</t>
+  </si>
+  <si>
+    <t>精锐射击军</t>
+  </si>
+  <si>
+    <t>unit_streltsy_4_merc_byz</t>
+  </si>
+  <si>
+    <t>精锐掷弹兵</t>
+  </si>
+  <si>
+    <t>皇家长管炮</t>
+  </si>
+  <si>
+    <t>unit_culverin_4_royal_fre</t>
+  </si>
+  <si>
+    <t>精锐长弓兵</t>
+  </si>
+  <si>
+    <t>unit_archer_4_eng</t>
+  </si>
+  <si>
+    <t>精锐苏丹亲兵</t>
+  </si>
+  <si>
+    <t>unit_handcannon_4_ott</t>
+  </si>
+  <si>
+    <t>精锐大筒兵</t>
+  </si>
+  <si>
+    <t>unit_ozutsu_4_jpn</t>
+  </si>
+  <si>
+    <t>精锐沙漠掠夺者</t>
+  </si>
+  <si>
+    <t>unit_mamluk_4_merc_byz</t>
+  </si>
+  <si>
+    <t>僧侣战士</t>
+  </si>
+  <si>
+    <t>unit_monk_3_rus</t>
+  </si>
+  <si>
+    <t>皇家加农炮</t>
+  </si>
+  <si>
+    <t>unit_cannon_4_royal_fre</t>
+  </si>
+  <si>
+    <t>可汗</t>
+  </si>
+  <si>
+    <t>unit_khan_4_mon</t>
+  </si>
+  <si>
+    <t>蜂窝炮</t>
   </si>
   <si>
     <t>unit_nest_of_bees_4_chi</t>
   </si>
   <si>
-    <t>蜂窝炮钟楼</t>
-  </si>
-  <si>
-    <t>unit_nest_of_bees_4_clocktower_chi</t>
-  </si>
-  <si>
-    <t>手推炮4</t>
-  </si>
-  <si>
-    <t>unit_bombard_4_</t>
-  </si>
-  <si>
-    <t>ott:210201</t>
-  </si>
-  <si>
-    <t>火炮4</t>
-  </si>
-  <si>
-    <t>unit_cannon_4_</t>
-  </si>
-  <si>
-    <t>乌尔班巨炮</t>
-  </si>
-  <si>
-    <t>unit_great_bombard_4_ott</t>
-  </si>
-  <si>
-    <t>诸葛弩2</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_2_chi</t>
-  </si>
-  <si>
-    <t>诸葛弩3</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_3_chi</t>
-  </si>
-  <si>
-    <t>诸葛弩4</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_4_chi</t>
-  </si>
-  <si>
-    <t>教士</t>
-  </si>
-  <si>
-    <t>unit_monk_3_</t>
-  </si>
-  <si>
-    <t>byz:210001;sul:210001;hre:210002;jpn:210101;abb_ha_01:210501;hre_ha_01:210002</t>
-  </si>
-  <si>
-    <t>火枪4</t>
-  </si>
-  <si>
-    <t>unit_handcannon_4_</t>
-  </si>
-  <si>
-    <t>ott:16</t>
-  </si>
-  <si>
-    <t>hre_ha_01:1.6</t>
-  </si>
-  <si>
-    <t>火长矛3</t>
-  </si>
-  <si>
-    <t>unit_firelancer_3_chi</t>
-  </si>
-  <si>
-    <t>火长矛4</t>
-  </si>
-  <si>
-    <t>unit_firelancer_4_chi</t>
-  </si>
-  <si>
-    <t>弩车3</t>
-  </si>
-  <si>
-    <t>unit_springald_3_</t>
-  </si>
-  <si>
-    <t>弩车钟楼</t>
-  </si>
-  <si>
-    <t>unit_springald_3_clocktower_chi</t>
-  </si>
-  <si>
-    <t>长管炮</t>
-  </si>
-  <si>
-    <t>unit_culverin_4_fre</t>
-  </si>
-  <si>
-    <t>投石车3</t>
-  </si>
-  <si>
-    <t>unit_mangonel_3_</t>
-  </si>
-  <si>
-    <t>投石车钟楼</t>
-  </si>
-  <si>
-    <t>unit_mangonel_3_clocktower_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵2</t>
-  </si>
-  <si>
-    <t>unit_grenadier_2_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵3</t>
-  </si>
-  <si>
-    <t>unit_grenadier_3_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵4</t>
-  </si>
-  <si>
-    <t>unit_grenadier_4_chi</t>
-  </si>
-  <si>
-    <t>军乐队2</t>
-  </si>
-  <si>
-    <t>unit_mehter_2_ott</t>
-  </si>
-  <si>
-    <t>战象3</t>
-  </si>
-  <si>
-    <t>unit_war_elephant_3_sul</t>
-  </si>
-  <si>
-    <t>骆驼骑手3</t>
-  </si>
-  <si>
-    <t>unit_camel_rider_3_abb</t>
-  </si>
-  <si>
-    <t>骆驼骑手4</t>
-  </si>
-  <si>
-    <t>unit_camel_rider_4_abb</t>
-  </si>
-  <si>
-    <t>骑手2</t>
-  </si>
-  <si>
-    <t>unit_horseman_2_</t>
-  </si>
-  <si>
-    <t>mal:6.5</t>
-  </si>
-  <si>
-    <t>骑手3</t>
-  </si>
-  <si>
-    <t>unit_horseman_3_</t>
-  </si>
-  <si>
-    <t>mal</t>
-  </si>
-  <si>
-    <t>mal:7.5</t>
-  </si>
-  <si>
-    <t>骑手4</t>
-  </si>
-  <si>
-    <t>unit_horseman_4_</t>
-  </si>
-  <si>
-    <t>mal:8.5</t>
-  </si>
-  <si>
-    <t>冲车3</t>
-  </si>
-  <si>
-    <t>unit_ram_3_</t>
-  </si>
-  <si>
-    <t>苏丹之塔</t>
-  </si>
-  <si>
-    <t>unit_ram_tower_3_abb_ha_01</t>
-  </si>
-  <si>
-    <t>旗本武士2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本武士3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本武士4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_4_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_4_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_4_jpn</t>
-  </si>
-  <si>
-    <t>武僧</t>
-  </si>
-  <si>
-    <t>unit_monk_shaolin_3_chi_ha_01</t>
-  </si>
-  <si>
-    <t>国家特殊1</t>
-  </si>
-  <si>
-    <t>abb:210401;mal:210303;jpn:210104;mon:210701</t>
-  </si>
-  <si>
-    <t>国家特殊2</t>
-  </si>
-  <si>
-    <t>jpn:210105</t>
-  </si>
-  <si>
-    <t>风琴炮</t>
-  </si>
-  <si>
-    <t>unit_ribauldequin_4_ott</t>
-  </si>
-  <si>
-    <t>国王</t>
-  </si>
-  <si>
-    <t>unit_abbey_king_2</t>
-  </si>
-  <si>
-    <t>精锐古拉姆</t>
-  </si>
-  <si>
-    <t>unit_ghulam_4_merc_byz</t>
-  </si>
-  <si>
-    <t>精锐射击军</t>
-  </si>
-  <si>
-    <t>unit_streltsy_4_merc_byz</t>
-  </si>
-  <si>
-    <t>精锐掷弹兵</t>
-  </si>
-  <si>
-    <t>皇家长管炮</t>
-  </si>
-  <si>
-    <t>unit_culverin_4_royal_fre</t>
-  </si>
-  <si>
-    <t>精锐长弓兵</t>
-  </si>
-  <si>
-    <t>unit_archer_4_eng</t>
-  </si>
-  <si>
-    <t>精锐苏丹亲兵</t>
-  </si>
-  <si>
-    <t>unit_handcannon_4_ott</t>
-  </si>
-  <si>
-    <t>精锐大筒兵</t>
-  </si>
-  <si>
-    <t>unit_ozutsu_4_jpn</t>
-  </si>
-  <si>
-    <t>精锐沙漠掠夺者</t>
-  </si>
-  <si>
-    <t>unit_mamluk_4_merc_byz</t>
+    <t>回回炮</t>
+  </si>
+  <si>
+    <t>unit_khaganate_great_trebuchet_mon</t>
+  </si>
+  <si>
+    <t>温嘉德突袭小队</t>
+  </si>
+  <si>
+    <t>unit_wynguard_raiders_eng</t>
+  </si>
+  <si>
+    <t>明朝帝国卫队</t>
+  </si>
+  <si>
+    <t>unit_ming_guard_chi_ha_01</t>
   </si>
   <si>
     <t>unit_monk_2_</t>
@@ -760,6 +811,15 @@
     <t>BuildingAttacker</t>
   </si>
   <si>
+    <t>Trebuchet</t>
+  </si>
+  <si>
+    <t>HuiHuiPao</t>
+  </si>
+  <si>
+    <t>MultiSquad</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -769,7 +829,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>byz;byz</t>
+    <t>fre;fre</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -781,8 +841,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -822,6 +882,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,31 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,6 +951,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -917,13 +984,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,7 +1012,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +1057,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1021,19 +1087,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,13 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,67 +1225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,49 +1249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,6 +1260,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1228,21 +1303,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,11 +1346,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,149 +1368,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1508,16 +1574,25 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1868,10 +1943,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1885,7 +1964,7 @@
     <col min="7" max="7" width="24.2833333333333" customWidth="1"/>
     <col min="8" max="8" width="30.425" customWidth="1"/>
     <col min="9" max="9" width="22.5666666666667" customWidth="1"/>
-    <col min="10" max="10" width="34.375" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
     <col min="11" max="11" width="16.2833333333333" customWidth="1"/>
     <col min="12" max="12" width="45.625" style="9" customWidth="1"/>
     <col min="13" max="13" width="14.625" customWidth="1"/>
@@ -1894,9 +1973,10 @@
     <col min="16" max="16" width="33.25" customWidth="1"/>
     <col min="17" max="17" width="39.625" customWidth="1"/>
     <col min="18" max="18" width="36.5" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,77 +2031,83 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:18">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:19">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2033,10 +2119,13 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2055,13 +2144,14 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="10">
         <v>100048</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>3.3</v>
@@ -2087,24 +2177,25 @@
         <v>160</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="11">
         <v>200048</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2130,24 +2221,25 @@
         <v>205</v>
       </c>
       <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>30</v>
-      </c>
       <c r="R6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S6" s="21"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="11">
         <v>300048</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2170,24 +2262,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S7" s="21"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="10">
         <v>100049</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>3.4</v>
@@ -2207,24 +2300,25 @@
         <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="10">
         <v>200049</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>4.2</v>
@@ -2244,24 +2338,25 @@
         <v>210</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S9" s="21"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="11">
         <v>300049</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>5.2</v>
@@ -2275,24 +2370,25 @@
         <v>1.733333316</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:19">
       <c r="A11" s="12">
         <v>100050</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -2312,23 +2408,24 @@
         <v>300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:18">
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:19">
       <c r="A12" s="12">
         <v>200050</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7">
         <v>6.6</v>
@@ -2342,7 +2439,7 @@
         <v>2.199999978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
@@ -2350,13 +2447,14 @@
       <c r="L12" s="9"/>
       <c r="Q12"/>
       <c r="R12"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="22"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="11">
         <v>100051</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2377,27 +2475,28 @@
         <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="11">
         <v>200051</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -2411,24 +2510,25 @@
         <v>2.33333331</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S14" s="21"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="11">
         <v>100052</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -2451,27 +2551,28 @@
         <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S15" s="21"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="11">
         <v>200052</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -2488,24 +2589,25 @@
         <v>3.99999996</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="11">
         <v>100053</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2525,18 +2627,19 @@
         <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="S17" s="21"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="10">
         <v>200053</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>7.5</v>
@@ -2550,18 +2653,19 @@
         <v>2.499999975</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="S18" s="21"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="10">
         <v>100054</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -2581,18 +2685,19 @@
         <v>420</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="S19" s="21"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="10">
         <v>200054</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -2606,52 +2711,48 @@
         <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="S20" s="21"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="10">
         <v>100055</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="3"/>
-        <v>21.99999978</v>
-      </c>
-      <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
-        <v>200055</v>
-      </c>
-      <c r="I21">
-        <v>600</v>
+        <v>25.99999974</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="10">
         <v>200055</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>76</v>
@@ -2665,18 +2766,19 @@
         <v>25.33333308</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="10">
         <v>100056</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -2699,21 +2801,22 @@
         <v>700</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="10">
         <v>200056</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>84</v>
@@ -2736,18 +2839,19 @@
         <v>1000</v>
       </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="13">
         <v>300056</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>148.5</v>
@@ -2767,18 +2871,19 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="10">
         <v>100057</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>3.6</v>
@@ -2798,18 +2903,19 @@
         <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="10">
         <v>200057</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>4.8</v>
@@ -2829,18 +2935,19 @@
         <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="10">
         <v>300057</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>5.6</v>
@@ -2854,18 +2961,19 @@
         <v>1.866666648</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="S28" s="21"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="10">
         <v>100097</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2879,21 +2987,22 @@
         <v>2.66666664</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>87</v>
+      </c>
+      <c r="S29" s="21"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="10">
         <v>100098</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -2907,27 +3016,28 @@
         <v>5.99999994</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>91</v>
+      </c>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="11">
         <v>100099</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -2947,18 +3057,19 @@
         <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="S31" s="21"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="10">
         <v>200099</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -2972,18 +3083,19 @@
         <v>2.99999997</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="10">
         <v>100100</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>47</v>
@@ -3006,18 +3118,19 @@
         <v>540</v>
       </c>
       <c r="J33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="10">
         <v>200100</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34">
         <v>52</v>
@@ -3040,18 +3153,19 @@
         <v>924</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="13">
         <v>300100</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>111.6</v>
@@ -3071,18 +3185,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="10">
         <v>100101</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>63</v>
@@ -3102,18 +3217,19 @@
         <v>580</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="10">
         <v>200101</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C37">
         <v>67</v>
@@ -3127,18 +3243,19 @@
         <v>22.33333311</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" s="8" customFormat="1" spans="1:12">
+      <c r="S37" s="21"/>
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:19">
       <c r="A38" s="14">
         <v>100102</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C38" s="8">
         <v>8</v>
@@ -3158,19 +3275,20 @@
         <v>200</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K38" s="8" t="b">
         <v>0</v>
       </c>
       <c r="L38" s="20"/>
-    </row>
-    <row r="39" s="8" customFormat="1" spans="1:12">
+      <c r="S38" s="23"/>
+    </row>
+    <row r="39" s="8" customFormat="1" spans="1:19">
       <c r="A39" s="14">
         <v>200102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" s="8">
         <v>10</v>
@@ -3190,19 +3308,20 @@
         <v>290</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K39" s="8" t="b">
         <v>0</v>
       </c>
       <c r="L39" s="20"/>
-    </row>
-    <row r="40" s="8" customFormat="1" spans="1:12">
+      <c r="S39" s="23"/>
+    </row>
+    <row r="40" s="8" customFormat="1" spans="1:19">
       <c r="A40" s="14">
         <v>300102</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C40" s="8">
         <v>12</v>
@@ -3216,19 +3335,20 @@
         <v>3.99999996</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K40" s="8" t="b">
         <v>0</v>
       </c>
       <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="S40" s="23"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="10">
         <v>100103</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -3242,18 +3362,19 @@
         <v>8.33333325</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="S41" s="21"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="10">
         <v>100104</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -3267,18 +3388,19 @@
         <v>11.33333322</v>
       </c>
       <c r="J42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="S42" s="21"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="10">
         <v>100105</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -3298,18 +3420,19 @@
         <v>220</v>
       </c>
       <c r="J43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="S43" s="21"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="10">
         <v>200105</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3323,18 +3446,19 @@
         <v>2.66666664</v>
       </c>
       <c r="J44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="21"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="10">
         <v>100106</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3360,27 +3484,28 @@
         <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S45" s="21"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="10">
         <v>200106</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -3403,7 +3528,7 @@
         <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -3412,24 +3537,25 @@
         <v>100052</v>
       </c>
       <c r="N46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O46" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q46" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="S46" s="21"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="10">
         <v>300106</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -3446,7 +3572,7 @@
         <v>2.33333331</v>
       </c>
       <c r="J47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -3455,24 +3581,25 @@
         <v>200052</v>
       </c>
       <c r="N47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q47" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>34</v>
+      </c>
+      <c r="S47" s="21"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="10">
         <v>100107</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -3492,18 +3619,19 @@
         <v>500</v>
       </c>
       <c r="J48" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="S48" s="21"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="10">
         <v>200107</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -3517,18 +3645,19 @@
         <v>19.9999998</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="S49" s="21"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="10">
         <v>100108</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3548,18 +3677,19 @@
         <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="S50" s="21"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="10">
         <v>200108</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -3579,18 +3709,19 @@
         <v>320</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="S51" s="21"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="10">
         <v>300108</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -3604,18 +3735,19 @@
         <v>4.99999995</v>
       </c>
       <c r="J52" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="S52" s="21"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="10">
         <v>100109</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3635,18 +3767,19 @@
         <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="S53" s="21"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="10">
         <v>200109</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3666,24 +3799,25 @@
         <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="S54" s="21"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="10">
         <v>300109</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C55">
         <v>12.7</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" ref="D55:D61" si="7">MMULT(C55,1)</f>
+        <f t="shared" ref="D55:D68" si="7">MMULT(C55,1)</f>
         <v>12.7</v>
       </c>
       <c r="F55" s="7">
@@ -3691,18 +3825,19 @@
         <v>4.233333291</v>
       </c>
       <c r="J55" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="S55" s="21"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="10">
         <v>100110</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -3722,18 +3857,19 @@
         <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="S56" s="21"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="10">
         <v>200110</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C57">
         <v>11.5</v>
@@ -3753,18 +3889,19 @@
         <v>320</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="S57" s="21"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="10">
         <v>300110</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -3778,18 +3915,19 @@
         <v>4.33333329</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="S58" s="21"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="10">
         <v>100111</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -3803,18 +3941,19 @@
         <v>1.99999998</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customFormat="1" spans="1:12">
+      <c r="S59" s="21"/>
+    </row>
+    <row r="60" customFormat="1" spans="1:19">
       <c r="A60" s="10">
         <v>100112</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -3831,21 +3970,22 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" customFormat="1" spans="1:12">
+        <v>155</v>
+      </c>
+      <c r="S60" s="21"/>
+    </row>
+    <row r="61" customFormat="1" spans="1:19">
       <c r="A61" s="10">
         <v>100113</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -3862,27 +4002,28 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>157</v>
+      </c>
+      <c r="S61" s="21"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="13">
         <v>110001</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C62">
         <v>80</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" ref="D62:D88" si="8">MMULT(C62,1)</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="F62" s="7">
@@ -3890,27 +4031,28 @@
         <v>26.6666664</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="S62" s="21"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="13">
         <v>110002</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C63">
         <v>100</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="F63" s="7">
@@ -3921,24 +4063,25 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="S63" s="21"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="13">
         <v>110003</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C64">
         <v>9</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="F64" s="7">
@@ -3949,24 +4092,25 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="S64" s="21"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="13">
         <v>110004</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C65">
         <v>19</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="F65" s="7">
@@ -3977,24 +4121,25 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="S65" s="21"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="13">
         <v>110005</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>160</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="E66">
@@ -4008,24 +4153,25 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="S66" s="21"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="13">
         <v>110006</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C67">
         <v>12</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="F67" s="7">
@@ -4033,27 +4179,28 @@
         <v>3.99999996</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="S67" s="21"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="13">
         <v>110007</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>120</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="E68">
@@ -4067,24 +4214,25 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="S68" s="21"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="13">
         <v>110008</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C69">
         <v>140</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D69:D80" si="8">MMULT(C69,1)</f>
         <v>140</v>
       </c>
       <c r="E69">
@@ -4098,18 +4246,19 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="S69" s="21"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="13">
         <v>110009</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C70">
         <v>6</v>
@@ -4126,18 +4275,19 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="S70" s="21"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="13">
         <v>110010</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -4147,25 +4297,26 @@
         <v>16</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ref="F71:F75" si="9">MMULT(C71,0.33333333)</f>
+        <f t="shared" ref="F71:F82" si="9">MMULT(C71,0.33333333)</f>
         <v>5.33333328</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="S71" s="21"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="13">
         <v>110011</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C72">
         <v>26</v>
@@ -4182,18 +4333,19 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="S72" s="21"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="13">
         <v>110012</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C73">
         <v>19</v>
@@ -4210,1401 +4362,1655 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:13">
-      <c r="A74" s="10">
-        <v>210001</v>
+      <c r="S73" s="21"/>
+    </row>
+    <row r="74" customFormat="1" spans="1:19">
+      <c r="A74" s="13">
+        <v>110013</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F74" s="7">
         <f t="shared" si="9"/>
-        <v>2.66666664</v>
+        <v>4.33333329</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="9"/>
-      <c r="M74" s="10">
-        <v>100097</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:13">
-      <c r="A75" s="10">
-        <v>210002</v>
+      <c r="S74" s="21"/>
+    </row>
+    <row r="75" customFormat="1" spans="1:19">
+      <c r="A75" s="13">
+        <v>110014</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D75" s="7">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>102</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="9"/>
-        <v>2.33333331</v>
+        <v>33.99999966</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="9"/>
-      <c r="M75" s="10">
-        <v>100097</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:14">
-      <c r="A76" s="21">
-        <v>210101</v>
+      <c r="S75" s="21"/>
+    </row>
+    <row r="76" customFormat="1" spans="1:19">
+      <c r="A76" s="13">
+        <v>110015</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" ref="F76:F88" si="10">MMULT(C76,0.33333333)</f>
-        <v>2.99999997</v>
+        <f t="shared" si="9"/>
+        <v>4.66666662</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" s="9"/>
-      <c r="M76" s="10">
-        <v>100097</v>
-      </c>
-      <c r="N76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:14">
-      <c r="A77" s="21">
-        <v>210102</v>
+      <c r="S76" s="21"/>
+    </row>
+    <row r="77" customFormat="1" spans="1:19">
+      <c r="A77" s="13">
+        <v>110016</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C77">
-        <v>3.2</v>
+        <v>73</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="8"/>
-        <v>3.2</v>
+        <v>73</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="10"/>
-        <v>1.066666656</v>
+        <f t="shared" si="9"/>
+        <v>24.33333309</v>
       </c>
       <c r="G77">
-        <v>3</v>
-      </c>
-      <c r="H77" s="22">
-        <v>210112</v>
-      </c>
-      <c r="I77">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" s="9"/>
-      <c r="M77" s="10">
-        <v>100050</v>
-      </c>
-      <c r="N77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="21">
-        <v>210112</v>
+      <c r="S77" s="21"/>
+    </row>
+    <row r="78" customFormat="1" spans="1:19">
+      <c r="A78" s="13">
+        <v>110017</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C78">
-        <v>4.5</v>
+        <v>94</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="8"/>
-        <v>4.5</v>
+        <v>94</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="10"/>
-        <v>1.499999985</v>
+        <f t="shared" si="9"/>
+        <v>31.33333302</v>
       </c>
       <c r="G78">
-        <v>3</v>
-      </c>
-      <c r="H78" s="22">
-        <v>210122</v>
-      </c>
-      <c r="I78">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" s="10">
-        <v>200050</v>
-      </c>
-      <c r="N78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="21">
-        <v>210122</v>
+        <v>0</v>
+      </c>
+      <c r="L78" s="9"/>
+      <c r="S78" s="21"/>
+    </row>
+    <row r="79" customFormat="1" spans="1:19">
+      <c r="A79" s="13">
+        <v>110018</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C79">
-        <v>5.5</v>
+        <v>40</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="8"/>
-        <v>5.5</v>
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="10"/>
-        <v>1.833333315</v>
+        <f t="shared" si="9"/>
+        <v>13.3333332</v>
       </c>
       <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79" s="22">
-        <v>210132</v>
-      </c>
-      <c r="I79">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>300050</v>
-      </c>
-      <c r="N79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="21">
-        <v>210132</v>
+        <v>0</v>
+      </c>
+      <c r="L79" s="9"/>
+      <c r="S79" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:19">
+      <c r="A80" s="13">
+        <v>110019</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C80">
-        <v>6.5</v>
+        <v>20</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="8"/>
-        <v>6.5</v>
+        <v>20</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="10"/>
-        <v>2.166666645</v>
+        <f t="shared" si="9"/>
+        <v>6.6666666</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>400050</v>
-      </c>
-      <c r="N80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="21">
-        <v>210103</v>
+        <v>0</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="S80" s="21"/>
+    </row>
+    <row r="81" customFormat="1" ht="14" customHeight="1" spans="1:19">
+      <c r="A81" s="10">
+        <v>210001</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="C81">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" si="8"/>
-        <v>4.9</v>
+        <f t="shared" ref="D81:D95" si="10">MMULT(C81,1)</f>
+        <v>8</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="10"/>
-        <v>1.633333317</v>
+        <f t="shared" si="9"/>
+        <v>2.66666664</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
-      <c r="H81">
-        <v>210113</v>
-      </c>
-      <c r="I81">
-        <v>180</v>
-      </c>
       <c r="J81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
       </c>
-      <c r="M81">
-        <v>100051</v>
-      </c>
-      <c r="N81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="21">
-        <v>210113</v>
+      <c r="L81" s="9"/>
+      <c r="M81" s="10">
+        <v>100097</v>
+      </c>
+      <c r="S81" s="21"/>
+    </row>
+    <row r="82" customFormat="1" spans="1:19">
+      <c r="A82" s="10">
+        <v>210002</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="C82">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="D82" s="7">
-        <f t="shared" si="8"/>
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="10"/>
-        <v>1.899999981</v>
+        <f t="shared" si="9"/>
+        <v>2.33333331</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
-      <c r="H82">
-        <v>210123</v>
-      </c>
-      <c r="I82">
-        <v>240</v>
-      </c>
       <c r="J82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
       </c>
-      <c r="M82">
-        <v>200051</v>
-      </c>
-      <c r="N82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="21">
-        <v>210123</v>
+      <c r="L82" s="9"/>
+      <c r="M82" s="10">
+        <v>100097</v>
+      </c>
+      <c r="S82" s="21"/>
+    </row>
+    <row r="83" customFormat="1" spans="1:19">
+      <c r="A83" s="24">
+        <v>210101</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C83">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="8"/>
-        <v>6.4</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="10"/>
-        <v>2.133333312</v>
+        <f t="shared" ref="F83:F95" si="11">MMULT(C83,0.33333333)</f>
+        <v>2.99999997</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="M83">
-        <v>300051</v>
+      <c r="L83" s="9"/>
+      <c r="M83" s="10">
+        <v>100097</v>
       </c>
       <c r="N83" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:14">
-      <c r="A84" s="21">
-        <v>210104</v>
+        <v>195</v>
+      </c>
+      <c r="S83" s="21"/>
+    </row>
+    <row r="84" customFormat="1" spans="1:19">
+      <c r="A84" s="24">
+        <v>210102</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C84">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="8"/>
-        <v>6.4</v>
+        <f t="shared" si="10"/>
+        <v>3.2</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="10"/>
-        <v>2.133333312</v>
+        <f t="shared" si="11"/>
+        <v>1.066666656</v>
       </c>
       <c r="G84">
         <v>3</v>
       </c>
-      <c r="H84">
-        <v>210114</v>
+      <c r="H84" s="25">
+        <v>210112</v>
       </c>
       <c r="I84">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
       </c>
       <c r="L84" s="9"/>
-      <c r="M84">
-        <v>100112</v>
+      <c r="M84" s="10">
+        <v>100050</v>
       </c>
       <c r="N84" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:14">
-      <c r="A85" s="21">
-        <v>210114</v>
+        <v>195</v>
+      </c>
+      <c r="S84" s="21"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="24">
+        <v>210112</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C85">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="8"/>
-        <v>7.2</v>
+        <f t="shared" si="10"/>
+        <v>4.5</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="10"/>
-        <v>2.399999976</v>
+        <f t="shared" si="11"/>
+        <v>1.499999985</v>
       </c>
       <c r="G85">
         <v>3</v>
       </c>
+      <c r="H85" s="25">
+        <v>210122</v>
+      </c>
+      <c r="I85">
+        <v>180</v>
+      </c>
       <c r="J85" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
       </c>
-      <c r="L85" s="9"/>
-      <c r="M85">
-        <v>200112</v>
+      <c r="M85" s="10">
+        <v>200050</v>
       </c>
       <c r="N85" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:14">
-      <c r="A86" s="21">
-        <v>210105</v>
+        <v>195</v>
+      </c>
+      <c r="S85" s="21"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="24">
+        <v>210122</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>5.5</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="10"/>
-        <v>1.33333332</v>
+        <f t="shared" si="11"/>
+        <v>1.833333315</v>
       </c>
       <c r="G86">
         <v>3</v>
       </c>
+      <c r="H86" s="25">
+        <v>210132</v>
+      </c>
+      <c r="I86">
+        <v>300</v>
+      </c>
       <c r="J86" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" s="9"/>
       <c r="M86">
-        <v>100113</v>
+        <v>300050</v>
       </c>
       <c r="N86" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:14">
-      <c r="A87" s="10">
-        <v>210201</v>
+        <v>195</v>
+      </c>
+      <c r="S86" s="21"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="24">
+        <v>210132</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C87">
-        <v>110</v>
+        <v>6.5</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>6.5</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="10"/>
-        <v>36.6666663</v>
+        <f t="shared" si="11"/>
+        <v>2.166666645</v>
       </c>
       <c r="G87">
         <v>3</v>
       </c>
-      <c r="H87">
-        <v>210211</v>
-      </c>
-      <c r="I87">
-        <v>700</v>
-      </c>
       <c r="J87" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
-      <c r="L87" s="9"/>
       <c r="M87">
-        <v>100056</v>
+        <v>400050</v>
       </c>
       <c r="N87" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:14">
-      <c r="A88" s="13">
-        <v>210211</v>
+        <v>195</v>
+      </c>
+      <c r="S87" s="21"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="24">
+        <v>210103</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="C88">
-        <v>148.5</v>
+        <v>4.9</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="8"/>
-        <v>148.5</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>4.9</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="10"/>
-        <v>49.499999505</v>
+        <f t="shared" si="11"/>
+        <v>1.633333317</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
+      <c r="H88">
+        <v>210113</v>
+      </c>
+      <c r="I88">
+        <v>180</v>
+      </c>
       <c r="J88" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="K88" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="9"/>
+        <v>1</v>
+      </c>
       <c r="M88">
-        <v>200056</v>
+        <v>100051</v>
       </c>
       <c r="N88" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="23">
-        <v>210301</v>
+        <v>195</v>
+      </c>
+      <c r="S88" s="21"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="24">
+        <v>210113</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C89">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" ref="D89:D108" si="11">MMULT(C89,1)</f>
-        <v>4.7</v>
+        <f t="shared" si="10"/>
+        <v>5.7</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" ref="F89:F108" si="12">MMULT(C89,0.33333333)</f>
-        <v>1.566666651</v>
+        <f t="shared" si="11"/>
+        <v>1.899999981</v>
       </c>
       <c r="G89">
         <v>3</v>
       </c>
       <c r="H89">
-        <v>210311</v>
+        <v>210123</v>
       </c>
       <c r="I89">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="J89" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
       </c>
       <c r="M89">
-        <v>100050</v>
+        <v>200051</v>
       </c>
       <c r="N89" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="23">
-        <v>210311</v>
+        <v>195</v>
+      </c>
+      <c r="S89" s="21"/>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="24">
+        <v>210123</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="D90" s="7">
+        <f t="shared" si="10"/>
+        <v>6.4</v>
+      </c>
+      <c r="F90" s="7">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="F90" s="7">
-        <f t="shared" si="12"/>
-        <v>1.66666665</v>
+        <v>2.133333312</v>
       </c>
       <c r="G90">
         <v>3</v>
       </c>
-      <c r="H90">
-        <v>210321</v>
-      </c>
-      <c r="I90">
+      <c r="J90" t="s">
+        <v>209</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>300051</v>
+      </c>
+      <c r="N90" t="s">
+        <v>195</v>
+      </c>
+      <c r="S90" s="21"/>
+    </row>
+    <row r="91" customFormat="1" spans="1:19">
+      <c r="A91" s="24">
+        <v>210104</v>
+      </c>
+      <c r="B91" t="s">
         <v>210</v>
       </c>
-      <c r="J90" t="s">
-        <v>205</v>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>200050</v>
-      </c>
-      <c r="N90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="23">
-        <v>210321</v>
-      </c>
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
       <c r="C91">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="D91" s="7">
+        <f t="shared" si="10"/>
+        <v>6.4</v>
+      </c>
+      <c r="F91" s="7">
         <f t="shared" si="11"/>
-        <v>5.4</v>
-      </c>
-      <c r="F91" s="7">
-        <f t="shared" si="12"/>
-        <v>1.799999982</v>
+        <v>2.133333312</v>
       </c>
       <c r="G91">
         <v>3</v>
       </c>
+      <c r="H91">
+        <v>210114</v>
+      </c>
+      <c r="I91">
+        <v>250</v>
+      </c>
       <c r="J91" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
       </c>
+      <c r="L91" s="9"/>
       <c r="M91">
-        <v>300050</v>
+        <v>100112</v>
       </c>
       <c r="N91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="23">
-        <v>210302</v>
+        <v>195</v>
+      </c>
+      <c r="S91" s="21"/>
+    </row>
+    <row r="92" customFormat="1" spans="1:19">
+      <c r="A92" s="24">
+        <v>210114</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C92">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="D92" s="7">
+        <f t="shared" si="10"/>
+        <v>7.2</v>
+      </c>
+      <c r="F92" s="7">
         <f t="shared" si="11"/>
-        <v>4.7</v>
-      </c>
-      <c r="F92" s="7">
-        <f t="shared" si="12"/>
-        <v>1.566666651</v>
+        <v>2.399999976</v>
       </c>
       <c r="G92">
         <v>3</v>
       </c>
-      <c r="H92">
-        <v>210312</v>
-      </c>
-      <c r="I92">
-        <v>160</v>
-      </c>
       <c r="J92" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
       </c>
+      <c r="L92" s="9"/>
       <c r="M92">
-        <v>100051</v>
+        <v>200112</v>
       </c>
       <c r="N92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="23">
-        <v>210312</v>
+        <v>195</v>
+      </c>
+      <c r="S92" s="21"/>
+    </row>
+    <row r="93" customFormat="1" spans="1:19">
+      <c r="A93" s="24">
+        <v>210105</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C93">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="D93" s="7">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F93" s="7">
         <f t="shared" si="11"/>
-        <v>5.7</v>
-      </c>
-      <c r="F93" s="7">
-        <f t="shared" si="12"/>
-        <v>1.899999981</v>
+        <v>1.33333332</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
-      <c r="H93">
-        <v>210322</v>
-      </c>
-      <c r="I93">
-        <v>220</v>
-      </c>
       <c r="J93" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
       </c>
+      <c r="L93" s="9"/>
       <c r="M93">
-        <v>200051</v>
+        <v>100113</v>
       </c>
       <c r="N93" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="23">
-        <v>210322</v>
+        <v>216</v>
+      </c>
+      <c r="S93" s="21"/>
+    </row>
+    <row r="94" customFormat="1" spans="1:19">
+      <c r="A94" s="10">
+        <v>210201</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C94">
-        <v>6.7</v>
+        <v>110</v>
       </c>
       <c r="D94" s="7">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="7">
         <f t="shared" si="11"/>
-        <v>6.7</v>
-      </c>
-      <c r="F94" s="7">
-        <f t="shared" si="12"/>
-        <v>2.233333311</v>
+        <v>36.6666663</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
+      <c r="H94">
+        <v>210211</v>
+      </c>
+      <c r="I94">
+        <v>700</v>
+      </c>
       <c r="J94" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
       </c>
+      <c r="L94" s="9"/>
       <c r="M94">
-        <v>300051</v>
+        <v>100056</v>
       </c>
       <c r="N94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:14">
-      <c r="A95" s="23">
-        <v>210303</v>
+        <v>218</v>
+      </c>
+      <c r="S94" s="21"/>
+    </row>
+    <row r="95" customFormat="1" spans="1:19">
+      <c r="A95" s="13">
+        <v>210211</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>148.5</v>
       </c>
       <c r="D95" s="7">
+        <f t="shared" si="10"/>
+        <v>148.5</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95" s="7">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="F95" s="7">
-        <f t="shared" si="12"/>
-        <v>1.33333332</v>
+        <v>49.499999505</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
-      <c r="H95">
-        <v>210313</v>
-      </c>
-      <c r="I95">
-        <v>120</v>
-      </c>
       <c r="J95" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="K95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="9"/>
       <c r="M95">
-        <v>100112</v>
+        <v>200056</v>
       </c>
       <c r="N95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:14">
-      <c r="A96" s="23">
-        <v>210313</v>
+        <v>218</v>
+      </c>
+      <c r="S95" s="21"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="26">
+        <v>210301</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" ref="D96:D115" si="12">MMULT(C96,1)</f>
+        <v>4.7</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="12"/>
-        <v>1.66666665</v>
+        <f t="shared" ref="F96:F115" si="13">MMULT(C96,0.33333333)</f>
+        <v>1.566666651</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96">
-        <v>210323</v>
+        <v>210311</v>
       </c>
       <c r="I96">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
       </c>
-      <c r="L96" s="9"/>
       <c r="M96">
-        <v>200112</v>
+        <v>100050</v>
       </c>
       <c r="N96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:14">
-      <c r="A97" s="23">
-        <v>210323</v>
+        <v>125</v>
+      </c>
+      <c r="S96" s="21"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="26">
+        <v>210311</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C97">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="11"/>
-        <v>6.2</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="12"/>
-        <v>2.066666646</v>
+        <f t="shared" si="13"/>
+        <v>1.66666665</v>
       </c>
       <c r="G97">
         <v>3</v>
       </c>
       <c r="H97">
-        <v>210333</v>
+        <v>210321</v>
       </c>
       <c r="I97">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="J97" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
       </c>
-      <c r="L97" s="9"/>
       <c r="M97">
-        <v>300112</v>
+        <v>200050</v>
       </c>
       <c r="N97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="23">
-        <v>210333</v>
+        <v>125</v>
+      </c>
+      <c r="S97" s="21"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="26">
+        <v>210321</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C98">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="11"/>
-        <v>7.1</v>
+        <f t="shared" si="12"/>
+        <v>5.4</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="12"/>
-        <v>2.366666643</v>
+        <f t="shared" si="13"/>
+        <v>1.799999982</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
       </c>
       <c r="M98">
-        <v>400112</v>
+        <v>300050</v>
       </c>
       <c r="N98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="24">
-        <v>210401</v>
+        <v>125</v>
+      </c>
+      <c r="S98" s="21"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="26">
+        <v>210302</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C99">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="11"/>
-        <v>6.1</v>
+        <f t="shared" si="12"/>
+        <v>4.7</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="12"/>
-        <v>2.033333313</v>
+        <f t="shared" si="13"/>
+        <v>1.566666651</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
       <c r="H99">
-        <v>210411</v>
+        <v>210312</v>
       </c>
       <c r="I99">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="J99" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="M99" s="10">
-        <v>100112</v>
+      <c r="M99">
+        <v>100051</v>
       </c>
       <c r="N99" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="24">
-        <v>210411</v>
+        <v>125</v>
+      </c>
+      <c r="S99" s="21"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="26">
+        <v>210312</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C100">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="11"/>
-        <v>7.2</v>
+        <f t="shared" si="12"/>
+        <v>5.7</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="12"/>
-        <v>2.399999976</v>
+        <f t="shared" si="13"/>
+        <v>1.899999981</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100">
-        <v>210421</v>
+        <v>210322</v>
       </c>
       <c r="I100">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J100" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
       </c>
-      <c r="M100" s="10">
-        <v>200112</v>
+      <c r="M100">
+        <v>200051</v>
       </c>
       <c r="N100" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="24">
-        <v>210421</v>
+        <v>125</v>
+      </c>
+      <c r="S100" s="21"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="26">
+        <v>210322</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>6.7</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="12"/>
-        <v>2.66666664</v>
+        <f t="shared" si="13"/>
+        <v>2.233333311</v>
       </c>
       <c r="G101">
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
       </c>
-      <c r="M101" s="10">
-        <v>300112</v>
+      <c r="M101">
+        <v>300051</v>
       </c>
       <c r="N101" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="22">
-        <v>210501</v>
+        <v>125</v>
+      </c>
+      <c r="S101" s="21"/>
+    </row>
+    <row r="102" customFormat="1" spans="1:19">
+      <c r="A102" s="26">
+        <v>210303</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="12"/>
-        <v>3.3333333</v>
+        <f t="shared" si="13"/>
+        <v>1.33333332</v>
       </c>
       <c r="G102">
         <v>3</v>
       </c>
+      <c r="H102">
+        <v>210313</v>
+      </c>
+      <c r="I102">
+        <v>120</v>
+      </c>
       <c r="J102" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
       </c>
-      <c r="M102" s="10">
-        <v>100097</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:18">
-      <c r="A103" s="21">
-        <v>210601</v>
+      <c r="L102" s="9"/>
+      <c r="M102">
+        <v>100112</v>
+      </c>
+      <c r="N102" t="s">
+        <v>125</v>
+      </c>
+      <c r="S102" s="21"/>
+    </row>
+    <row r="103" customFormat="1" spans="1:19">
+      <c r="A103" s="26">
+        <v>210313</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C103">
         <v>5</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.66666665</v>
       </c>
       <c r="G103">
         <v>3</v>
       </c>
       <c r="H103">
-        <v>210611</v>
+        <v>210323</v>
       </c>
       <c r="I103">
-        <v>200</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>231</v>
+        <v>195</v>
+      </c>
+      <c r="J103" t="s">
+        <v>234</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
       </c>
       <c r="L103" s="9"/>
       <c r="M103">
-        <v>100050</v>
+        <v>200112</v>
       </c>
       <c r="N103" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>30</v>
-      </c>
-      <c r="R103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:18">
-      <c r="A104" s="21">
-        <v>210611</v>
+        <v>125</v>
+      </c>
+      <c r="S103" s="21"/>
+    </row>
+    <row r="104" customFormat="1" spans="1:19">
+      <c r="A104" s="26">
+        <v>210323</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="C104">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="11"/>
-        <v>6.4</v>
+        <f t="shared" si="12"/>
+        <v>6.2</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="12"/>
-        <v>2.133333312</v>
+        <f t="shared" si="13"/>
+        <v>2.066666646</v>
       </c>
       <c r="G104">
         <v>3</v>
       </c>
       <c r="H104">
-        <v>210621</v>
+        <v>210333</v>
       </c>
       <c r="I104">
-        <v>310</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>43</v>
+        <v>300</v>
+      </c>
+      <c r="J104" t="s">
+        <v>236</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
       </c>
       <c r="L104" s="9"/>
       <c r="M104">
-        <v>200050</v>
+        <v>300112</v>
       </c>
       <c r="N104" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>30</v>
-      </c>
-      <c r="R104" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:18">
-      <c r="A105" s="21">
-        <v>210621</v>
+        <v>125</v>
+      </c>
+      <c r="S104" s="21"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="26">
+        <v>210333</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C105">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="11"/>
-        <v>7.6</v>
+        <f t="shared" si="12"/>
+        <v>7.1</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="12"/>
-        <v>2.533333308</v>
+        <f t="shared" si="13"/>
+        <v>2.366666643</v>
       </c>
       <c r="G105">
         <v>3</v>
       </c>
-      <c r="J105" s="7" t="s">
-        <v>46</v>
+      <c r="J105" t="s">
+        <v>238</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
       </c>
-      <c r="L105" s="9"/>
       <c r="M105">
-        <v>300050</v>
+        <v>400112</v>
       </c>
       <c r="N105" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>30</v>
-      </c>
-      <c r="R105" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:14">
-      <c r="A106" s="24">
-        <v>210701</v>
+        <v>125</v>
+      </c>
+      <c r="S105" s="21"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="27">
+        <v>210401</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C106">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="11"/>
-        <v>5.7</v>
+        <f t="shared" si="12"/>
+        <v>6.1</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="12"/>
-        <v>1.899999981</v>
+        <f t="shared" si="13"/>
+        <v>2.033333313</v>
       </c>
       <c r="G106">
         <v>3</v>
       </c>
       <c r="H106">
-        <v>210711</v>
+        <v>210411</v>
       </c>
       <c r="I106">
         <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
       </c>
-      <c r="L106" s="9"/>
       <c r="M106" s="10">
         <v>100112</v>
       </c>
       <c r="N106" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:14">
-      <c r="A107" s="24">
-        <v>210711</v>
+        <v>241</v>
+      </c>
+      <c r="S106" s="21"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="27">
+        <v>210411</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C107">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="11"/>
-        <v>6.2</v>
+        <f t="shared" si="12"/>
+        <v>7.2</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="12"/>
-        <v>2.066666646</v>
+        <f t="shared" si="13"/>
+        <v>2.399999976</v>
       </c>
       <c r="G107">
         <v>3</v>
       </c>
       <c r="H107">
-        <v>210721</v>
+        <v>210421</v>
       </c>
       <c r="I107">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J107" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
       </c>
-      <c r="L107" s="9"/>
       <c r="M107" s="10">
         <v>200112</v>
       </c>
       <c r="N107" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:14">
-      <c r="A108" s="24">
-        <v>210721</v>
+        <v>241</v>
+      </c>
+      <c r="S107" s="21"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="27">
+        <v>210421</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="12"/>
-        <v>2.33333331</v>
+        <f t="shared" si="13"/>
+        <v>2.66666664</v>
       </c>
       <c r="G108">
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
       </c>
-      <c r="L108" s="9"/>
       <c r="M108" s="10">
         <v>300112</v>
       </c>
       <c r="N108" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="22"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="22"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="22"/>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="22"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="22"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="22"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="22"/>
+        <v>241</v>
+      </c>
+      <c r="S108" s="21"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="25">
+        <v>210501</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109" s="7">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="13"/>
+        <v>3.3333333</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>246</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" s="10">
+        <v>100097</v>
+      </c>
+      <c r="S109" s="21"/>
+    </row>
+    <row r="110" customFormat="1" spans="1:19">
+      <c r="A110" s="24">
+        <v>210601</v>
+      </c>
+      <c r="B110" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110" s="7">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F110" s="7">
+        <f t="shared" si="13"/>
+        <v>1.66666665</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>210611</v>
+      </c>
+      <c r="I110">
+        <v>200</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" s="9"/>
+      <c r="M110">
+        <v>100050</v>
+      </c>
+      <c r="N110" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>33</v>
+      </c>
+      <c r="R110" t="s">
+        <v>34</v>
+      </c>
+      <c r="S110" s="21"/>
+    </row>
+    <row r="111" customFormat="1" spans="1:19">
+      <c r="A111" s="24">
+        <v>210611</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111">
+        <v>6.4</v>
+      </c>
+      <c r="D111" s="7">
+        <f t="shared" si="12"/>
+        <v>6.4</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" si="13"/>
+        <v>2.133333312</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>210621</v>
+      </c>
+      <c r="I111">
+        <v>310</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" s="9"/>
+      <c r="M111">
+        <v>200050</v>
+      </c>
+      <c r="N111" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>33</v>
+      </c>
+      <c r="R111" t="s">
+        <v>34</v>
+      </c>
+      <c r="S111" s="21"/>
+    </row>
+    <row r="112" customFormat="1" spans="1:19">
+      <c r="A112" s="24">
+        <v>210621</v>
+      </c>
+      <c r="B112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112">
+        <v>7.6</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" si="12"/>
+        <v>7.6</v>
+      </c>
+      <c r="F112" s="7">
+        <f t="shared" si="13"/>
+        <v>2.533333308</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" s="9"/>
+      <c r="M112">
+        <v>300050</v>
+      </c>
+      <c r="N112" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>33</v>
+      </c>
+      <c r="R112" t="s">
+        <v>34</v>
+      </c>
+      <c r="S112" s="21"/>
+    </row>
+    <row r="113" customFormat="1" spans="1:19">
+      <c r="A113" s="27">
+        <v>210701</v>
+      </c>
+      <c r="B113" t="s">
+        <v>250</v>
+      </c>
+      <c r="C113">
+        <v>5.7</v>
+      </c>
+      <c r="D113" s="7">
+        <f t="shared" si="12"/>
+        <v>5.7</v>
+      </c>
+      <c r="F113" s="7">
+        <f t="shared" si="13"/>
+        <v>1.899999981</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>210711</v>
+      </c>
+      <c r="I113">
+        <v>200</v>
+      </c>
+      <c r="J113" t="s">
+        <v>251</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" s="9"/>
+      <c r="M113" s="10">
+        <v>100112</v>
+      </c>
+      <c r="N113" t="s">
+        <v>252</v>
+      </c>
+      <c r="S113" s="21"/>
+    </row>
+    <row r="114" customFormat="1" spans="1:19">
+      <c r="A114" s="27">
+        <v>210711</v>
+      </c>
+      <c r="B114" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114">
+        <v>6.2</v>
+      </c>
+      <c r="D114" s="7">
+        <f t="shared" si="12"/>
+        <v>6.2</v>
+      </c>
+      <c r="F114" s="7">
+        <f t="shared" si="13"/>
+        <v>2.066666646</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>210721</v>
+      </c>
+      <c r="I114">
+        <v>245</v>
+      </c>
+      <c r="J114" t="s">
+        <v>211</v>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" s="9"/>
+      <c r="M114" s="10">
+        <v>200112</v>
+      </c>
+      <c r="N114" t="s">
+        <v>252</v>
+      </c>
+      <c r="S114" s="21"/>
+    </row>
+    <row r="115" customFormat="1" spans="1:19">
+      <c r="A115" s="27">
+        <v>210721</v>
+      </c>
+      <c r="B115" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115" s="7">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="F115" s="7">
+        <f t="shared" si="13"/>
+        <v>2.33333331</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="J115" t="s">
+        <v>213</v>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" s="9"/>
+      <c r="M115" s="10">
+        <v>300112</v>
+      </c>
+      <c r="N115" t="s">
+        <v>252</v>
+      </c>
+      <c r="S115" s="21"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="22"/>
+      <c r="A116" s="25"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="22"/>
+      <c r="A117" s="25"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="22"/>
+      <c r="A118" s="25"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="22"/>
+      <c r="A119" s="25"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="22"/>
+      <c r="A120" s="25"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="22"/>
+      <c r="A121" s="25"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="22"/>
+      <c r="A122" s="25"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="22"/>
+      <c r="A123" s="25"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="22"/>
+      <c r="A124" s="25"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="25"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="25"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="25"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="25"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="25"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="25"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5619,7 +6025,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -5629,7 +6035,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5637,7 +6043,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5645,7 +6051,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5653,7 +6059,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5661,7 +6067,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5669,7 +6075,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -5684,35 +6090,71 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>255</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>261</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>263</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5726,8 +6168,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -5741,15 +6183,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5758,7 +6200,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B4" s="5"/>
     </row>
@@ -5767,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5775,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13005"/>
+    <workbookView windowHeight="13005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <t>巨投</t>
   </si>
   <si>
-    <t>unit_trebuchet_4_cw_</t>
+    <t>unit_trebuchet_4_cw_chi</t>
   </si>
   <si>
     <t>蜂窝炮钟楼</t>
@@ -829,7 +829,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>fre;fre</t>
+    <t>ott;ott</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -840,11 +840,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -869,13 +869,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -883,7 +876,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,23 +920,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,53 +973,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,6 +1001,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1081,13 +1081,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,25 +1153,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,37 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,25 +1225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,49 +1237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,22 +1263,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,17 +1287,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,32 +1326,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,10 +1368,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,133 +1380,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1945,12 +1945,12 @@
   <sheetPr/>
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2157,14 +2157,14 @@
         <v>3.3</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D19" si="0">MMULT(C5,1)</f>
+        <f t="shared" ref="D5:D26" si="0">MMULT(C5,1)</f>
         <v>3.3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F19" si="1">MMULT(C5,0.33333333)</f>
+        <f t="shared" ref="F5:F26" si="1">MMULT(C5,0.33333333)</f>
         <v>1.099999989</v>
       </c>
       <c r="G5">
@@ -2537,9 +2537,6 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>2.99999997</v>
@@ -2581,9 +2578,6 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>3.99999996</v>
@@ -2703,11 +2697,11 @@
         <v>32</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:D25" si="2">MMULT(C20,1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20:F25" si="3">MMULT(C20,0.33333333)</f>
+        <f t="shared" si="1"/>
         <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
@@ -2726,24 +2720,24 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="3"/>
-        <v>25.99999974</v>
+        <f t="shared" si="1"/>
+        <v>31.66666635</v>
       </c>
       <c r="J21" t="s">
         <v>69</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="21"/>
     </row>
@@ -2758,11 +2752,11 @@
         <v>76</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25.33333308</v>
       </c>
       <c r="J22" t="s">
@@ -2784,14 +2778,14 @@
         <v>79</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26.33333307</v>
       </c>
       <c r="H23">
@@ -2822,18 +2816,15 @@
         <v>84</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27.99999972</v>
-      </c>
-      <c r="H24">
-        <v>300056</v>
       </c>
       <c r="I24">
         <v>1000</v>
@@ -2857,14 +2848,14 @@
         <v>148.5</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>148.5</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>49.499999505</v>
       </c>
       <c r="G25">
@@ -2889,11 +2880,11 @@
         <v>3.6</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" ref="D26:D54" si="4">MMULT(C26,1)</f>
+        <f t="shared" ref="D26:D54" si="2">MMULT(C26,1)</f>
         <v>3.6</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" ref="F26:F47" si="5">MMULT(C26,0.33333333)</f>
+        <f t="shared" ref="F26:F47" si="3">MMULT(C26,0.33333333)</f>
         <v>1.199999988</v>
       </c>
       <c r="H26">
@@ -2921,11 +2912,11 @@
         <v>4.8</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.599999984</v>
       </c>
       <c r="H27">
@@ -2953,11 +2944,11 @@
         <v>5.6</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.6</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.866666648</v>
       </c>
       <c r="J28" t="s">
@@ -2979,11 +2970,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.66666664</v>
       </c>
       <c r="J29" t="s">
@@ -3008,11 +2999,11 @@
         <v>18</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.99999994</v>
       </c>
       <c r="J30" t="s">
@@ -3040,15 +3031,18 @@
         <v>92</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="5"/>
-        <v>2.66666664</v>
+        <f t="shared" si="3"/>
+        <v>2.33333331</v>
       </c>
       <c r="H31">
         <v>200099</v>
@@ -3072,15 +3066,18 @@
         <v>94</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="5"/>
-        <v>2.99999997</v>
+        <f t="shared" si="3"/>
+        <v>2.66666664</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
@@ -3101,14 +3098,14 @@
         <v>47</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15.66666651</v>
       </c>
       <c r="H33">
@@ -3136,21 +3133,18 @@
         <v>52</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17.33333316</v>
       </c>
-      <c r="H34">
-        <v>300100</v>
-      </c>
       <c r="I34">
-        <v>924</v>
+        <v>1100</v>
       </c>
       <c r="J34" t="s">
         <v>99</v>
@@ -3171,14 +3165,14 @@
         <v>111.6</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>111.6</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>37.199999628</v>
       </c>
       <c r="G35">
@@ -3203,11 +3197,11 @@
         <v>63</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20.99999979</v>
       </c>
       <c r="H36">
@@ -3235,11 +3229,11 @@
         <v>67</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22.33333311</v>
       </c>
       <c r="J37" t="s">
@@ -3261,11 +3255,11 @@
         <v>8</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.66666664</v>
       </c>
       <c r="H38" s="8">
@@ -3294,11 +3288,11 @@
         <v>10</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.3333333</v>
       </c>
       <c r="H39" s="8">
@@ -3327,11 +3321,11 @@
         <v>12</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.99999996</v>
       </c>
       <c r="J40" s="8" t="s">
@@ -3354,11 +3348,11 @@
         <v>25</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.33333325</v>
       </c>
       <c r="J41" t="s">
@@ -3380,11 +3374,11 @@
         <v>34</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.33333322</v>
       </c>
       <c r="J42" t="s">
@@ -3406,11 +3400,11 @@
         <v>6</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.99999998</v>
       </c>
       <c r="H43">
@@ -3438,11 +3432,11 @@
         <v>8</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.66666664</v>
       </c>
       <c r="J44" t="s">
@@ -3464,14 +3458,14 @@
         <v>5</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.66666665</v>
       </c>
       <c r="G45">
@@ -3511,14 +3505,14 @@
         <v>6</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.99999998</v>
       </c>
       <c r="H46">
@@ -3561,14 +3555,14 @@
         <v>7</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.33333331</v>
       </c>
       <c r="J47" t="s">
@@ -3605,11 +3599,11 @@
         <v>30</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" ref="F48:F70" si="6">MMULT(C48,0.33333333)</f>
+        <f t="shared" ref="F48:F70" si="4">MMULT(C48,0.33333333)</f>
         <v>9.9999999</v>
       </c>
       <c r="H48">
@@ -3637,11 +3631,11 @@
         <v>60</v>
       </c>
       <c r="D49" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F49" s="7">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="6"/>
         <v>19.9999998</v>
       </c>
       <c r="J49" t="s">
@@ -3663,11 +3657,11 @@
         <v>10</v>
       </c>
       <c r="D50" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F50" s="7">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="6"/>
         <v>3.3333333</v>
       </c>
       <c r="H50">
@@ -3695,11 +3689,11 @@
         <v>13</v>
       </c>
       <c r="D51" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F51" s="7">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="6"/>
         <v>4.33333329</v>
       </c>
       <c r="H51">
@@ -3727,11 +3721,11 @@
         <v>15</v>
       </c>
       <c r="D52" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F52" s="7">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="6"/>
         <v>4.99999995</v>
       </c>
       <c r="J52" t="s">
@@ -3753,11 +3747,11 @@
         <v>8</v>
       </c>
       <c r="D53" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F53" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" si="6"/>
         <v>2.66666664</v>
       </c>
       <c r="H53">
@@ -3785,11 +3779,11 @@
         <v>11</v>
       </c>
       <c r="D54" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F54" s="7">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="6"/>
         <v>3.66666663</v>
       </c>
       <c r="H54">
@@ -3817,11 +3811,11 @@
         <v>12.7</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" ref="D55:D68" si="7">MMULT(C55,1)</f>
+        <f t="shared" ref="D55:D68" si="5">MMULT(C55,1)</f>
         <v>12.7</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.233333291</v>
       </c>
       <c r="J55" t="s">
@@ -3843,11 +3837,11 @@
         <v>9</v>
       </c>
       <c r="D56" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.99999997</v>
       </c>
       <c r="H56">
@@ -3875,11 +3869,11 @@
         <v>11.5</v>
       </c>
       <c r="D57" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.833333295</v>
       </c>
       <c r="H57">
@@ -3907,11 +3901,11 @@
         <v>13</v>
       </c>
       <c r="D58" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.33333329</v>
       </c>
       <c r="J58" t="s">
@@ -3933,11 +3927,11 @@
         <v>6</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.99999998</v>
       </c>
       <c r="J59" t="s">
@@ -3959,11 +3953,11 @@
         <v>6</v>
       </c>
       <c r="D60" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.99999998</v>
       </c>
       <c r="G60">
@@ -3991,11 +3985,11 @@
         <v>6</v>
       </c>
       <c r="D61" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.99999998</v>
       </c>
       <c r="G61">
@@ -4023,11 +4017,11 @@
         <v>80</v>
       </c>
       <c r="D62" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>26.6666664</v>
       </c>
       <c r="G62">
@@ -4052,11 +4046,11 @@
         <v>100</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>33.333333</v>
       </c>
       <c r="G63">
@@ -4081,11 +4075,11 @@
         <v>9</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.99999997</v>
       </c>
       <c r="G64">
@@ -4110,11 +4104,11 @@
         <v>19</v>
       </c>
       <c r="D65" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.33333327</v>
       </c>
       <c r="G65">
@@ -4139,14 +4133,14 @@
         <v>160</v>
       </c>
       <c r="D66" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53.3333328</v>
       </c>
       <c r="G66">
@@ -4171,11 +4165,11 @@
         <v>12</v>
       </c>
       <c r="D67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.99999996</v>
       </c>
       <c r="G67">
@@ -4197,18 +4191,18 @@
         <v>100</v>
       </c>
       <c r="C68">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D68" s="7">
-        <f t="shared" si="7"/>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="6"/>
-        <v>39.9999996</v>
+        <f t="shared" si="4"/>
+        <v>46.6666662</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -4229,18 +4223,18 @@
         <v>167</v>
       </c>
       <c r="C69">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D69" s="7">
-        <f t="shared" ref="D69:D80" si="8">MMULT(C69,1)</f>
-        <v>140</v>
+        <f t="shared" ref="D69:D80" si="6">MMULT(C69,1)</f>
+        <v>160</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="6"/>
-        <v>46.6666662</v>
+        <f t="shared" si="4"/>
+        <v>53.3333328</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -4264,11 +4258,11 @@
         <v>6</v>
       </c>
       <c r="D70" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.99999998</v>
       </c>
       <c r="G70">
@@ -4293,11 +4287,11 @@
         <v>16</v>
       </c>
       <c r="D71" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" ref="F71:F82" si="9">MMULT(C71,0.33333333)</f>
+        <f t="shared" ref="F71:F82" si="7">MMULT(C71,0.33333333)</f>
         <v>5.33333328</v>
       </c>
       <c r="G71">
@@ -4322,11 +4316,11 @@
         <v>26</v>
       </c>
       <c r="D72" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.66666658</v>
       </c>
       <c r="G72">
@@ -4351,11 +4345,11 @@
         <v>19</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.33333327</v>
       </c>
       <c r="G73">
@@ -4380,11 +4374,11 @@
         <v>13</v>
       </c>
       <c r="D74" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.33333329</v>
       </c>
       <c r="G74">
@@ -4410,11 +4404,11 @@
         <v>102</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>33.99999966</v>
       </c>
       <c r="G75">
@@ -4440,15 +4434,15 @@
         <v>14</v>
       </c>
       <c r="D76" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.66666662</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>182</v>
@@ -4470,11 +4464,11 @@
         <v>73</v>
       </c>
       <c r="D77" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>24.33333309</v>
       </c>
       <c r="G77">
@@ -4497,18 +4491,18 @@
         <v>185</v>
       </c>
       <c r="C78">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="8"/>
-        <v>94</v>
+        <f t="shared" si="6"/>
+        <v>120</v>
       </c>
       <c r="E78">
         <v>5</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="9"/>
-        <v>31.33333302</v>
+        <f t="shared" si="7"/>
+        <v>39.9999996</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -4533,18 +4527,18 @@
         <v>40</v>
       </c>
       <c r="D79" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E79">
         <v>6</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13.3333332</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>188</v>
@@ -4568,11 +4562,11 @@
         <v>20</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.6666666</v>
       </c>
       <c r="G80">
@@ -4598,11 +4592,11 @@
         <v>8</v>
       </c>
       <c r="D81" s="7">
-        <f t="shared" ref="D81:D95" si="10">MMULT(C81,1)</f>
+        <f t="shared" ref="D81:D95" si="8">MMULT(C81,1)</f>
         <v>8</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.66666664</v>
       </c>
       <c r="G81">
@@ -4634,7 +4628,7 @@
         <v>7</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.33333331</v>
       </c>
       <c r="G82">
@@ -4663,11 +4657,11 @@
         <v>9</v>
       </c>
       <c r="D83" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" ref="F83:F95" si="11">MMULT(C83,0.33333333)</f>
+        <f t="shared" ref="F83:F95" si="9">MMULT(C83,0.33333333)</f>
         <v>2.99999997</v>
       </c>
       <c r="G83">
@@ -4699,11 +4693,11 @@
         <v>3.2</v>
       </c>
       <c r="D84" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.066666656</v>
       </c>
       <c r="G84">
@@ -4741,11 +4735,11 @@
         <v>4.5</v>
       </c>
       <c r="D85" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.499999985</v>
       </c>
       <c r="G85">
@@ -4782,11 +4776,11 @@
         <v>5.5</v>
       </c>
       <c r="D86" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.833333315</v>
       </c>
       <c r="G86">
@@ -4823,11 +4817,11 @@
         <v>6.5</v>
       </c>
       <c r="D87" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.166666645</v>
       </c>
       <c r="G87">
@@ -4858,11 +4852,11 @@
         <v>4.9</v>
       </c>
       <c r="D88" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.9</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.633333317</v>
       </c>
       <c r="G88">
@@ -4899,11 +4893,11 @@
         <v>5.7</v>
       </c>
       <c r="D89" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>5.7</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.899999981</v>
       </c>
       <c r="G89">
@@ -4940,11 +4934,11 @@
         <v>6.4</v>
       </c>
       <c r="D90" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.133333312</v>
       </c>
       <c r="G90">
@@ -4975,11 +4969,11 @@
         <v>6.4</v>
       </c>
       <c r="D91" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.133333312</v>
       </c>
       <c r="G91">
@@ -5017,11 +5011,11 @@
         <v>7.2</v>
       </c>
       <c r="D92" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.2</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.399999976</v>
       </c>
       <c r="G92">
@@ -5053,11 +5047,11 @@
         <v>4</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.33333332</v>
       </c>
       <c r="G93">
@@ -5089,14 +5083,14 @@
         <v>110</v>
       </c>
       <c r="D94" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>36.6666663</v>
       </c>
       <c r="G94">
@@ -5134,14 +5128,14 @@
         <v>148.5</v>
       </c>
       <c r="D95" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>148.5</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>49.499999505</v>
       </c>
       <c r="G95">
@@ -5173,11 +5167,11 @@
         <v>4.7</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" ref="D96:D115" si="12">MMULT(C96,1)</f>
+        <f t="shared" ref="D96:D115" si="10">MMULT(C96,1)</f>
         <v>4.7</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ref="F96:F115" si="13">MMULT(C96,0.33333333)</f>
+        <f t="shared" ref="F96:F115" si="11">MMULT(C96,0.33333333)</f>
         <v>1.566666651</v>
       </c>
       <c r="G96">
@@ -5214,11 +5208,11 @@
         <v>5</v>
       </c>
       <c r="D97" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.66666665</v>
       </c>
       <c r="G97">
@@ -5255,11 +5249,11 @@
         <v>5.4</v>
       </c>
       <c r="D98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.4</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.799999982</v>
       </c>
       <c r="G98">
@@ -5290,11 +5284,11 @@
         <v>4.7</v>
       </c>
       <c r="D99" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4.7</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.566666651</v>
       </c>
       <c r="G99">
@@ -5331,11 +5325,11 @@
         <v>5.7</v>
       </c>
       <c r="D100" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.7</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.899999981</v>
       </c>
       <c r="G100">
@@ -5372,11 +5366,11 @@
         <v>6.7</v>
       </c>
       <c r="D101" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.7</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.233333311</v>
       </c>
       <c r="G101">
@@ -5407,11 +5401,11 @@
         <v>4</v>
       </c>
       <c r="D102" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.33333332</v>
       </c>
       <c r="G102">
@@ -5449,11 +5443,11 @@
         <v>5</v>
       </c>
       <c r="D103" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.66666665</v>
       </c>
       <c r="G103">
@@ -5491,11 +5485,11 @@
         <v>6.2</v>
       </c>
       <c r="D104" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.2</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.066666646</v>
       </c>
       <c r="G104">
@@ -5533,11 +5527,11 @@
         <v>7.1</v>
       </c>
       <c r="D105" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.1</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.366666643</v>
       </c>
       <c r="G105">
@@ -5568,11 +5562,11 @@
         <v>6.1</v>
       </c>
       <c r="D106" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.1</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.033333313</v>
       </c>
       <c r="G106">
@@ -5609,11 +5603,11 @@
         <v>7.2</v>
       </c>
       <c r="D107" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.2</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.399999976</v>
       </c>
       <c r="G107">
@@ -5650,11 +5644,11 @@
         <v>8</v>
       </c>
       <c r="D108" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.66666664</v>
       </c>
       <c r="G108">
@@ -5685,11 +5679,11 @@
         <v>10</v>
       </c>
       <c r="D109" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.3333333</v>
       </c>
       <c r="G109">
@@ -5717,11 +5711,11 @@
         <v>5</v>
       </c>
       <c r="D110" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.66666665</v>
       </c>
       <c r="G110">
@@ -5765,11 +5759,11 @@
         <v>6.4</v>
       </c>
       <c r="D111" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.4</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.133333312</v>
       </c>
       <c r="G111">
@@ -5813,11 +5807,11 @@
         <v>7.6</v>
       </c>
       <c r="D112" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.6</v>
       </c>
       <c r="F112" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.533333308</v>
       </c>
       <c r="G112">
@@ -5855,11 +5849,11 @@
         <v>5.7</v>
       </c>
       <c r="D113" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.7</v>
       </c>
       <c r="F113" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.899999981</v>
       </c>
       <c r="G113">
@@ -5897,11 +5891,11 @@
         <v>6.2</v>
       </c>
       <c r="D114" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.2</v>
       </c>
       <c r="F114" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.066666646</v>
       </c>
       <c r="G114">
@@ -5939,11 +5933,11 @@
         <v>7</v>
       </c>
       <c r="D115" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="F115" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.33333331</v>
       </c>
       <c r="G115">
@@ -6093,7 +6087,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -6168,8 +6162,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -829,7 +829,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>ott;ott</t>
+    <t>fre;fre</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -840,11 +840,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -875,6 +875,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -882,15 +936,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,76 +998,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -993,22 +1009,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1087,43 +1087,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,25 +1135,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,13 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,37 +1243,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,30 +1260,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1321,7 +1297,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,21 +1360,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1368,145 +1368,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,11 +1946,11 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6163,7 +6163,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13005" activeTab="3"/>
+    <workbookView windowHeight="17820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="275">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +142,12 @@
     <t>unit_archer_2_</t>
   </si>
   <si>
+    <t>hre_ha_01:1.98;eng:1.4</t>
+  </si>
+  <si>
+    <t>hre_ha_01:1.8;eng:1.3</t>
+  </si>
+  <si>
     <t>步弓手3</t>
   </si>
   <si>
@@ -712,25 +718,25 @@
     <t>unit_javelin_4_</t>
   </si>
   <si>
-    <t>侦察兵1</t>
+    <t>战士侦察兵1</t>
   </si>
   <si>
     <t>unit_scout_1_</t>
   </si>
   <si>
-    <t>侦察兵2</t>
+    <t>战士侦察兵2</t>
   </si>
   <si>
     <t>unit_scout_2_</t>
   </si>
   <si>
-    <t>侦察兵3</t>
+    <t>战士侦察兵3</t>
   </si>
   <si>
     <t>unit_scout_3_</t>
   </si>
   <si>
-    <t>侦察兵4</t>
+    <t>战士侦察兵4</t>
   </si>
   <si>
     <t>unit_scout_4_</t>
@@ -823,13 +829,16 @@
     <t>Country</t>
   </si>
   <si>
+    <t>IntVal</t>
+  </si>
+  <si>
     <t>String[]</t>
   </si>
   <si>
     <t>Partial:3</t>
   </si>
   <si>
-    <t>fre;fre</t>
+    <t>hre_ha_01;hre_ha_01</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -841,10 +850,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -869,114 +878,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,7 +907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,6 +916,106 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,31 +1090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,66 +1132,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1195,19 +1144,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,37 +1246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,17 +1272,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,15 +1311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1317,26 +1326,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,148 +1374,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1946,11 +1955,11 @@
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2283,15 +2292,15 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.133333322</v>
+        <v>1.33333332</v>
       </c>
       <c r="H8">
         <v>200049</v>
@@ -2306,10 +2315,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2318,18 +2327,18 @@
         <v>200049</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.399999986</v>
+        <v>1.599999984</v>
       </c>
       <c r="H9">
         <v>300049</v>
@@ -2338,16 +2347,16 @@
         <v>210</v>
       </c>
       <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" t="s">
-        <v>34</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2356,30 +2365,30 @@
         <v>300049</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.733333316</v>
+        <v>1.833333315</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="S10" s="21"/>
     </row>
@@ -2388,7 +2397,7 @@
         <v>100050</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -2408,13 +2417,13 @@
         <v>300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
@@ -2425,7 +2434,7 @@
         <v>200050</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="7">
         <v>6.6</v>
@@ -2439,7 +2448,7 @@
         <v>2.199999978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
@@ -2454,7 +2463,7 @@
         <v>100051</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2475,13 +2484,13 @@
         <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q13" t="s">
         <v>33</v>
@@ -2496,7 +2505,7 @@
         <v>200051</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -2510,7 +2519,7 @@
         <v>2.33333331</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2528,7 +2537,7 @@
         <v>100052</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -2548,13 +2557,13 @@
         <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q15" t="s">
         <v>33</v>
@@ -2569,7 +2578,7 @@
         <v>200052</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -2583,7 +2592,7 @@
         <v>3.99999996</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -2601,7 +2610,7 @@
         <v>100053</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2621,7 +2630,7 @@
         <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2633,7 +2642,7 @@
         <v>200053</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>7.5</v>
@@ -2647,7 +2656,7 @@
         <v>2.499999975</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2659,7 +2668,7 @@
         <v>100054</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -2679,7 +2688,7 @@
         <v>420</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2691,7 +2700,7 @@
         <v>200054</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -2705,7 +2714,7 @@
         <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2717,24 +2726,24 @@
         <v>100055</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="1"/>
-        <v>31.66666635</v>
+        <v>30.66666636</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2746,7 +2755,7 @@
         <v>200055</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22">
         <v>76</v>
@@ -2760,7 +2769,7 @@
         <v>25.33333308</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2772,7 +2781,7 @@
         <v>100056</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -2795,13 +2804,13 @@
         <v>700</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -2810,7 +2819,7 @@
         <v>200056</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>84</v>
@@ -2830,7 +2839,7 @@
         <v>1000</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -2842,7 +2851,7 @@
         <v>300056</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>148.5</v>
@@ -2862,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2874,18 +2883,18 @@
         <v>100057</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" ref="D26:D54" si="2">MMULT(C26,1)</f>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" ref="F26:F47" si="3">MMULT(C26,0.33333333)</f>
-        <v>1.199999988</v>
+        <v>1.399999986</v>
       </c>
       <c r="H26">
         <v>200057</v>
@@ -2894,7 +2903,7 @@
         <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2906,18 +2915,18 @@
         <v>200057</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="3"/>
-        <v>1.599999984</v>
+        <v>1.66666665</v>
       </c>
       <c r="H27">
         <v>300057</v>
@@ -2926,7 +2935,7 @@
         <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2938,21 +2947,21 @@
         <v>300057</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C28">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="2"/>
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="3"/>
-        <v>1.866666648</v>
+        <v>1.933333314</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -2964,7 +2973,7 @@
         <v>100097</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2978,13 +2987,13 @@
         <v>2.66666664</v>
       </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S29" s="21"/>
     </row>
@@ -2993,7 +3002,7 @@
         <v>100098</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -3007,19 +3016,19 @@
         <v>5.99999994</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S30" s="21"/>
     </row>
@@ -3028,7 +3037,7 @@
         <v>100099</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -3051,7 +3060,7 @@
         <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -3063,7 +3072,7 @@
         <v>200099</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -3080,7 +3089,7 @@
         <v>2.66666664</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -3092,21 +3101,21 @@
         <v>100100</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="3"/>
-        <v>15.66666651</v>
+        <v>14.33333319</v>
       </c>
       <c r="H33">
         <v>200100</v>
@@ -3115,7 +3124,7 @@
         <v>540</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3127,27 +3136,27 @@
         <v>200100</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="3"/>
-        <v>17.33333316</v>
+        <v>16.99999983</v>
       </c>
       <c r="I34">
         <v>1100</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -3159,7 +3168,7 @@
         <v>300100</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>111.6</v>
@@ -3179,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3191,18 +3200,18 @@
         <v>100101</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C36">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="3"/>
-        <v>20.99999979</v>
+        <v>17.66666649</v>
       </c>
       <c r="H36">
         <v>200101</v>
@@ -3211,7 +3220,7 @@
         <v>580</v>
       </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3223,21 +3232,21 @@
         <v>200101</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="3"/>
-        <v>22.33333311</v>
+        <v>19.9999998</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3249,7 +3258,7 @@
         <v>100102</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C38" s="8">
         <v>8</v>
@@ -3269,7 +3278,7 @@
         <v>200</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K38" s="8" t="b">
         <v>0</v>
@@ -3282,7 +3291,7 @@
         <v>200102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C39" s="8">
         <v>10</v>
@@ -3302,7 +3311,7 @@
         <v>290</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K39" s="8" t="b">
         <v>0</v>
@@ -3315,7 +3324,7 @@
         <v>300102</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="8">
         <v>12</v>
@@ -3329,7 +3338,7 @@
         <v>3.99999996</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K40" s="8" t="b">
         <v>0</v>
@@ -3342,7 +3351,7 @@
         <v>100103</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -3356,7 +3365,7 @@
         <v>8.33333325</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3368,7 +3377,7 @@
         <v>100104</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -3382,7 +3391,7 @@
         <v>11.33333322</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3394,7 +3403,7 @@
         <v>100105</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -3414,7 +3423,7 @@
         <v>220</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3426,7 +3435,7 @@
         <v>200105</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3440,7 +3449,7 @@
         <v>2.66666664</v>
       </c>
       <c r="J44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3452,7 +3461,7 @@
         <v>100106</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3478,13 +3487,13 @@
         <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q45" t="s">
         <v>33</v>
@@ -3499,7 +3508,7 @@
         <v>200106</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -3522,7 +3531,7 @@
         <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -3531,10 +3540,10 @@
         <v>100052</v>
       </c>
       <c r="N46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q46" t="s">
         <v>33</v>
@@ -3549,7 +3558,7 @@
         <v>300106</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -3566,7 +3575,7 @@
         <v>2.33333331</v>
       </c>
       <c r="J47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -3575,10 +3584,10 @@
         <v>200052</v>
       </c>
       <c r="N47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q47" t="s">
         <v>33</v>
@@ -3593,7 +3602,7 @@
         <v>100107</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -3613,7 +3622,7 @@
         <v>500</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -3625,7 +3634,7 @@
         <v>200107</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -3639,7 +3648,7 @@
         <v>19.9999998</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3651,7 +3660,7 @@
         <v>100108</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3671,7 +3680,7 @@
         <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3683,7 +3692,7 @@
         <v>200108</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -3703,7 +3712,7 @@
         <v>320</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3715,7 +3724,7 @@
         <v>300108</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -3729,7 +3738,7 @@
         <v>4.99999995</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3741,7 +3750,7 @@
         <v>100109</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3761,7 +3770,7 @@
         <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3773,7 +3782,7 @@
         <v>200109</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3793,7 +3802,7 @@
         <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3805,7 +3814,7 @@
         <v>300109</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C55">
         <v>12.7</v>
@@ -3819,7 +3828,7 @@
         <v>4.233333291</v>
       </c>
       <c r="J55" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3831,7 +3840,7 @@
         <v>100110</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -3851,7 +3860,7 @@
         <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3863,7 +3872,7 @@
         <v>200110</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C57">
         <v>11.5</v>
@@ -3883,7 +3892,7 @@
         <v>320</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3895,7 +3904,7 @@
         <v>300110</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -3909,7 +3918,7 @@
         <v>4.33333329</v>
       </c>
       <c r="J58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3921,7 +3930,7 @@
         <v>100111</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -3935,7 +3944,7 @@
         <v>1.99999998</v>
       </c>
       <c r="J59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3947,7 +3956,7 @@
         <v>100112</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -3964,13 +3973,13 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S60" s="21"/>
     </row>
@@ -3979,7 +3988,7 @@
         <v>100113</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -3996,13 +4005,13 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S61" s="21"/>
     </row>
@@ -4011,7 +4020,7 @@
         <v>110001</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C62">
         <v>80</v>
@@ -4028,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4040,24 +4049,24 @@
         <v>110002</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C63">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F63" s="7">
         <f t="shared" si="4"/>
-        <v>33.333333</v>
+        <v>43.3333329</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4069,24 +4078,24 @@
         <v>110003</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" si="4"/>
-        <v>2.99999997</v>
+        <v>3.99999996</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4098,24 +4107,24 @@
         <v>110004</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C65">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="4"/>
-        <v>6.33333327</v>
+        <v>10.33333323</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4127,7 +4136,7 @@
         <v>110005</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66">
         <v>160</v>
@@ -4147,7 +4156,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4159,7 +4168,7 @@
         <v>110006</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -4176,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4188,7 +4197,7 @@
         <v>110007</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C68">
         <v>140</v>
@@ -4208,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4220,7 +4229,7 @@
         <v>110008</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C69">
         <v>160</v>
@@ -4240,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4252,24 +4261,24 @@
         <v>110009</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="4"/>
-        <v>1.99999998</v>
+        <v>3.99999996</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4281,7 +4290,7 @@
         <v>110010</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -4298,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4310,7 +4319,7 @@
         <v>110011</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C72">
         <v>26</v>
@@ -4327,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4339,24 +4348,24 @@
         <v>110012</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="7"/>
-        <v>6.33333327</v>
+        <v>7.66666659</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4368,7 +4377,7 @@
         <v>110013</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C74">
         <v>13</v>
@@ -4385,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4398,7 +4407,7 @@
         <v>110014</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C75">
         <v>102</v>
@@ -4415,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4428,7 +4437,7 @@
         <v>110015</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C76">
         <v>14</v>
@@ -4445,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4458,24 +4467,24 @@
         <v>110016</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C77">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F77" s="7">
         <f t="shared" si="7"/>
-        <v>24.33333309</v>
+        <v>26.6666664</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4488,7 +4497,7 @@
         <v>110017</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C78">
         <v>120</v>
@@ -4508,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4521,7 +4530,7 @@
         <v>110018</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C79">
         <v>40</v>
@@ -4541,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4556,7 +4565,7 @@
         <v>110019</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C80">
         <v>20</v>
@@ -4573,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4586,7 +4595,7 @@
         <v>210001</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -4603,7 +4612,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
@@ -4619,7 +4628,7 @@
         <v>210002</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>7</v>
@@ -4635,7 +4644,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
@@ -4651,7 +4660,7 @@
         <v>210101</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -4668,7 +4677,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
@@ -4678,7 +4687,7 @@
         <v>100097</v>
       </c>
       <c r="N83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S83" s="21"/>
     </row>
@@ -4687,7 +4696,7 @@
         <v>210102</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C84">
         <v>3.2</v>
@@ -4710,7 +4719,7 @@
         <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
@@ -4720,7 +4729,7 @@
         <v>100050</v>
       </c>
       <c r="N84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S84" s="21"/>
     </row>
@@ -4729,7 +4738,7 @@
         <v>210112</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C85">
         <v>4.5</v>
@@ -4752,7 +4761,7 @@
         <v>180</v>
       </c>
       <c r="J85" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
@@ -4761,7 +4770,7 @@
         <v>200050</v>
       </c>
       <c r="N85" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S85" s="21"/>
     </row>
@@ -4770,7 +4779,7 @@
         <v>210122</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4793,7 +4802,7 @@
         <v>300</v>
       </c>
       <c r="J86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -4802,7 +4811,7 @@
         <v>300050</v>
       </c>
       <c r="N86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S86" s="21"/>
     </row>
@@ -4811,7 +4820,7 @@
         <v>210132</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C87">
         <v>6.5</v>
@@ -4828,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
@@ -4837,7 +4846,7 @@
         <v>400050</v>
       </c>
       <c r="N87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S87" s="21"/>
     </row>
@@ -4846,7 +4855,7 @@
         <v>210103</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C88">
         <v>4.9</v>
@@ -4869,7 +4878,7 @@
         <v>180</v>
       </c>
       <c r="J88" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
@@ -4878,7 +4887,7 @@
         <v>100051</v>
       </c>
       <c r="N88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S88" s="21"/>
     </row>
@@ -4887,7 +4896,7 @@
         <v>210113</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C89">
         <v>5.7</v>
@@ -4910,7 +4919,7 @@
         <v>240</v>
       </c>
       <c r="J89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
@@ -4919,7 +4928,7 @@
         <v>200051</v>
       </c>
       <c r="N89" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S89" s="21"/>
     </row>
@@ -4928,7 +4937,7 @@
         <v>210123</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C90">
         <v>6.4</v>
@@ -4945,7 +4954,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
@@ -4954,7 +4963,7 @@
         <v>300051</v>
       </c>
       <c r="N90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S90" s="21"/>
     </row>
@@ -4963,7 +4972,7 @@
         <v>210104</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C91">
         <v>6.4</v>
@@ -4986,7 +4995,7 @@
         <v>250</v>
       </c>
       <c r="J91" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -4996,7 +5005,7 @@
         <v>100112</v>
       </c>
       <c r="N91" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S91" s="21"/>
     </row>
@@ -5005,7 +5014,7 @@
         <v>210114</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C92">
         <v>7.2</v>
@@ -5022,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
@@ -5032,7 +5041,7 @@
         <v>200112</v>
       </c>
       <c r="N92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S92" s="21"/>
     </row>
@@ -5041,7 +5050,7 @@
         <v>210105</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -5058,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
@@ -5068,7 +5077,7 @@
         <v>100113</v>
       </c>
       <c r="N93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S93" s="21"/>
     </row>
@@ -5077,7 +5086,7 @@
         <v>210201</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C94">
         <v>110</v>
@@ -5103,7 +5112,7 @@
         <v>700</v>
       </c>
       <c r="J94" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
@@ -5113,7 +5122,7 @@
         <v>100056</v>
       </c>
       <c r="N94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S94" s="21"/>
     </row>
@@ -5122,7 +5131,7 @@
         <v>210211</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C95">
         <v>148.5</v>
@@ -5142,7 +5151,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5152,7 +5161,7 @@
         <v>200056</v>
       </c>
       <c r="N95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S95" s="21"/>
     </row>
@@ -5161,7 +5170,7 @@
         <v>210301</v>
       </c>
       <c r="B96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C96">
         <v>4.7</v>
@@ -5184,7 +5193,7 @@
         <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -5193,7 +5202,7 @@
         <v>100050</v>
       </c>
       <c r="N96" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S96" s="21"/>
     </row>
@@ -5202,7 +5211,7 @@
         <v>210311</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -5225,7 +5234,7 @@
         <v>210</v>
       </c>
       <c r="J97" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
@@ -5234,7 +5243,7 @@
         <v>200050</v>
       </c>
       <c r="N97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S97" s="21"/>
     </row>
@@ -5243,7 +5252,7 @@
         <v>210321</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C98">
         <v>5.4</v>
@@ -5260,7 +5269,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
@@ -5269,7 +5278,7 @@
         <v>300050</v>
       </c>
       <c r="N98" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S98" s="21"/>
     </row>
@@ -5278,7 +5287,7 @@
         <v>210302</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C99">
         <v>4.7</v>
@@ -5301,7 +5310,7 @@
         <v>160</v>
       </c>
       <c r="J99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
@@ -5310,7 +5319,7 @@
         <v>100051</v>
       </c>
       <c r="N99" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S99" s="21"/>
     </row>
@@ -5319,7 +5328,7 @@
         <v>210312</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C100">
         <v>5.7</v>
@@ -5342,7 +5351,7 @@
         <v>220</v>
       </c>
       <c r="J100" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
@@ -5351,7 +5360,7 @@
         <v>200051</v>
       </c>
       <c r="N100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S100" s="21"/>
     </row>
@@ -5360,7 +5369,7 @@
         <v>210322</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C101">
         <v>6.7</v>
@@ -5377,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
@@ -5386,7 +5395,7 @@
         <v>300051</v>
       </c>
       <c r="N101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S101" s="21"/>
     </row>
@@ -5395,7 +5404,7 @@
         <v>210303</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -5418,7 +5427,7 @@
         <v>120</v>
       </c>
       <c r="J102" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
@@ -5428,7 +5437,7 @@
         <v>100112</v>
       </c>
       <c r="N102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S102" s="21"/>
     </row>
@@ -5437,7 +5446,7 @@
         <v>210313</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -5460,7 +5469,7 @@
         <v>195</v>
       </c>
       <c r="J103" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
@@ -5470,7 +5479,7 @@
         <v>200112</v>
       </c>
       <c r="N103" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S103" s="21"/>
     </row>
@@ -5479,7 +5488,7 @@
         <v>210323</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C104">
         <v>6.2</v>
@@ -5502,7 +5511,7 @@
         <v>300</v>
       </c>
       <c r="J104" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -5512,7 +5521,7 @@
         <v>300112</v>
       </c>
       <c r="N104" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S104" s="21"/>
     </row>
@@ -5521,7 +5530,7 @@
         <v>210333</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C105">
         <v>7.1</v>
@@ -5538,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -5547,7 +5556,7 @@
         <v>400112</v>
       </c>
       <c r="N105" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S105" s="21"/>
     </row>
@@ -5556,7 +5565,7 @@
         <v>210401</v>
       </c>
       <c r="B106" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C106">
         <v>6.1</v>
@@ -5579,7 +5588,7 @@
         <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -5588,7 +5597,7 @@
         <v>100112</v>
       </c>
       <c r="N106" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S106" s="21"/>
     </row>
@@ -5597,7 +5606,7 @@
         <v>210411</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C107">
         <v>7.2</v>
@@ -5620,7 +5629,7 @@
         <v>230</v>
       </c>
       <c r="J107" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
@@ -5629,7 +5638,7 @@
         <v>200112</v>
       </c>
       <c r="N107" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S107" s="21"/>
     </row>
@@ -5638,7 +5647,7 @@
         <v>210421</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5655,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
@@ -5664,7 +5673,7 @@
         <v>300112</v>
       </c>
       <c r="N108" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S108" s="21"/>
     </row>
@@ -5673,7 +5682,7 @@
         <v>210501</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C109">
         <v>10</v>
@@ -5690,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K109" t="b">
         <v>1</v>
@@ -5705,7 +5714,7 @@
         <v>210601</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -5728,7 +5737,7 @@
         <v>200</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -5738,7 +5747,7 @@
         <v>100050</v>
       </c>
       <c r="N110" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q110" t="s">
         <v>33</v>
@@ -5753,7 +5762,7 @@
         <v>210611</v>
       </c>
       <c r="B111" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C111">
         <v>6.4</v>
@@ -5776,7 +5785,7 @@
         <v>310</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
@@ -5786,7 +5795,7 @@
         <v>200050</v>
       </c>
       <c r="N111" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q111" t="s">
         <v>33</v>
@@ -5801,7 +5810,7 @@
         <v>210621</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C112">
         <v>7.6</v>
@@ -5818,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
@@ -5828,7 +5837,7 @@
         <v>300050</v>
       </c>
       <c r="N112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112" t="s">
         <v>33</v>
@@ -5843,7 +5852,7 @@
         <v>210701</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C113">
         <v>5.7</v>
@@ -5866,7 +5875,7 @@
         <v>200</v>
       </c>
       <c r="J113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
@@ -5876,7 +5885,7 @@
         <v>100112</v>
       </c>
       <c r="N113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S113" s="21"/>
     </row>
@@ -5885,7 +5894,7 @@
         <v>210711</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C114">
         <v>6.2</v>
@@ -5908,7 +5917,7 @@
         <v>245</v>
       </c>
       <c r="J114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
@@ -5918,7 +5927,7 @@
         <v>200112</v>
       </c>
       <c r="N114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S114" s="21"/>
     </row>
@@ -5927,7 +5936,7 @@
         <v>210721</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -5944,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
@@ -5954,7 +5963,7 @@
         <v>300112</v>
       </c>
       <c r="N115" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S115" s="21"/>
     </row>
@@ -6029,7 +6038,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6037,7 +6046,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6045,7 +6054,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6053,7 +6062,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6061,7 +6070,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6069,7 +6078,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -6097,7 +6106,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6105,7 +6114,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6113,7 +6122,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6121,7 +6130,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6129,7 +6138,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6137,7 +6146,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6145,7 +6154,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6160,50 +6169,58 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="2" max="3" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>269</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6211,7 +6228,23 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820" activeTab="3"/>
+    <workbookView windowHeight="13590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="282">
   <si>
     <t>Id</t>
   </si>
@@ -76,6 +76,12 @@
     <t>SquadCount</t>
   </si>
   <si>
+    <t>AddHP</t>
+  </si>
+  <si>
+    <t>AddDamage</t>
+  </si>
+  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>Int16</t>
   </si>
   <si>
+    <t>Dict&lt;String,Byte&gt;</t>
+  </si>
+  <si>
     <t>EnumRef:ESquadType</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>hre_ha_01:1.8</t>
   </si>
   <si>
+    <t>d:1</t>
+  </si>
+  <si>
     <t>长矛兵3</t>
   </si>
   <si>
@@ -199,6 +211,9 @@
     <t>mal:100106</t>
   </si>
   <si>
+    <t>d:50</t>
+  </si>
+  <si>
     <t>骑士4</t>
   </si>
   <si>
@@ -394,6 +409,9 @@
     <t>mal:6.5</t>
   </si>
   <si>
+    <t>mal:50</t>
+  </si>
+  <si>
     <t>骑手3</t>
   </si>
   <si>
@@ -826,6 +844,9 @@
     <t>MultiSquad</t>
   </si>
   <si>
+    <t>ConfigAttr</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -838,7 +859,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>hre_ha_01;hre_ha_01</t>
+    <t>jpn;jpn</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -849,11 +870,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -906,16 +927,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,45 +954,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,17 +973,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,8 +987,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,6 +1029,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,85 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,13 +1141,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,13 +1213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,13 +1231,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,25 +1279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,6 +1303,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1292,36 +1346,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,15 +1367,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1361,11 +1376,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,148 +1395,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,7 +1571,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -1559,10 +1580,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1592,16 +1613,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1952,14 +1973,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1982,10 +2003,12 @@
     <col min="16" max="16" width="33.25" customWidth="1"/>
     <col min="17" max="17" width="39.625" customWidth="1"/>
     <col min="18" max="18" width="36.5" customWidth="1"/>
-    <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
+    <col min="20" max="20" width="34.5" customWidth="1"/>
+    <col min="21" max="21" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,80 +2066,92 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:19">
+        <v>27</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -2129,12 +2164,14 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>32</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2154,13 +2191,15 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="10">
         <v>100048</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>3.3</v>
@@ -2170,7 +2209,7 @@
         <v>3.3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F26" si="1">MMULT(C5,0.33333333)</f>
@@ -2186,25 +2225,28 @@
         <v>160</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S5" s="21"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="11">
         <v>200048</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2214,7 +2256,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
@@ -2230,25 +2272,28 @@
         <v>205</v>
       </c>
       <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>33</v>
-      </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="11">
         <v>300048</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2258,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
@@ -2271,25 +2316,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="21"/>
+      <c r="U7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="10">
         <v>100049</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2309,16 +2357,16 @@
         <v>160</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S8" s="21"/>
     </row>
@@ -2327,7 +2375,7 @@
         <v>200049</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>4.8</v>
@@ -2347,16 +2395,16 @@
         <v>210</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S9" s="21"/>
     </row>
@@ -2365,7 +2413,7 @@
         <v>300049</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>5.5</v>
@@ -2379,25 +2427,25 @@
         <v>1.833333315</v>
       </c>
       <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" t="s">
         <v>46</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
       <c r="S10" s="21"/>
     </row>
-    <row r="11" s="7" customFormat="1" spans="1:19">
+    <row r="11" s="7" customFormat="1" spans="1:21">
       <c r="A11" s="12">
         <v>100050</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7">
         <v>6</v>
@@ -2417,24 +2465,26 @@
         <v>300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" s="22"/>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:19">
+      <c r="T11"/>
+      <c r="U11"/>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:21">
       <c r="A12" s="12">
         <v>200050</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" s="7">
         <v>6.6</v>
@@ -2448,7 +2498,7 @@
         <v>2.199999978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
@@ -2457,13 +2507,15 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12" s="22"/>
+      <c r="T12"/>
+      <c r="U12"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="11">
         <v>100051</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2484,19 +2536,19 @@
         <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S13" s="21"/>
     </row>
@@ -2505,7 +2557,7 @@
         <v>200051</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -2519,25 +2571,25 @@
         <v>2.33333331</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="11">
         <v>100052</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -2546,6 +2598,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>2.99999997</v>
@@ -2557,28 +2612,31 @@
         <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S15" s="21"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="11">
         <v>200052</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -2587,30 +2645,36 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>3.99999996</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S16" s="21"/>
+      <c r="T16" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="11">
         <v>100053</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2630,7 +2694,7 @@
         <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2642,7 +2706,7 @@
         <v>200053</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>7.5</v>
@@ -2656,7 +2720,7 @@
         <v>2.499999975</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2668,7 +2732,7 @@
         <v>100054</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -2688,7 +2752,7 @@
         <v>420</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2700,7 +2764,7 @@
         <v>200054</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -2714,7 +2778,7 @@
         <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2726,7 +2790,7 @@
         <v>100055</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>92</v>
@@ -2743,7 +2807,7 @@
         <v>30.66666636</v>
       </c>
       <c r="J21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2755,7 +2819,7 @@
         <v>200055</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>76</v>
@@ -2769,7 +2833,7 @@
         <v>25.33333308</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2781,7 +2845,7 @@
         <v>100056</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -2804,13 +2868,13 @@
         <v>700</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -2819,7 +2883,7 @@
         <v>200056</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>84</v>
@@ -2839,7 +2903,7 @@
         <v>1000</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -2851,7 +2915,7 @@
         <v>300056</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>148.5</v>
@@ -2871,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2883,7 +2947,7 @@
         <v>100057</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>4.2</v>
@@ -2903,7 +2967,7 @@
         <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2915,7 +2979,7 @@
         <v>200057</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -2935,7 +2999,7 @@
         <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2947,7 +3011,7 @@
         <v>300057</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>5.8</v>
@@ -2961,7 +3025,7 @@
         <v>1.933333314</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -2973,7 +3037,7 @@
         <v>100097</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2987,13 +3051,13 @@
         <v>2.66666664</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="S29" s="21"/>
     </row>
@@ -3002,7 +3066,7 @@
         <v>100098</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -3016,19 +3080,19 @@
         <v>5.99999994</v>
       </c>
       <c r="J30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="S30" s="21"/>
     </row>
@@ -3037,7 +3101,7 @@
         <v>100099</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -3060,7 +3124,7 @@
         <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -3072,7 +3136,7 @@
         <v>200099</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -3089,7 +3153,7 @@
         <v>2.66666664</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -3101,7 +3165,7 @@
         <v>100100</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C33">
         <v>43</v>
@@ -3124,7 +3188,7 @@
         <v>540</v>
       </c>
       <c r="J33" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3136,7 +3200,7 @@
         <v>200100</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>51</v>
@@ -3156,7 +3220,7 @@
         <v>1100</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -3168,7 +3232,7 @@
         <v>300100</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>111.6</v>
@@ -3188,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3200,7 +3264,7 @@
         <v>100101</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C36">
         <v>53</v>
@@ -3220,7 +3284,7 @@
         <v>580</v>
       </c>
       <c r="J36" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3232,7 +3296,7 @@
         <v>200101</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C37">
         <v>60</v>
@@ -3246,7 +3310,7 @@
         <v>19.9999998</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3258,7 +3322,7 @@
         <v>100102</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C38" s="8">
         <v>8</v>
@@ -3278,7 +3342,7 @@
         <v>200</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K38" s="8" t="b">
         <v>0</v>
@@ -3291,7 +3355,7 @@
         <v>200102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C39" s="8">
         <v>10</v>
@@ -3311,7 +3375,7 @@
         <v>290</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K39" s="8" t="b">
         <v>0</v>
@@ -3324,7 +3388,7 @@
         <v>300102</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C40" s="8">
         <v>12</v>
@@ -3338,7 +3402,7 @@
         <v>3.99999996</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K40" s="8" t="b">
         <v>0</v>
@@ -3351,7 +3415,7 @@
         <v>100103</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -3365,7 +3429,7 @@
         <v>8.33333325</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3377,7 +3441,7 @@
         <v>100104</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -3391,7 +3455,7 @@
         <v>11.33333322</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3403,7 +3467,7 @@
         <v>100105</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -3423,7 +3487,7 @@
         <v>220</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3435,7 +3499,7 @@
         <v>200105</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3449,19 +3513,19 @@
         <v>2.66666664</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
       <c r="S44" s="21"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:20">
       <c r="A45" s="10">
         <v>100106</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3471,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="3"/>
@@ -3487,28 +3551,31 @@
         <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S45" s="21"/>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="10">
         <v>200106</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -3518,7 +3585,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="3"/>
@@ -3531,7 +3598,7 @@
         <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -3540,25 +3607,28 @@
         <v>100052</v>
       </c>
       <c r="N46" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S46" s="21"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="10">
         <v>300106</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -3568,14 +3638,14 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F47" s="7">
         <f t="shared" si="3"/>
         <v>2.33333331</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -3584,25 +3654,28 @@
         <v>200052</v>
       </c>
       <c r="N47" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O47" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S47" s="21"/>
+      <c r="T47" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="10">
         <v>100107</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -3622,7 +3695,7 @@
         <v>500</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -3634,7 +3707,7 @@
         <v>200107</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -3648,7 +3721,7 @@
         <v>19.9999998</v>
       </c>
       <c r="J49" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3660,7 +3733,7 @@
         <v>100108</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3680,7 +3753,7 @@
         <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3692,7 +3765,7 @@
         <v>200108</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -3712,7 +3785,7 @@
         <v>320</v>
       </c>
       <c r="J51" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3724,7 +3797,7 @@
         <v>300108</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -3738,7 +3811,7 @@
         <v>4.99999995</v>
       </c>
       <c r="J52" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3750,7 +3823,7 @@
         <v>100109</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3770,7 +3843,7 @@
         <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3782,7 +3855,7 @@
         <v>200109</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3802,7 +3875,7 @@
         <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3814,7 +3887,7 @@
         <v>300109</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C55">
         <v>12.7</v>
@@ -3828,7 +3901,7 @@
         <v>4.233333291</v>
       </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3840,7 +3913,7 @@
         <v>100110</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -3860,7 +3933,7 @@
         <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3872,7 +3945,7 @@
         <v>200110</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C57">
         <v>11.5</v>
@@ -3892,7 +3965,7 @@
         <v>320</v>
       </c>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3904,7 +3977,7 @@
         <v>300110</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -3918,7 +3991,7 @@
         <v>4.33333329</v>
       </c>
       <c r="J58" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3930,7 +4003,7 @@
         <v>100111</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -3944,7 +4017,7 @@
         <v>1.99999998</v>
       </c>
       <c r="J59" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3956,7 +4029,7 @@
         <v>100112</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -3973,13 +4046,13 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="S60" s="21"/>
     </row>
@@ -3988,7 +4061,7 @@
         <v>100113</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -4005,13 +4078,13 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="S61" s="21"/>
     </row>
@@ -4020,7 +4093,7 @@
         <v>110001</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C62">
         <v>80</v>
@@ -4037,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4049,7 +4122,7 @@
         <v>110002</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C63">
         <v>130</v>
@@ -4066,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4078,7 +4151,7 @@
         <v>110003</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -4095,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4107,7 +4180,7 @@
         <v>110004</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -4124,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4136,7 +4209,7 @@
         <v>110005</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66">
         <v>160</v>
@@ -4156,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4168,7 +4241,7 @@
         <v>110006</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -4185,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4197,7 +4270,7 @@
         <v>110007</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <v>140</v>
@@ -4217,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4229,7 +4302,7 @@
         <v>110008</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C69">
         <v>160</v>
@@ -4249,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4261,7 +4334,7 @@
         <v>110009</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C70">
         <v>12</v>
@@ -4278,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4290,7 +4363,7 @@
         <v>110010</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -4307,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4319,7 +4392,7 @@
         <v>110011</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C72">
         <v>26</v>
@@ -4336,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4348,7 +4421,7 @@
         <v>110012</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C73">
         <v>23</v>
@@ -4365,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4377,7 +4450,7 @@
         <v>110013</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C74">
         <v>13</v>
@@ -4394,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4407,7 +4480,7 @@
         <v>110014</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C75">
         <v>102</v>
@@ -4424,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4437,7 +4510,7 @@
         <v>110015</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C76">
         <v>14</v>
@@ -4454,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4467,7 +4540,7 @@
         <v>110016</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C77">
         <v>80</v>
@@ -4484,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4497,7 +4570,7 @@
         <v>110017</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C78">
         <v>120</v>
@@ -4517,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4530,7 +4603,7 @@
         <v>110018</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C79">
         <v>40</v>
@@ -4550,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4565,7 +4638,7 @@
         <v>110019</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C80">
         <v>20</v>
@@ -4582,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4595,7 +4668,7 @@
         <v>210001</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -4612,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
@@ -4628,7 +4701,7 @@
         <v>210002</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C82">
         <v>7</v>
@@ -4644,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
@@ -4660,7 +4733,7 @@
         <v>210101</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -4677,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
@@ -4687,7 +4760,7 @@
         <v>100097</v>
       </c>
       <c r="N83" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S83" s="21"/>
     </row>
@@ -4696,7 +4769,7 @@
         <v>210102</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C84">
         <v>3.2</v>
@@ -4719,7 +4792,7 @@
         <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
@@ -4729,7 +4802,7 @@
         <v>100050</v>
       </c>
       <c r="N84" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S84" s="21"/>
     </row>
@@ -4738,7 +4811,7 @@
         <v>210112</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C85">
         <v>4.5</v>
@@ -4761,7 +4834,7 @@
         <v>180</v>
       </c>
       <c r="J85" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
@@ -4770,7 +4843,7 @@
         <v>200050</v>
       </c>
       <c r="N85" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S85" s="21"/>
     </row>
@@ -4779,7 +4852,7 @@
         <v>210122</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4802,7 +4875,7 @@
         <v>300</v>
       </c>
       <c r="J86" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -4811,7 +4884,7 @@
         <v>300050</v>
       </c>
       <c r="N86" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S86" s="21"/>
     </row>
@@ -4820,7 +4893,7 @@
         <v>210132</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C87">
         <v>6.5</v>
@@ -4837,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
@@ -4846,7 +4919,7 @@
         <v>400050</v>
       </c>
       <c r="N87" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S87" s="21"/>
     </row>
@@ -4855,7 +4928,7 @@
         <v>210103</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C88">
         <v>4.9</v>
@@ -4878,7 +4951,7 @@
         <v>180</v>
       </c>
       <c r="J88" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
@@ -4887,7 +4960,7 @@
         <v>100051</v>
       </c>
       <c r="N88" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S88" s="21"/>
     </row>
@@ -4896,7 +4969,7 @@
         <v>210113</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C89">
         <v>5.7</v>
@@ -4919,7 +4992,7 @@
         <v>240</v>
       </c>
       <c r="J89" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
@@ -4928,7 +5001,7 @@
         <v>200051</v>
       </c>
       <c r="N89" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S89" s="21"/>
     </row>
@@ -4937,7 +5010,7 @@
         <v>210123</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C90">
         <v>6.4</v>
@@ -4954,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
@@ -4963,7 +5036,7 @@
         <v>300051</v>
       </c>
       <c r="N90" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S90" s="21"/>
     </row>
@@ -4972,7 +5045,7 @@
         <v>210104</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C91">
         <v>6.4</v>
@@ -4995,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="J91" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -5005,7 +5078,7 @@
         <v>100112</v>
       </c>
       <c r="N91" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S91" s="21"/>
     </row>
@@ -5014,7 +5087,7 @@
         <v>210114</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C92">
         <v>7.2</v>
@@ -5031,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
@@ -5041,7 +5114,7 @@
         <v>200112</v>
       </c>
       <c r="N92" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S92" s="21"/>
     </row>
@@ -5050,7 +5123,7 @@
         <v>210105</v>
       </c>
       <c r="B93" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -5067,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
@@ -5077,7 +5150,7 @@
         <v>100113</v>
       </c>
       <c r="N93" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="S93" s="21"/>
     </row>
@@ -5086,7 +5159,7 @@
         <v>210201</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C94">
         <v>110</v>
@@ -5112,7 +5185,7 @@
         <v>700</v>
       </c>
       <c r="J94" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
@@ -5122,7 +5195,7 @@
         <v>100056</v>
       </c>
       <c r="N94" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="S94" s="21"/>
     </row>
@@ -5131,7 +5204,7 @@
         <v>210211</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C95">
         <v>148.5</v>
@@ -5151,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5161,7 +5234,7 @@
         <v>200056</v>
       </c>
       <c r="N95" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="S95" s="21"/>
     </row>
@@ -5170,7 +5243,7 @@
         <v>210301</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C96">
         <v>4.7</v>
@@ -5193,7 +5266,7 @@
         <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -5202,7 +5275,7 @@
         <v>100050</v>
       </c>
       <c r="N96" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S96" s="21"/>
     </row>
@@ -5211,7 +5284,7 @@
         <v>210311</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -5234,7 +5307,7 @@
         <v>210</v>
       </c>
       <c r="J97" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
@@ -5243,7 +5316,7 @@
         <v>200050</v>
       </c>
       <c r="N97" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S97" s="21"/>
     </row>
@@ -5252,7 +5325,7 @@
         <v>210321</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C98">
         <v>5.4</v>
@@ -5269,7 +5342,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
@@ -5278,7 +5351,7 @@
         <v>300050</v>
       </c>
       <c r="N98" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S98" s="21"/>
     </row>
@@ -5287,7 +5360,7 @@
         <v>210302</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C99">
         <v>4.7</v>
@@ -5310,7 +5383,7 @@
         <v>160</v>
       </c>
       <c r="J99" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
@@ -5319,7 +5392,7 @@
         <v>100051</v>
       </c>
       <c r="N99" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S99" s="21"/>
     </row>
@@ -5328,7 +5401,7 @@
         <v>210312</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C100">
         <v>5.7</v>
@@ -5351,7 +5424,7 @@
         <v>220</v>
       </c>
       <c r="J100" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
@@ -5360,7 +5433,7 @@
         <v>200051</v>
       </c>
       <c r="N100" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S100" s="21"/>
     </row>
@@ -5369,7 +5442,7 @@
         <v>210322</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C101">
         <v>6.7</v>
@@ -5386,7 +5459,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
@@ -5395,7 +5468,7 @@
         <v>300051</v>
       </c>
       <c r="N101" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S101" s="21"/>
     </row>
@@ -5404,7 +5477,7 @@
         <v>210303</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -5427,7 +5500,7 @@
         <v>120</v>
       </c>
       <c r="J102" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
@@ -5437,7 +5510,7 @@
         <v>100112</v>
       </c>
       <c r="N102" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S102" s="21"/>
     </row>
@@ -5446,7 +5519,7 @@
         <v>210313</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -5469,7 +5542,7 @@
         <v>195</v>
       </c>
       <c r="J103" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
@@ -5479,7 +5552,7 @@
         <v>200112</v>
       </c>
       <c r="N103" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S103" s="21"/>
     </row>
@@ -5488,7 +5561,7 @@
         <v>210323</v>
       </c>
       <c r="B104" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C104">
         <v>6.2</v>
@@ -5511,7 +5584,7 @@
         <v>300</v>
       </c>
       <c r="J104" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -5521,7 +5594,7 @@
         <v>300112</v>
       </c>
       <c r="N104" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S104" s="21"/>
     </row>
@@ -5530,7 +5603,7 @@
         <v>210333</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C105">
         <v>7.1</v>
@@ -5547,7 +5620,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -5556,7 +5629,7 @@
         <v>400112</v>
       </c>
       <c r="N105" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S105" s="21"/>
     </row>
@@ -5565,7 +5638,7 @@
         <v>210401</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C106">
         <v>6.1</v>
@@ -5588,7 +5661,7 @@
         <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -5597,7 +5670,7 @@
         <v>100112</v>
       </c>
       <c r="N106" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="S106" s="21"/>
     </row>
@@ -5606,7 +5679,7 @@
         <v>210411</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C107">
         <v>7.2</v>
@@ -5629,7 +5702,7 @@
         <v>230</v>
       </c>
       <c r="J107" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
@@ -5638,7 +5711,7 @@
         <v>200112</v>
       </c>
       <c r="N107" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="S107" s="21"/>
     </row>
@@ -5647,7 +5720,7 @@
         <v>210421</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5664,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
@@ -5673,7 +5746,7 @@
         <v>300112</v>
       </c>
       <c r="N108" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="S108" s="21"/>
     </row>
@@ -5682,7 +5755,7 @@
         <v>210501</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C109">
         <v>10</v>
@@ -5699,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K109" t="b">
         <v>1</v>
@@ -5714,7 +5787,7 @@
         <v>210601</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -5737,7 +5810,7 @@
         <v>200</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -5747,13 +5820,13 @@
         <v>100050</v>
       </c>
       <c r="N110" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R110" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S110" s="21"/>
     </row>
@@ -5762,7 +5835,7 @@
         <v>210611</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C111">
         <v>6.4</v>
@@ -5785,7 +5858,7 @@
         <v>310</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
@@ -5795,13 +5868,13 @@
         <v>200050</v>
       </c>
       <c r="N111" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R111" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S111" s="21"/>
     </row>
@@ -5810,7 +5883,7 @@
         <v>210621</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C112">
         <v>7.6</v>
@@ -5827,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
@@ -5837,13 +5910,13 @@
         <v>300050</v>
       </c>
       <c r="N112" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q112" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R112" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S112" s="21"/>
     </row>
@@ -5852,7 +5925,7 @@
         <v>210701</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C113">
         <v>5.7</v>
@@ -5875,7 +5948,7 @@
         <v>200</v>
       </c>
       <c r="J113" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
@@ -5885,7 +5958,7 @@
         <v>100112</v>
       </c>
       <c r="N113" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S113" s="21"/>
     </row>
@@ -5894,7 +5967,7 @@
         <v>210711</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C114">
         <v>6.2</v>
@@ -5917,7 +5990,7 @@
         <v>245</v>
       </c>
       <c r="J114" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
@@ -5927,7 +6000,7 @@
         <v>200112</v>
       </c>
       <c r="N114" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S114" s="21"/>
     </row>
@@ -5936,7 +6009,7 @@
         <v>210721</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -5953,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
@@ -5963,7 +6036,7 @@
         <v>300112</v>
       </c>
       <c r="N115" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="S115" s="21"/>
     </row>
@@ -6038,7 +6111,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6046,7 +6119,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6054,7 +6127,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6062,7 +6135,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6070,7 +6143,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6078,7 +6151,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -6093,20 +6166,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6114,7 +6187,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6122,7 +6195,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6130,7 +6203,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6138,7 +6211,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6146,7 +6219,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6154,10 +6227,18 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -6172,7 +6253,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -6186,21 +6267,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6210,7 +6291,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6220,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6228,7 +6309,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -11,13 +11,14 @@
     <sheet name="_Type" sheetId="2" r:id="rId2"/>
     <sheet name="_SquadType" sheetId="3" r:id="rId3"/>
     <sheet name="Setting" sheetId="4" r:id="rId4"/>
+    <sheet name="_SettingType" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -853,16 +854,31 @@
     <t>IntVal</t>
   </si>
   <si>
+    <t>StrVal</t>
+  </si>
+  <si>
     <t>String[]</t>
   </si>
   <si>
-    <t>Partial:3</t>
-  </si>
-  <si>
-    <t>jpn;jpn</t>
+    <t>Partial:3;CustomEnum:_SettingType;</t>
+  </si>
+  <si>
+    <t>mon;mon</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
+  </si>
+  <si>
+    <t>柏柏尔;回回炮</t>
+  </si>
+  <si>
+    <t>2p_rand_1</t>
+  </si>
+  <si>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>FansCard</t>
   </si>
 </sst>
 </file>
@@ -870,11 +886,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -913,6 +929,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -927,11 +951,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -942,6 +972,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -973,39 +1027,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,15 +1052,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,13 +1127,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,19 +1181,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,37 +1217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,7 +1247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,13 +1277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,55 +1295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,10 +1309,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1320,32 +1386,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,179 +1406,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,7 +1587,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
@@ -1580,10 +1596,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1613,16 +1629,16 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1976,11 +1992,11 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3470,15 +3486,15 @@
         <v>123</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="3"/>
-        <v>1.99999998</v>
+        <v>2.366666643</v>
       </c>
       <c r="H43">
         <v>200105</v>
@@ -3502,15 +3518,15 @@
         <v>125</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>8.2</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>8.2</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="3"/>
-        <v>2.66666664</v>
+        <v>2.733333306</v>
       </c>
       <c r="J44" t="s">
         <v>126</v>
@@ -6250,19 +6266,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
     <col min="2" max="3" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6272,36 +6289,44 @@
       <c r="C1" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6309,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6317,7 +6342,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>850</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6326,6 +6351,63 @@
       </c>
       <c r="C8">
         <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="289">
   <si>
     <t>Id</t>
   </si>
@@ -212,6 +212,9 @@
     <t>mal:100106</t>
   </si>
   <si>
+    <t>hre_ha_01:1.69</t>
+  </si>
+  <si>
     <t>d:50</t>
   </si>
   <si>
@@ -260,444 +263,444 @@
     <t>手推炮4</t>
   </si>
   <si>
+    <t>unit_bombard_4_chi</t>
+  </si>
+  <si>
+    <t>火炮4</t>
+  </si>
+  <si>
+    <t>unit_cannon_4_</t>
+  </si>
+  <si>
+    <t>乌尔班巨炮</t>
+  </si>
+  <si>
+    <t>unit_great_bombard_4_ott</t>
+  </si>
+  <si>
+    <t>诸葛弩2</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_2_chi</t>
+  </si>
+  <si>
+    <t>诸葛弩3</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_3_chi</t>
+  </si>
+  <si>
+    <t>诸葛弩4</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_4_chi</t>
+  </si>
+  <si>
+    <t>教士</t>
+  </si>
+  <si>
+    <t>unit_monk_3_</t>
+  </si>
+  <si>
+    <t>byz:210001;sul:210001;hre:210002;jpn:210101;abb_ha_01:210501;hre_ha_01:210002</t>
+  </si>
+  <si>
+    <t>火枪4</t>
+  </si>
+  <si>
+    <t>unit_handcannon_4_</t>
+  </si>
+  <si>
+    <t>ott:16</t>
+  </si>
+  <si>
+    <t>hre_ha_01:1.6</t>
+  </si>
+  <si>
+    <t>火长矛3</t>
+  </si>
+  <si>
+    <t>unit_firelancer_3_chi</t>
+  </si>
+  <si>
+    <t>火长矛4</t>
+  </si>
+  <si>
+    <t>unit_firelancer_4_chi</t>
+  </si>
+  <si>
+    <t>弩车3</t>
+  </si>
+  <si>
+    <t>unit_springald_3_</t>
+  </si>
+  <si>
+    <t>弩车钟楼</t>
+  </si>
+  <si>
+    <t>unit_springald_3_clocktower_chi</t>
+  </si>
+  <si>
+    <t>长管炮</t>
+  </si>
+  <si>
+    <t>unit_culverin_4_fre</t>
+  </si>
+  <si>
+    <t>投石车3</t>
+  </si>
+  <si>
+    <t>unit_mangonel_3_</t>
+  </si>
+  <si>
+    <t>投石车钟楼</t>
+  </si>
+  <si>
+    <t>unit_mangonel_3_clocktower_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵2</t>
+  </si>
+  <si>
+    <t>unit_grenadier_2_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵3</t>
+  </si>
+  <si>
+    <t>unit_grenadier_3_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵4</t>
+  </si>
+  <si>
+    <t>unit_grenadier_4_chi</t>
+  </si>
+  <si>
+    <t>军乐队2</t>
+  </si>
+  <si>
+    <t>unit_mehter_2_ott</t>
+  </si>
+  <si>
+    <t>战象3</t>
+  </si>
+  <si>
+    <t>unit_war_elephant_3_sul</t>
+  </si>
+  <si>
+    <t>骆驼骑手3</t>
+  </si>
+  <si>
+    <t>unit_camel_rider_3_abb</t>
+  </si>
+  <si>
+    <t>骆驼骑手4</t>
+  </si>
+  <si>
+    <t>unit_camel_rider_4_abb</t>
+  </si>
+  <si>
+    <t>骑手2</t>
+  </si>
+  <si>
+    <t>unit_horseman_2_</t>
+  </si>
+  <si>
+    <t>mal:6.5</t>
+  </si>
+  <si>
+    <t>mal:50</t>
+  </si>
+  <si>
+    <t>骑手3</t>
+  </si>
+  <si>
+    <t>unit_horseman_3_</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>mal:7.5</t>
+  </si>
+  <si>
+    <t>骑手4</t>
+  </si>
+  <si>
+    <t>unit_horseman_4_</t>
+  </si>
+  <si>
+    <t>mal:8.5</t>
+  </si>
+  <si>
+    <t>冲车3</t>
+  </si>
+  <si>
+    <t>unit_ram_3_</t>
+  </si>
+  <si>
+    <t>苏丹之塔</t>
+  </si>
+  <si>
+    <t>unit_ram_tower_3_abb_ha_01</t>
+  </si>
+  <si>
+    <t>旗本武士2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本武士3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本武士4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_4_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_4_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_4_jpn</t>
+  </si>
+  <si>
+    <t>武僧</t>
+  </si>
+  <si>
+    <t>unit_monk_shaolin_3_chi_ha_01</t>
+  </si>
+  <si>
+    <t>国家特殊1</t>
+  </si>
+  <si>
+    <t>abb:210401;mal:210303;jpn:210104;mon:210701</t>
+  </si>
+  <si>
+    <t>国家特殊2</t>
+  </si>
+  <si>
+    <t>jpn:210105</t>
+  </si>
+  <si>
+    <t>风琴炮</t>
+  </si>
+  <si>
+    <t>unit_ribauldequin_4_ott</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>unit_abbey_king_2</t>
+  </si>
+  <si>
+    <t>精锐古拉姆</t>
+  </si>
+  <si>
+    <t>unit_ghulam_4_merc_byz</t>
+  </si>
+  <si>
+    <t>精锐射击军</t>
+  </si>
+  <si>
+    <t>unit_streltsy_4_merc_byz</t>
+  </si>
+  <si>
+    <t>精锐掷弹兵</t>
+  </si>
+  <si>
+    <t>皇家长管炮</t>
+  </si>
+  <si>
+    <t>unit_culverin_4_royal_fre</t>
+  </si>
+  <si>
+    <t>精锐长弓兵</t>
+  </si>
+  <si>
+    <t>unit_archer_4_eng</t>
+  </si>
+  <si>
+    <t>精锐苏丹亲兵</t>
+  </si>
+  <si>
+    <t>unit_handcannon_4_ott</t>
+  </si>
+  <si>
+    <t>精锐大筒兵</t>
+  </si>
+  <si>
+    <t>unit_ozutsu_4_jpn</t>
+  </si>
+  <si>
+    <t>精锐沙漠掠夺者</t>
+  </si>
+  <si>
+    <t>unit_mamluk_4_merc_byz</t>
+  </si>
+  <si>
+    <t>僧侣战士</t>
+  </si>
+  <si>
+    <t>unit_monk_3_rus</t>
+  </si>
+  <si>
+    <t>皇家加农炮</t>
+  </si>
+  <si>
+    <t>unit_cannon_4_royal_fre</t>
+  </si>
+  <si>
+    <t>可汗</t>
+  </si>
+  <si>
+    <t>unit_khan_4_mon</t>
+  </si>
+  <si>
+    <t>蜂窝炮</t>
+  </si>
+  <si>
+    <t>unit_nest_of_bees_4_chi</t>
+  </si>
+  <si>
+    <t>回回炮</t>
+  </si>
+  <si>
+    <t>unit_khaganate_great_trebuchet_mon</t>
+  </si>
+  <si>
+    <t>温嘉德突袭小队</t>
+  </si>
+  <si>
+    <t>unit_wynguard_raiders_eng</t>
+  </si>
+  <si>
+    <t>明朝帝国卫队</t>
+  </si>
+  <si>
+    <t>unit_ming_guard_chi_ha_01</t>
+  </si>
+  <si>
+    <t>unit_monk_2_</t>
+  </si>
+  <si>
+    <t>unit_monk_1_</t>
+  </si>
+  <si>
+    <t>日本和尚</t>
+  </si>
+  <si>
+    <t>unit_monk_buddhist_3_</t>
+  </si>
+  <si>
+    <t>jpn</t>
+  </si>
+  <si>
+    <t>日本武士1</t>
+  </si>
+  <si>
+    <t>unit_samurai_1_</t>
+  </si>
+  <si>
+    <t>日本武士2</t>
+  </si>
+  <si>
+    <t>unit_samurai_2_</t>
+  </si>
+  <si>
+    <t>日本武士3</t>
+  </si>
+  <si>
+    <t>unit_samurai_3_</t>
+  </si>
+  <si>
+    <t>日本武士4</t>
+  </si>
+  <si>
+    <t>unit_samurai_4_</t>
+  </si>
+  <si>
+    <t>女武者2</t>
+  </si>
+  <si>
+    <t>unit_onna_bugeisha_2_</t>
+  </si>
+  <si>
+    <t>女武者3</t>
+  </si>
+  <si>
+    <t>unit_onna_bugeisha_3_</t>
+  </si>
+  <si>
+    <t>女武者4</t>
+  </si>
+  <si>
+    <t>unit_onna_bugeisha_4_</t>
+  </si>
+  <si>
+    <t>弓骑3</t>
+  </si>
+  <si>
+    <t>unit_horsearcher_3_</t>
+  </si>
+  <si>
+    <t>弓骑4</t>
+  </si>
+  <si>
+    <t>unit_horsearcher_4_</t>
+  </si>
+  <si>
+    <t>忍者2</t>
+  </si>
+  <si>
+    <t>unit_shinobi_2_</t>
+  </si>
+  <si>
+    <t>trebuchtrebuchet</t>
+  </si>
+  <si>
+    <t>小乌尔班4</t>
+  </si>
+  <si>
     <t>unit_bombard_4_</t>
   </si>
   <si>
-    <t>ott:210201</t>
-  </si>
-  <si>
-    <t>火炮4</t>
-  </si>
-  <si>
-    <t>unit_cannon_4_</t>
-  </si>
-  <si>
-    <t>乌尔班巨炮</t>
-  </si>
-  <si>
-    <t>unit_great_bombard_4_ott</t>
-  </si>
-  <si>
-    <t>诸葛弩2</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_2_chi</t>
-  </si>
-  <si>
-    <t>诸葛弩3</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_3_chi</t>
-  </si>
-  <si>
-    <t>诸葛弩4</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_4_chi</t>
-  </si>
-  <si>
-    <t>教士</t>
-  </si>
-  <si>
-    <t>unit_monk_3_</t>
-  </si>
-  <si>
-    <t>byz:210001;sul:210001;hre:210002;jpn:210101;abb_ha_01:210501;hre_ha_01:210002</t>
-  </si>
-  <si>
-    <t>火枪4</t>
-  </si>
-  <si>
-    <t>unit_handcannon_4_</t>
-  </si>
-  <si>
-    <t>ott:16</t>
-  </si>
-  <si>
-    <t>hre_ha_01:1.6</t>
-  </si>
-  <si>
-    <t>火长矛3</t>
-  </si>
-  <si>
-    <t>unit_firelancer_3_chi</t>
-  </si>
-  <si>
-    <t>火长矛4</t>
-  </si>
-  <si>
-    <t>unit_firelancer_4_chi</t>
-  </si>
-  <si>
-    <t>弩车3</t>
-  </si>
-  <si>
-    <t>unit_springald_3_</t>
-  </si>
-  <si>
-    <t>弩车钟楼</t>
-  </si>
-  <si>
-    <t>unit_springald_3_clocktower_chi</t>
-  </si>
-  <si>
-    <t>长管炮</t>
-  </si>
-  <si>
-    <t>unit_culverin_4_fre</t>
-  </si>
-  <si>
-    <t>投石车3</t>
-  </si>
-  <si>
-    <t>unit_mangonel_3_</t>
-  </si>
-  <si>
-    <t>投石车钟楼</t>
-  </si>
-  <si>
-    <t>unit_mangonel_3_clocktower_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵2</t>
-  </si>
-  <si>
-    <t>unit_grenadier_2_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵3</t>
-  </si>
-  <si>
-    <t>unit_grenadier_3_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵4</t>
-  </si>
-  <si>
-    <t>unit_grenadier_4_chi</t>
-  </si>
-  <si>
-    <t>军乐队2</t>
-  </si>
-  <si>
-    <t>unit_mehter_2_ott</t>
-  </si>
-  <si>
-    <t>战象3</t>
-  </si>
-  <si>
-    <t>unit_war_elephant_3_sul</t>
-  </si>
-  <si>
-    <t>骆驼骑手3</t>
-  </si>
-  <si>
-    <t>unit_camel_rider_3_abb</t>
-  </si>
-  <si>
-    <t>骆驼骑手4</t>
-  </si>
-  <si>
-    <t>unit_camel_rider_4_abb</t>
-  </si>
-  <si>
-    <t>骑手2</t>
-  </si>
-  <si>
-    <t>unit_horseman_2_</t>
-  </si>
-  <si>
-    <t>mal:6.5</t>
-  </si>
-  <si>
-    <t>mal:50</t>
-  </si>
-  <si>
-    <t>骑手3</t>
-  </si>
-  <si>
-    <t>unit_horseman_3_</t>
-  </si>
-  <si>
-    <t>mal</t>
-  </si>
-  <si>
-    <t>mal:7.5</t>
-  </si>
-  <si>
-    <t>骑手4</t>
-  </si>
-  <si>
-    <t>unit_horseman_4_</t>
-  </si>
-  <si>
-    <t>mal:8.5</t>
-  </si>
-  <si>
-    <t>冲车3</t>
-  </si>
-  <si>
-    <t>unit_ram_3_</t>
-  </si>
-  <si>
-    <t>苏丹之塔</t>
-  </si>
-  <si>
-    <t>unit_ram_tower_3_abb_ha_01</t>
-  </si>
-  <si>
-    <t>旗本武士2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本武士3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本武士4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_4_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_4_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_4_jpn</t>
-  </si>
-  <si>
-    <t>武僧</t>
-  </si>
-  <si>
-    <t>unit_monk_shaolin_3_chi_ha_01</t>
-  </si>
-  <si>
-    <t>国家特殊1</t>
-  </si>
-  <si>
-    <t>abb:210401;mal:210303;jpn:210104;mon:210701</t>
-  </si>
-  <si>
-    <t>国家特殊2</t>
-  </si>
-  <si>
-    <t>jpn:210105</t>
-  </si>
-  <si>
-    <t>风琴炮</t>
-  </si>
-  <si>
-    <t>unit_ribauldequin_4_ott</t>
-  </si>
-  <si>
-    <t>国王</t>
-  </si>
-  <si>
-    <t>unit_abbey_king_2</t>
-  </si>
-  <si>
-    <t>精锐古拉姆</t>
-  </si>
-  <si>
-    <t>unit_ghulam_4_merc_byz</t>
-  </si>
-  <si>
-    <t>精锐射击军</t>
-  </si>
-  <si>
-    <t>unit_streltsy_4_merc_byz</t>
-  </si>
-  <si>
-    <t>精锐掷弹兵</t>
-  </si>
-  <si>
-    <t>皇家长管炮</t>
-  </si>
-  <si>
-    <t>unit_culverin_4_royal_fre</t>
-  </si>
-  <si>
-    <t>精锐长弓兵</t>
-  </si>
-  <si>
-    <t>unit_archer_4_eng</t>
-  </si>
-  <si>
-    <t>精锐苏丹亲兵</t>
-  </si>
-  <si>
-    <t>unit_handcannon_4_ott</t>
-  </si>
-  <si>
-    <t>精锐大筒兵</t>
-  </si>
-  <si>
-    <t>unit_ozutsu_4_jpn</t>
-  </si>
-  <si>
-    <t>精锐沙漠掠夺者</t>
-  </si>
-  <si>
-    <t>unit_mamluk_4_merc_byz</t>
-  </si>
-  <si>
-    <t>僧侣战士</t>
-  </si>
-  <si>
-    <t>unit_monk_3_rus</t>
-  </si>
-  <si>
-    <t>皇家加农炮</t>
-  </si>
-  <si>
-    <t>unit_cannon_4_royal_fre</t>
-  </si>
-  <si>
-    <t>可汗</t>
-  </si>
-  <si>
-    <t>unit_khan_4_mon</t>
-  </si>
-  <si>
-    <t>蜂窝炮</t>
-  </si>
-  <si>
-    <t>unit_nest_of_bees_4_chi</t>
-  </si>
-  <si>
-    <t>回回炮</t>
-  </si>
-  <si>
-    <t>unit_khaganate_great_trebuchet_mon</t>
-  </si>
-  <si>
-    <t>温嘉德突袭小队</t>
-  </si>
-  <si>
-    <t>unit_wynguard_raiders_eng</t>
-  </si>
-  <si>
-    <t>明朝帝国卫队</t>
-  </si>
-  <si>
-    <t>unit_ming_guard_chi_ha_01</t>
-  </si>
-  <si>
-    <t>unit_monk_2_</t>
-  </si>
-  <si>
-    <t>unit_monk_1_</t>
-  </si>
-  <si>
-    <t>日本和尚</t>
-  </si>
-  <si>
-    <t>unit_monk_buddhist_3_</t>
-  </si>
-  <si>
-    <t>jpn</t>
-  </si>
-  <si>
-    <t>日本武士1</t>
-  </si>
-  <si>
-    <t>unit_samurai_1_</t>
-  </si>
-  <si>
-    <t>日本武士2</t>
-  </si>
-  <si>
-    <t>unit_samurai_2_</t>
-  </si>
-  <si>
-    <t>日本武士3</t>
-  </si>
-  <si>
-    <t>unit_samurai_3_</t>
-  </si>
-  <si>
-    <t>日本武士4</t>
-  </si>
-  <si>
-    <t>unit_samurai_4_</t>
-  </si>
-  <si>
-    <t>女武者2</t>
-  </si>
-  <si>
-    <t>unit_onna_bugeisha_2_</t>
-  </si>
-  <si>
-    <t>女武者3</t>
-  </si>
-  <si>
-    <t>unit_onna_bugeisha_3_</t>
-  </si>
-  <si>
-    <t>女武者4</t>
-  </si>
-  <si>
-    <t>unit_onna_bugeisha_4_</t>
-  </si>
-  <si>
-    <t>弓骑3</t>
-  </si>
-  <si>
-    <t>unit_horsearcher_3_</t>
-  </si>
-  <si>
-    <t>弓骑4</t>
-  </si>
-  <si>
-    <t>unit_horsearcher_4_</t>
-  </si>
-  <si>
-    <t>忍者2</t>
-  </si>
-  <si>
-    <t>unit_shinobi_2_</t>
-  </si>
-  <si>
-    <t>trebuchtrebuchet</t>
-  </si>
-  <si>
-    <t>小乌尔班4</t>
-  </si>
-  <si>
     <t>ott</t>
   </si>
   <si>
@@ -863,7 +866,7 @@
     <t>Partial:3;CustomEnum:_SettingType;</t>
   </si>
   <si>
-    <t>mon;mon</t>
+    <t>mon;fre_ha_01</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
@@ -879,6 +882,9 @@
   </si>
   <si>
     <t>FansCard</t>
+  </si>
+  <si>
+    <t>BridgeMsgSize</t>
   </si>
 </sst>
 </file>
@@ -915,22 +921,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,8 +949,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,14 +966,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,9 +980,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,9 +1019,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,8 +1042,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,13 +1133,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,13 +1163,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,37 +1277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,79 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,21 +1312,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1348,22 +1339,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,6 +1386,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1392,17 +1404,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1414,10 +1420,10 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,133 +1432,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1992,11 +1998,11 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2637,14 +2643,14 @@
         <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
         <v>37</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2652,7 +2658,7 @@
         <v>200052</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -2669,20 +2675,20 @@
         <v>3.99999996</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="R16" t="s">
         <v>37</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2690,7 +2696,7 @@
         <v>100053</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2710,7 +2716,7 @@
         <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2722,7 +2728,7 @@
         <v>200053</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>7.5</v>
@@ -2736,7 +2742,7 @@
         <v>2.499999975</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2748,7 +2754,7 @@
         <v>100054</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -2768,7 +2774,7 @@
         <v>420</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2780,7 +2786,7 @@
         <v>200054</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -2794,7 +2800,7 @@
         <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2806,7 +2812,7 @@
         <v>100055</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>92</v>
@@ -2823,7 +2829,7 @@
         <v>30.66666636</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2835,7 +2841,7 @@
         <v>200055</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>76</v>
@@ -2849,7 +2855,7 @@
         <v>25.33333308</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2861,7 +2867,7 @@
         <v>100056</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -2884,13 +2890,10 @@
         <v>700</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -5194,25 +5197,13 @@
       <c r="G94">
         <v>3</v>
       </c>
-      <c r="H94">
-        <v>210211</v>
-      </c>
-      <c r="I94">
-        <v>700</v>
-      </c>
       <c r="J94" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
       </c>
       <c r="L94" s="9"/>
-      <c r="M94">
-        <v>100056</v>
-      </c>
-      <c r="N94" t="s">
-        <v>226</v>
-      </c>
       <c r="S94" s="21"/>
     </row>
     <row r="95" customFormat="1" spans="1:19">
@@ -5250,7 +5241,7 @@
         <v>200056</v>
       </c>
       <c r="N95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S95" s="21"/>
     </row>
@@ -5259,7 +5250,7 @@
         <v>210301</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C96">
         <v>4.7</v>
@@ -5282,7 +5273,7 @@
         <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -5300,7 +5291,7 @@
         <v>210311</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -5323,7 +5314,7 @@
         <v>210</v>
       </c>
       <c r="J97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
@@ -5341,7 +5332,7 @@
         <v>210321</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C98">
         <v>5.4</v>
@@ -5358,7 +5349,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
@@ -5376,7 +5367,7 @@
         <v>210302</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C99">
         <v>4.7</v>
@@ -5399,7 +5390,7 @@
         <v>160</v>
       </c>
       <c r="J99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
@@ -5417,7 +5408,7 @@
         <v>210312</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C100">
         <v>5.7</v>
@@ -5440,7 +5431,7 @@
         <v>220</v>
       </c>
       <c r="J100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
@@ -5458,7 +5449,7 @@
         <v>210322</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C101">
         <v>6.7</v>
@@ -5475,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
@@ -5493,7 +5484,7 @@
         <v>210303</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -5516,7 +5507,7 @@
         <v>120</v>
       </c>
       <c r="J102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
@@ -5535,7 +5526,7 @@
         <v>210313</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -5558,7 +5549,7 @@
         <v>195</v>
       </c>
       <c r="J103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
@@ -5577,7 +5568,7 @@
         <v>210323</v>
       </c>
       <c r="B104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C104">
         <v>6.2</v>
@@ -5600,7 +5591,7 @@
         <v>300</v>
       </c>
       <c r="J104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -5619,7 +5610,7 @@
         <v>210333</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C105">
         <v>7.1</v>
@@ -5636,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -5654,7 +5645,7 @@
         <v>210401</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C106">
         <v>6.1</v>
@@ -5677,7 +5668,7 @@
         <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -5686,7 +5677,7 @@
         <v>100112</v>
       </c>
       <c r="N106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S106" s="21"/>
     </row>
@@ -5695,7 +5686,7 @@
         <v>210411</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C107">
         <v>7.2</v>
@@ -5718,7 +5709,7 @@
         <v>230</v>
       </c>
       <c r="J107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
@@ -5727,7 +5718,7 @@
         <v>200112</v>
       </c>
       <c r="N107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S107" s="21"/>
     </row>
@@ -5736,7 +5727,7 @@
         <v>210421</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5753,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
@@ -5762,7 +5753,7 @@
         <v>300112</v>
       </c>
       <c r="N108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S108" s="21"/>
     </row>
@@ -5788,7 +5779,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K109" t="b">
         <v>1</v>
@@ -5803,7 +5794,7 @@
         <v>210601</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -5826,7 +5817,7 @@
         <v>200</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -5836,7 +5827,7 @@
         <v>100050</v>
       </c>
       <c r="N110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110" t="s">
         <v>36</v>
@@ -5884,7 +5875,7 @@
         <v>200050</v>
       </c>
       <c r="N111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q111" t="s">
         <v>36</v>
@@ -5926,7 +5917,7 @@
         <v>300050</v>
       </c>
       <c r="N112" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q112" t="s">
         <v>36</v>
@@ -5941,7 +5932,7 @@
         <v>210701</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C113">
         <v>5.7</v>
@@ -5964,7 +5955,7 @@
         <v>200</v>
       </c>
       <c r="J113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
@@ -5974,7 +5965,7 @@
         <v>100112</v>
       </c>
       <c r="N113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S113" s="21"/>
     </row>
@@ -5983,7 +5974,7 @@
         <v>210711</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C114">
         <v>6.2</v>
@@ -6016,7 +6007,7 @@
         <v>200112</v>
       </c>
       <c r="N114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S114" s="21"/>
     </row>
@@ -6025,7 +6016,7 @@
         <v>210721</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C115">
         <v>7</v>
@@ -6052,7 +6043,7 @@
         <v>300112</v>
       </c>
       <c r="N115" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S115" s="21"/>
     </row>
@@ -6127,7 +6118,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6135,7 +6126,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6143,7 +6134,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6151,7 +6142,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6159,7 +6150,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6167,7 +6158,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -6195,7 +6186,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6203,7 +6194,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6211,7 +6202,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6219,7 +6210,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6227,7 +6218,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6235,7 +6226,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6243,7 +6234,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6251,7 +6242,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6266,7 +6257,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -6284,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6298,7 +6289,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -6315,7 +6306,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6326,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6334,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6366,7 +6357,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6374,7 +6365,23 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6386,17 +6393,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -6404,10 +6414,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Squad.xlsx
+++ b/resource/excel/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13590" activeTab="3"/>
+    <workbookView windowWidth="21480" windowHeight="17070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="293">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,9 @@
     <t>jpn:210102;mal:210301</t>
   </si>
   <si>
+    <t>d:20</t>
+  </si>
+  <si>
     <t>武士4</t>
   </si>
   <si>
@@ -224,13 +227,13 @@
     <t>unit_knight_4_</t>
   </si>
   <si>
-    <t>长剑3</t>
+    <t>国土佣仆3</t>
   </si>
   <si>
     <t>unit_landsknecht_3_hre</t>
   </si>
   <si>
-    <t>长剑4</t>
+    <t>国土佣仆4</t>
   </si>
   <si>
     <t>unit_landsknecht_4_hre</t>
@@ -263,447 +266,450 @@
     <t>手推炮4</t>
   </si>
   <si>
+    <t>unit_bombard_4_</t>
+  </si>
+  <si>
+    <t>ott:210201</t>
+  </si>
+  <si>
+    <t>火炮4</t>
+  </si>
+  <si>
+    <t>unit_cannon_4_</t>
+  </si>
+  <si>
+    <t>ott:210211</t>
+  </si>
+  <si>
+    <t>乌尔班巨炮</t>
+  </si>
+  <si>
+    <t>unit_great_bombard_4_ott</t>
+  </si>
+  <si>
+    <t>诸葛弩2</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_2_chi</t>
+  </si>
+  <si>
+    <t>诸葛弩3</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_3_chi</t>
+  </si>
+  <si>
+    <t>诸葛弩4</t>
+  </si>
+  <si>
+    <t>unit_repeater_crossbowman_4_chi</t>
+  </si>
+  <si>
+    <t>教士</t>
+  </si>
+  <si>
+    <t>unit_monk_3_</t>
+  </si>
+  <si>
+    <t>byz:210001;sul:210001;hre:210002;jpn:210101;abb_ha_01:210501;hre_ha_01:210002</t>
+  </si>
+  <si>
+    <t>火枪4</t>
+  </si>
+  <si>
+    <t>unit_handcannon_4_</t>
+  </si>
+  <si>
+    <t>ott:16</t>
+  </si>
+  <si>
+    <t>hre_ha_01:1.6</t>
+  </si>
+  <si>
+    <t>火长矛3</t>
+  </si>
+  <si>
+    <t>unit_firelancer_3_chi</t>
+  </si>
+  <si>
+    <t>火长矛4</t>
+  </si>
+  <si>
+    <t>unit_firelancer_4_chi</t>
+  </si>
+  <si>
+    <t>弩车3</t>
+  </si>
+  <si>
+    <t>unit_springald_3_</t>
+  </si>
+  <si>
+    <t>弩车钟楼</t>
+  </si>
+  <si>
+    <t>unit_springald_3_clocktower_chi</t>
+  </si>
+  <si>
+    <t>长管炮</t>
+  </si>
+  <si>
+    <t>unit_culverin_4_fre</t>
+  </si>
+  <si>
+    <t>投石车3</t>
+  </si>
+  <si>
+    <t>unit_mangonel_3_</t>
+  </si>
+  <si>
+    <t>投石车钟楼</t>
+  </si>
+  <si>
+    <t>unit_mangonel_3_clocktower_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵2</t>
+  </si>
+  <si>
+    <t>unit_grenadier_2_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵3</t>
+  </si>
+  <si>
+    <t>unit_grenadier_3_chi</t>
+  </si>
+  <si>
+    <t>掷弹兵4</t>
+  </si>
+  <si>
+    <t>unit_grenadier_4_chi</t>
+  </si>
+  <si>
+    <t>军乐队2</t>
+  </si>
+  <si>
+    <t>unit_mehter_2_ott</t>
+  </si>
+  <si>
+    <t>战象3</t>
+  </si>
+  <si>
+    <t>unit_war_elephant_3_sul</t>
+  </si>
+  <si>
+    <t>骆驼骑手3</t>
+  </si>
+  <si>
+    <t>unit_camel_rider_3_abb</t>
+  </si>
+  <si>
+    <t>骆驼骑手4</t>
+  </si>
+  <si>
+    <t>unit_camel_rider_4_abb</t>
+  </si>
+  <si>
+    <t>骑手2</t>
+  </si>
+  <si>
+    <t>unit_horseman_2_</t>
+  </si>
+  <si>
+    <t>mal:6.5</t>
+  </si>
+  <si>
+    <t>mal:50</t>
+  </si>
+  <si>
+    <t>骑手3</t>
+  </si>
+  <si>
+    <t>unit_horseman_3_</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>mal:7.5</t>
+  </si>
+  <si>
+    <t>骑手4</t>
+  </si>
+  <si>
+    <t>unit_horseman_4_</t>
+  </si>
+  <si>
+    <t>mal:8.5</t>
+  </si>
+  <si>
+    <t>冲车3</t>
+  </si>
+  <si>
+    <t>unit_ram_3_</t>
+  </si>
+  <si>
+    <t>苏丹之塔</t>
+  </si>
+  <si>
+    <t>unit_ram_tower_3_abb_ha_01</t>
+  </si>
+  <si>
+    <t>旗本武士2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本武士3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本武士4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_melee_4_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本射手4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_range_4_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士2</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_2_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士3</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_3_jpn</t>
+  </si>
+  <si>
+    <t>旗本骑士4</t>
+  </si>
+  <si>
+    <t>unit_banner_samurai_cavalry_4_jpn</t>
+  </si>
+  <si>
+    <t>武僧</t>
+  </si>
+  <si>
+    <t>unit_monk_shaolin_3_chi_ha_01</t>
+  </si>
+  <si>
+    <t>国家特殊1</t>
+  </si>
+  <si>
+    <t>abb:210401;mal:210303;jpn:210104;mon:210701</t>
+  </si>
+  <si>
+    <t>国家特殊2</t>
+  </si>
+  <si>
+    <t>jpn:210105</t>
+  </si>
+  <si>
+    <t>风琴炮</t>
+  </si>
+  <si>
+    <t>unit_ribauldequin_4_ott</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>unit_abbey_king_2</t>
+  </si>
+  <si>
+    <t>精锐古拉姆</t>
+  </si>
+  <si>
+    <t>unit_ghulam_4_merc_byz</t>
+  </si>
+  <si>
+    <t>精锐射击军</t>
+  </si>
+  <si>
+    <t>unit_streltsy_4_merc_byz</t>
+  </si>
+  <si>
+    <t>精锐掷弹兵</t>
+  </si>
+  <si>
+    <t>皇家长管炮</t>
+  </si>
+  <si>
+    <t>unit_culverin_4_royal_fre</t>
+  </si>
+  <si>
+    <t>精锐长弓兵</t>
+  </si>
+  <si>
+    <t>unit_archer_4_eng</t>
+  </si>
+  <si>
+    <t>精锐苏丹亲兵</t>
+  </si>
+  <si>
+    <t>unit_handcannon_4_ott</t>
+  </si>
+  <si>
+    <t>精锐大筒兵</t>
+  </si>
+  <si>
+    <t>unit_ozutsu_4_jpn</t>
+  </si>
+  <si>
+    <t>精锐沙漠掠夺者</t>
+  </si>
+  <si>
+    <t>unit_mamluk_4_merc_byz</t>
+  </si>
+  <si>
+    <t>僧侣战士</t>
+  </si>
+  <si>
+    <t>unit_monk_3_rus</t>
+  </si>
+  <si>
+    <t>皇家加农炮</t>
+  </si>
+  <si>
+    <t>unit_cannon_4_royal_fre</t>
+  </si>
+  <si>
+    <t>可汗</t>
+  </si>
+  <si>
+    <t>unit_khan_4_mon</t>
+  </si>
+  <si>
+    <t>蜂窝炮</t>
+  </si>
+  <si>
+    <t>unit_nest_of_bees_4_chi</t>
+  </si>
+  <si>
+    <t>回回炮</t>
+  </si>
+  <si>
+    <t>unit_khaganate_great_trebuchet_mon</t>
+  </si>
+  <si>
+    <t>温嘉德突袭小队</t>
+  </si>
+  <si>
+    <t>unit_wynguard_raiders_eng</t>
+  </si>
+  <si>
+    <t>明朝帝国卫队</t>
+  </si>
+  <si>
+    <t>unit_ming_guard_chi_ha_01</t>
+  </si>
+  <si>
+    <t>unit_monk_2_</t>
+  </si>
+  <si>
+    <t>unit_monk_1_</t>
+  </si>
+  <si>
+    <t>日本和尚</t>
+  </si>
+  <si>
+    <t>unit_monk_buddhist_3_</t>
+  </si>
+  <si>
+    <t>jpn</t>
+  </si>
+  <si>
+    <t>日本武士1</t>
+  </si>
+  <si>
+    <t>unit_samurai_1_</t>
+  </si>
+  <si>
+    <t>日本武士2</t>
+  </si>
+  <si>
+    <t>unit_samurai_2_</t>
+  </si>
+  <si>
+    <t>日本武士3</t>
+  </si>
+  <si>
+    <t>unit_samurai_3_</t>
+  </si>
+  <si>
+    <t>日本武士4</t>
+  </si>
+  <si>
+    <t>unit_samurai_4_</t>
+  </si>
+  <si>
+    <t>女武者2</t>
+  </si>
+  <si>
+    <t>unit_onna_bugeisha_2_</t>
+  </si>
+  <si>
+    <t>女武者3</t>
+  </si>
+  <si>
+    <t>unit_onna_bugeisha_3_</t>
+  </si>
+  <si>
+    <t>女武者4</t>
+  </si>
+  <si>
+    <t>unit_onna_bugeisha_4_</t>
+  </si>
+  <si>
+    <t>弓骑3</t>
+  </si>
+  <si>
+    <t>unit_horsearcher_3_</t>
+  </si>
+  <si>
+    <t>弓骑4</t>
+  </si>
+  <si>
+    <t>unit_horsearcher_4_</t>
+  </si>
+  <si>
+    <t>忍者2</t>
+  </si>
+  <si>
+    <t>unit_shinobi_2_</t>
+  </si>
+  <si>
     <t>unit_bombard_4_chi</t>
   </si>
   <si>
-    <t>火炮4</t>
-  </si>
-  <si>
-    <t>unit_cannon_4_</t>
-  </si>
-  <si>
-    <t>乌尔班巨炮</t>
-  </si>
-  <si>
-    <t>unit_great_bombard_4_ott</t>
-  </si>
-  <si>
-    <t>诸葛弩2</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_2_chi</t>
-  </si>
-  <si>
-    <t>诸葛弩3</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_3_chi</t>
-  </si>
-  <si>
-    <t>诸葛弩4</t>
-  </si>
-  <si>
-    <t>unit_repeater_crossbowman_4_chi</t>
-  </si>
-  <si>
-    <t>教士</t>
-  </si>
-  <si>
-    <t>unit_monk_3_</t>
-  </si>
-  <si>
-    <t>byz:210001;sul:210001;hre:210002;jpn:210101;abb_ha_01:210501;hre_ha_01:210002</t>
-  </si>
-  <si>
-    <t>火枪4</t>
-  </si>
-  <si>
-    <t>unit_handcannon_4_</t>
-  </si>
-  <si>
-    <t>ott:16</t>
-  </si>
-  <si>
-    <t>hre_ha_01:1.6</t>
-  </si>
-  <si>
-    <t>火长矛3</t>
-  </si>
-  <si>
-    <t>unit_firelancer_3_chi</t>
-  </si>
-  <si>
-    <t>火长矛4</t>
-  </si>
-  <si>
-    <t>unit_firelancer_4_chi</t>
-  </si>
-  <si>
-    <t>弩车3</t>
-  </si>
-  <si>
-    <t>unit_springald_3_</t>
-  </si>
-  <si>
-    <t>弩车钟楼</t>
-  </si>
-  <si>
-    <t>unit_springald_3_clocktower_chi</t>
-  </si>
-  <si>
-    <t>长管炮</t>
-  </si>
-  <si>
-    <t>unit_culverin_4_fre</t>
-  </si>
-  <si>
-    <t>投石车3</t>
-  </si>
-  <si>
-    <t>unit_mangonel_3_</t>
-  </si>
-  <si>
-    <t>投石车钟楼</t>
-  </si>
-  <si>
-    <t>unit_mangonel_3_clocktower_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵2</t>
-  </si>
-  <si>
-    <t>unit_grenadier_2_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵3</t>
-  </si>
-  <si>
-    <t>unit_grenadier_3_chi</t>
-  </si>
-  <si>
-    <t>掷弹兵4</t>
-  </si>
-  <si>
-    <t>unit_grenadier_4_chi</t>
-  </si>
-  <si>
-    <t>军乐队2</t>
-  </si>
-  <si>
-    <t>unit_mehter_2_ott</t>
-  </si>
-  <si>
-    <t>战象3</t>
-  </si>
-  <si>
-    <t>unit_war_elephant_3_sul</t>
-  </si>
-  <si>
-    <t>骆驼骑手3</t>
-  </si>
-  <si>
-    <t>unit_camel_rider_3_abb</t>
-  </si>
-  <si>
-    <t>骆驼骑手4</t>
-  </si>
-  <si>
-    <t>unit_camel_rider_4_abb</t>
-  </si>
-  <si>
-    <t>骑手2</t>
-  </si>
-  <si>
-    <t>unit_horseman_2_</t>
-  </si>
-  <si>
-    <t>mal:6.5</t>
-  </si>
-  <si>
-    <t>mal:50</t>
-  </si>
-  <si>
-    <t>骑手3</t>
-  </si>
-  <si>
-    <t>unit_horseman_3_</t>
-  </si>
-  <si>
-    <t>mal</t>
-  </si>
-  <si>
-    <t>mal:7.5</t>
-  </si>
-  <si>
-    <t>骑手4</t>
-  </si>
-  <si>
-    <t>unit_horseman_4_</t>
-  </si>
-  <si>
-    <t>mal:8.5</t>
-  </si>
-  <si>
-    <t>冲车3</t>
-  </si>
-  <si>
-    <t>unit_ram_3_</t>
-  </si>
-  <si>
-    <t>苏丹之塔</t>
-  </si>
-  <si>
-    <t>unit_ram_tower_3_abb_ha_01</t>
-  </si>
-  <si>
-    <t>旗本武士2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本武士3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本武士4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_melee_4_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本射手4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_range_4_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士2</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_2_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士3</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_3_jpn</t>
-  </si>
-  <si>
-    <t>旗本骑士4</t>
-  </si>
-  <si>
-    <t>unit_banner_samurai_cavalry_4_jpn</t>
-  </si>
-  <si>
-    <t>武僧</t>
-  </si>
-  <si>
-    <t>unit_monk_shaolin_3_chi_ha_01</t>
-  </si>
-  <si>
-    <t>国家特殊1</t>
-  </si>
-  <si>
-    <t>abb:210401;mal:210303;jpn:210104;mon:210701</t>
-  </si>
-  <si>
-    <t>国家特殊2</t>
-  </si>
-  <si>
-    <t>jpn:210105</t>
-  </si>
-  <si>
-    <t>风琴炮</t>
-  </si>
-  <si>
-    <t>unit_ribauldequin_4_ott</t>
-  </si>
-  <si>
-    <t>国王</t>
-  </si>
-  <si>
-    <t>unit_abbey_king_2</t>
-  </si>
-  <si>
-    <t>精锐古拉姆</t>
-  </si>
-  <si>
-    <t>unit_ghulam_4_merc_byz</t>
-  </si>
-  <si>
-    <t>精锐射击军</t>
-  </si>
-  <si>
-    <t>unit_streltsy_4_merc_byz</t>
-  </si>
-  <si>
-    <t>精锐掷弹兵</t>
-  </si>
-  <si>
-    <t>皇家长管炮</t>
-  </si>
-  <si>
-    <t>unit_culverin_4_royal_fre</t>
-  </si>
-  <si>
-    <t>精锐长弓兵</t>
-  </si>
-  <si>
-    <t>unit_archer_4_eng</t>
-  </si>
-  <si>
-    <t>精锐苏丹亲兵</t>
-  </si>
-  <si>
-    <t>unit_handcannon_4_ott</t>
-  </si>
-  <si>
-    <t>精锐大筒兵</t>
-  </si>
-  <si>
-    <t>unit_ozutsu_4_jpn</t>
-  </si>
-  <si>
-    <t>精锐沙漠掠夺者</t>
-  </si>
-  <si>
-    <t>unit_mamluk_4_merc_byz</t>
-  </si>
-  <si>
-    <t>僧侣战士</t>
-  </si>
-  <si>
-    <t>unit_monk_3_rus</t>
-  </si>
-  <si>
-    <t>皇家加农炮</t>
-  </si>
-  <si>
-    <t>unit_cannon_4_royal_fre</t>
-  </si>
-  <si>
-    <t>可汗</t>
-  </si>
-  <si>
-    <t>unit_khan_4_mon</t>
-  </si>
-  <si>
-    <t>蜂窝炮</t>
-  </si>
-  <si>
-    <t>unit_nest_of_bees_4_chi</t>
-  </si>
-  <si>
-    <t>回回炮</t>
-  </si>
-  <si>
-    <t>unit_khaganate_great_trebuchet_mon</t>
-  </si>
-  <si>
-    <t>温嘉德突袭小队</t>
-  </si>
-  <si>
-    <t>unit_wynguard_raiders_eng</t>
-  </si>
-  <si>
-    <t>明朝帝国卫队</t>
-  </si>
-  <si>
-    <t>unit_ming_guard_chi_ha_01</t>
-  </si>
-  <si>
-    <t>unit_monk_2_</t>
-  </si>
-  <si>
-    <t>unit_monk_1_</t>
-  </si>
-  <si>
-    <t>日本和尚</t>
-  </si>
-  <si>
-    <t>unit_monk_buddhist_3_</t>
-  </si>
-  <si>
-    <t>jpn</t>
-  </si>
-  <si>
-    <t>日本武士1</t>
-  </si>
-  <si>
-    <t>unit_samurai_1_</t>
-  </si>
-  <si>
-    <t>日本武士2</t>
-  </si>
-  <si>
-    <t>unit_samurai_2_</t>
-  </si>
-  <si>
-    <t>日本武士3</t>
-  </si>
-  <si>
-    <t>unit_samurai_3_</t>
-  </si>
-  <si>
-    <t>日本武士4</t>
-  </si>
-  <si>
-    <t>unit_samurai_4_</t>
-  </si>
-  <si>
-    <t>女武者2</t>
-  </si>
-  <si>
-    <t>unit_onna_bugeisha_2_</t>
-  </si>
-  <si>
-    <t>女武者3</t>
-  </si>
-  <si>
-    <t>unit_onna_bugeisha_3_</t>
-  </si>
-  <si>
-    <t>女武者4</t>
-  </si>
-  <si>
-    <t>unit_onna_bugeisha_4_</t>
-  </si>
-  <si>
-    <t>弓骑3</t>
-  </si>
-  <si>
-    <t>unit_horsearcher_3_</t>
-  </si>
-  <si>
-    <t>弓骑4</t>
-  </si>
-  <si>
-    <t>unit_horsearcher_4_</t>
-  </si>
-  <si>
-    <t>忍者2</t>
-  </si>
-  <si>
-    <t>unit_shinobi_2_</t>
-  </si>
-  <si>
-    <t>trebuchtrebuchet</t>
-  </si>
-  <si>
-    <t>小乌尔班4</t>
-  </si>
-  <si>
-    <t>unit_bombard_4_</t>
-  </si>
-  <si>
     <t>ott</t>
   </si>
   <si>
+    <t>unit_cannon_4_chi</t>
+  </si>
+  <si>
     <t>穆索法迪2</t>
   </si>
   <si>
@@ -797,6 +803,12 @@
     <t>hre_ha_01</t>
   </si>
   <si>
+    <t>unit_landsknecht_3_</t>
+  </si>
+  <si>
+    <t>unit_landsknecht_4_</t>
+  </si>
+  <si>
     <t>突骑2</t>
   </si>
   <si>
@@ -866,13 +878,13 @@
     <t>Partial:3;CustomEnum:_SettingType;</t>
   </si>
   <si>
-    <t>mon;fre_ha_01</t>
+    <t>rus;abb</t>
   </si>
   <si>
     <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
   </si>
   <si>
-    <t>柏柏尔;回回炮</t>
+    <t>柏柏尔</t>
   </si>
   <si>
     <t>2p_rand_1</t>
@@ -921,9 +933,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,7 +956,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,14 +972,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,7 +1001,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,22 +1015,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1020,15 +1024,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,16 +1047,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1133,7 +1145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,13 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,25 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +1229,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,19 +1259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,25 +1289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,19 +1313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,6 +1324,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1335,21 +1356,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,17 +1404,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,10 +1432,10 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,133 +1444,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1998,11 +2010,11 @@
   <dimension ref="A1:U131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2498,7 +2510,9 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11" s="22"/>
-      <c r="T11"/>
+      <c r="T11" t="s">
+        <v>54</v>
+      </c>
       <c r="U11"/>
     </row>
     <row r="12" s="7" customFormat="1" spans="1:21">
@@ -2506,7 +2520,7 @@
         <v>200050</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7">
         <v>6.6</v>
@@ -2520,7 +2534,7 @@
         <v>2.199999978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="b">
         <v>1</v>
@@ -2529,7 +2543,9 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12" s="22"/>
-      <c r="T12"/>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
       <c r="U12"/>
     </row>
     <row r="13" spans="1:19">
@@ -2537,7 +2553,7 @@
         <v>100051</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2558,13 +2574,13 @@
         <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
         <v>36</v>
@@ -2579,7 +2595,7 @@
         <v>200051</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -2593,7 +2609,7 @@
         <v>2.33333331</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -2611,7 +2627,7 @@
         <v>100052</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -2634,23 +2650,23 @@
         <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R15" t="s">
         <v>37</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2658,7 +2674,7 @@
         <v>200052</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -2675,20 +2691,20 @@
         <v>3.99999996</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
       <c r="Q16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R16" t="s">
         <v>37</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2696,7 +2712,7 @@
         <v>100053</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2716,7 +2732,7 @@
         <v>280</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -2728,7 +2744,7 @@
         <v>200053</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>7.5</v>
@@ -2742,7 +2758,7 @@
         <v>2.499999975</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -2754,7 +2770,7 @@
         <v>100054</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>28</v>
@@ -2774,7 +2790,7 @@
         <v>420</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -2786,7 +2802,7 @@
         <v>200054</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -2800,7 +2816,7 @@
         <v>10.66666656</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -2812,7 +2828,7 @@
         <v>100055</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>92</v>
@@ -2829,7 +2845,7 @@
         <v>30.66666636</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -2841,7 +2857,7 @@
         <v>200055</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>76</v>
@@ -2855,7 +2871,7 @@
         <v>25.33333308</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2867,7 +2883,7 @@
         <v>100056</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>79</v>
@@ -2890,10 +2906,13 @@
         <v>700</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="S23" s="21"/>
     </row>
@@ -2902,7 +2921,7 @@
         <v>200056</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>84</v>
@@ -2922,10 +2941,13 @@
         <v>1000</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="S24" s="21"/>
     </row>
@@ -2934,7 +2956,7 @@
         <v>300056</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>148.5</v>
@@ -2954,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -2966,7 +2988,7 @@
         <v>100057</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>4.2</v>
@@ -2986,7 +3008,7 @@
         <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -2998,7 +3020,7 @@
         <v>200057</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -3018,7 +3040,7 @@
         <v>300</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -3030,7 +3052,7 @@
         <v>300057</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>5.8</v>
@@ -3044,7 +3066,7 @@
         <v>1.933333314</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -3056,7 +3078,7 @@
         <v>100097</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -3070,13 +3092,13 @@
         <v>2.66666664</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S29" s="21"/>
     </row>
@@ -3085,7 +3107,7 @@
         <v>100098</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>18</v>
@@ -3099,19 +3121,19 @@
         <v>5.99999994</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S30" s="21"/>
     </row>
@@ -3120,7 +3142,7 @@
         <v>100099</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -3143,7 +3165,7 @@
         <v>210</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -3155,7 +3177,7 @@
         <v>200099</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -3172,7 +3194,7 @@
         <v>2.66666664</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -3184,7 +3206,7 @@
         <v>100100</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C33">
         <v>43</v>
@@ -3207,7 +3229,7 @@
         <v>540</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -3219,7 +3241,7 @@
         <v>200100</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C34">
         <v>51</v>
@@ -3239,7 +3261,7 @@
         <v>1100</v>
       </c>
       <c r="J34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -3251,7 +3273,7 @@
         <v>300100</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <v>111.6</v>
@@ -3271,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -3283,7 +3305,7 @@
         <v>100101</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C36">
         <v>53</v>
@@ -3303,7 +3325,7 @@
         <v>580</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -3315,7 +3337,7 @@
         <v>200101</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C37">
         <v>60</v>
@@ -3329,7 +3351,7 @@
         <v>19.9999998</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -3341,7 +3363,7 @@
         <v>100102</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C38" s="8">
         <v>8</v>
@@ -3361,7 +3383,7 @@
         <v>200</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K38" s="8" t="b">
         <v>0</v>
@@ -3374,7 +3396,7 @@
         <v>200102</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C39" s="8">
         <v>10</v>
@@ -3394,7 +3416,7 @@
         <v>290</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K39" s="8" t="b">
         <v>0</v>
@@ -3407,7 +3429,7 @@
         <v>300102</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C40" s="8">
         <v>12</v>
@@ -3421,7 +3443,7 @@
         <v>3.99999996</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K40" s="8" t="b">
         <v>0</v>
@@ -3434,7 +3456,7 @@
         <v>100103</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -3448,7 +3470,7 @@
         <v>8.33333325</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -3460,7 +3482,7 @@
         <v>100104</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -3474,7 +3496,7 @@
         <v>11.33333322</v>
       </c>
       <c r="J42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -3486,7 +3508,7 @@
         <v>100105</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C43">
         <v>7.1</v>
@@ -3506,7 +3528,7 @@
         <v>220</v>
       </c>
       <c r="J43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -3518,7 +3540,7 @@
         <v>200105</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C44">
         <v>8.2</v>
@@ -3532,7 +3554,7 @@
         <v>2.733333306</v>
       </c>
       <c r="J44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -3544,7 +3566,7 @@
         <v>100106</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -3570,13 +3592,13 @@
         <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q45" t="s">
         <v>36</v>
@@ -3586,7 +3608,7 @@
       </c>
       <c r="S45" s="21"/>
       <c r="T45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -3594,7 +3616,7 @@
         <v>200106</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -3617,7 +3639,7 @@
         <v>200</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -3626,10 +3648,10 @@
         <v>100052</v>
       </c>
       <c r="N46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q46" t="s">
         <v>36</v>
@@ -3639,7 +3661,7 @@
       </c>
       <c r="S46" s="21"/>
       <c r="T46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -3647,7 +3669,7 @@
         <v>300106</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -3664,7 +3686,7 @@
         <v>2.33333331</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -3673,10 +3695,10 @@
         <v>200052</v>
       </c>
       <c r="N47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q47" t="s">
         <v>36</v>
@@ -3686,7 +3708,7 @@
       </c>
       <c r="S47" s="21"/>
       <c r="T47" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3694,7 +3716,7 @@
         <v>100107</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -3714,7 +3736,7 @@
         <v>500</v>
       </c>
       <c r="J48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -3726,7 +3748,7 @@
         <v>200107</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C49">
         <v>60</v>
@@ -3740,7 +3762,7 @@
         <v>19.9999998</v>
       </c>
       <c r="J49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3752,7 +3774,7 @@
         <v>100108</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C50">
         <v>10</v>
@@ -3772,7 +3794,7 @@
         <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3784,7 +3806,7 @@
         <v>200108</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -3804,7 +3826,7 @@
         <v>320</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3816,7 +3838,7 @@
         <v>300108</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C52">
         <v>15</v>
@@ -3830,7 +3852,7 @@
         <v>4.99999995</v>
       </c>
       <c r="J52" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3842,7 +3864,7 @@
         <v>100109</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -3862,7 +3884,7 @@
         <v>200</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3874,7 +3896,7 @@
         <v>200109</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3894,7 +3916,7 @@
         <v>300</v>
       </c>
       <c r="J54" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3906,7 +3928,7 @@
         <v>300109</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C55">
         <v>12.7</v>
@@ -3920,7 +3942,7 @@
         <v>4.233333291</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3932,7 +3954,7 @@
         <v>100110</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>9</v>
@@ -3952,7 +3974,7 @@
         <v>230</v>
       </c>
       <c r="J56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3964,7 +3986,7 @@
         <v>200110</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C57">
         <v>11.5</v>
@@ -3984,7 +4006,7 @@
         <v>320</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3996,7 +4018,7 @@
         <v>300110</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C58">
         <v>13</v>
@@ -4010,7 +4032,7 @@
         <v>4.33333329</v>
       </c>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -4022,7 +4044,7 @@
         <v>100111</v>
       </c>
       <c r="B59" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -4036,7 +4058,7 @@
         <v>1.99999998</v>
       </c>
       <c r="J59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -4048,7 +4070,7 @@
         <v>100112</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -4065,13 +4087,13 @@
         <v>4</v>
       </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S60" s="21"/>
     </row>
@@ -4080,7 +4102,7 @@
         <v>100113</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -4097,13 +4119,13 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S61" s="21"/>
     </row>
@@ -4112,7 +4134,7 @@
         <v>110001</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C62">
         <v>80</v>
@@ -4129,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -4141,7 +4163,7 @@
         <v>110002</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C63">
         <v>130</v>
@@ -4158,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4170,7 +4192,7 @@
         <v>110003</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -4187,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4199,7 +4221,7 @@
         <v>110004</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -4216,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4228,7 +4250,7 @@
         <v>110005</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C66">
         <v>160</v>
@@ -4248,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -4260,7 +4282,7 @@
         <v>110006</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -4277,7 +4299,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4289,7 +4311,7 @@
         <v>110007</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C68">
         <v>140</v>
@@ -4309,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4321,7 +4343,7 @@
         <v>110008</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C69">
         <v>160</v>
@@ -4341,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4353,7 +4375,7 @@
         <v>110009</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C70">
         <v>12</v>
@@ -4370,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4382,7 +4404,7 @@
         <v>110010</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C71">
         <v>16</v>
@@ -4399,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4411,7 +4433,7 @@
         <v>110011</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C72">
         <v>26</v>
@@ -4428,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4440,7 +4462,7 @@
         <v>110012</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C73">
         <v>23</v>
@@ -4457,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4469,7 +4491,7 @@
         <v>110013</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C74">
         <v>13</v>
@@ -4486,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4499,7 +4521,7 @@
         <v>110014</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C75">
         <v>102</v>
@@ -4516,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4529,7 +4551,7 @@
         <v>110015</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C76">
         <v>14</v>
@@ -4546,7 +4568,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4559,7 +4581,7 @@
         <v>110016</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C77">
         <v>80</v>
@@ -4576,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4589,7 +4611,7 @@
         <v>110017</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C78">
         <v>120</v>
@@ -4609,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4622,7 +4644,7 @@
         <v>110018</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C79">
         <v>40</v>
@@ -4642,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4657,7 +4679,7 @@
         <v>110019</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C80">
         <v>20</v>
@@ -4674,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4687,7 +4709,7 @@
         <v>210001</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C81">
         <v>8</v>
@@ -4704,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
@@ -4720,7 +4742,7 @@
         <v>210002</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C82">
         <v>7</v>
@@ -4736,7 +4758,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K82" t="b">
         <v>1</v>
@@ -4752,7 +4774,7 @@
         <v>210101</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C83">
         <v>9</v>
@@ -4769,7 +4791,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
@@ -4779,7 +4801,7 @@
         <v>100097</v>
       </c>
       <c r="N83" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S83" s="21"/>
     </row>
@@ -4788,7 +4810,7 @@
         <v>210102</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C84">
         <v>3.2</v>
@@ -4811,7 +4833,7 @@
         <v>90</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
@@ -4821,7 +4843,7 @@
         <v>100050</v>
       </c>
       <c r="N84" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S84" s="21"/>
     </row>
@@ -4830,7 +4852,7 @@
         <v>210112</v>
       </c>
       <c r="B85" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C85">
         <v>4.5</v>
@@ -4853,7 +4875,7 @@
         <v>180</v>
       </c>
       <c r="J85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
@@ -4862,7 +4884,7 @@
         <v>200050</v>
       </c>
       <c r="N85" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S85" s="21"/>
     </row>
@@ -4871,7 +4893,7 @@
         <v>210122</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>5.5</v>
@@ -4894,7 +4916,7 @@
         <v>300</v>
       </c>
       <c r="J86" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -4903,7 +4925,7 @@
         <v>300050</v>
       </c>
       <c r="N86" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S86" s="21"/>
     </row>
@@ -4912,7 +4934,7 @@
         <v>210132</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C87">
         <v>6.5</v>
@@ -4929,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
@@ -4938,7 +4960,7 @@
         <v>400050</v>
       </c>
       <c r="N87" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S87" s="21"/>
     </row>
@@ -4947,7 +4969,7 @@
         <v>210103</v>
       </c>
       <c r="B88" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C88">
         <v>4.9</v>
@@ -4970,7 +4992,7 @@
         <v>180</v>
       </c>
       <c r="J88" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
@@ -4979,7 +5001,7 @@
         <v>100051</v>
       </c>
       <c r="N88" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S88" s="21"/>
     </row>
@@ -4988,7 +5010,7 @@
         <v>210113</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C89">
         <v>5.7</v>
@@ -5011,7 +5033,7 @@
         <v>240</v>
       </c>
       <c r="J89" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
@@ -5020,7 +5042,7 @@
         <v>200051</v>
       </c>
       <c r="N89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S89" s="21"/>
     </row>
@@ -5029,7 +5051,7 @@
         <v>210123</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C90">
         <v>6.4</v>
@@ -5046,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
@@ -5055,7 +5077,7 @@
         <v>300051</v>
       </c>
       <c r="N90" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S90" s="21"/>
     </row>
@@ -5064,7 +5086,7 @@
         <v>210104</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C91">
         <v>6.4</v>
@@ -5087,7 +5109,7 @@
         <v>250</v>
       </c>
       <c r="J91" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
@@ -5097,7 +5119,7 @@
         <v>100112</v>
       </c>
       <c r="N91" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S91" s="21"/>
     </row>
@@ -5106,7 +5128,7 @@
         <v>210114</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C92">
         <v>7.2</v>
@@ -5123,7 +5145,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
@@ -5133,7 +5155,7 @@
         <v>200112</v>
       </c>
       <c r="N92" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S92" s="21"/>
     </row>
@@ -5142,7 +5164,7 @@
         <v>210105</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -5159,7 +5181,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
@@ -5169,7 +5191,7 @@
         <v>100113</v>
       </c>
       <c r="N93" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="S93" s="21"/>
     </row>
@@ -5178,32 +5200,44 @@
         <v>210201</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="C94">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
       <c r="F94" s="7">
         <f t="shared" si="9"/>
-        <v>36.6666663</v>
+        <v>26.33333307</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
+      <c r="H94">
+        <v>210211</v>
+      </c>
+      <c r="I94">
+        <v>1000</v>
+      </c>
       <c r="J94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" s="9"/>
+      <c r="M94">
+        <v>100056</v>
+      </c>
+      <c r="N94" t="s">
+        <v>228</v>
+      </c>
       <c r="S94" s="21"/>
     </row>
     <row r="95" customFormat="1" spans="1:19">
@@ -5214,24 +5248,24 @@
         <v>84</v>
       </c>
       <c r="C95">
-        <v>148.5</v>
+        <v>84</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="8"/>
-        <v>148.5</v>
+        <v>84</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95" s="7">
         <f t="shared" si="9"/>
-        <v>49.499999505</v>
+        <v>27.99999972</v>
       </c>
       <c r="G95">
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5241,7 +5275,7 @@
         <v>200056</v>
       </c>
       <c r="N95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S95" s="21"/>
     </row>
@@ -5250,17 +5284,17 @@
         <v>210301</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C96">
         <v>4.7</v>
       </c>
       <c r="D96" s="7">
-        <f t="shared" ref="D96:D115" si="10">MMULT(C96,1)</f>
+        <f t="shared" ref="D96:D117" si="10">MMULT(C96,1)</f>
         <v>4.7</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ref="F96:F115" si="11">MMULT(C96,0.33333333)</f>
+        <f t="shared" ref="F96:F117" si="11">MMULT(C96,0.33333333)</f>
         <v>1.566666651</v>
       </c>
       <c r="G96">
@@ -5273,7 +5307,7 @@
         <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -5282,7 +5316,7 @@
         <v>100050</v>
       </c>
       <c r="N96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S96" s="21"/>
     </row>
@@ -5291,7 +5325,7 @@
         <v>210311</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -5314,7 +5348,7 @@
         <v>210</v>
       </c>
       <c r="J97" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
@@ -5323,7 +5357,7 @@
         <v>200050</v>
       </c>
       <c r="N97" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S97" s="21"/>
     </row>
@@ -5332,7 +5366,7 @@
         <v>210321</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C98">
         <v>5.4</v>
@@ -5349,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
@@ -5358,7 +5392,7 @@
         <v>300050</v>
       </c>
       <c r="N98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S98" s="21"/>
     </row>
@@ -5367,7 +5401,7 @@
         <v>210302</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C99">
         <v>4.7</v>
@@ -5390,7 +5424,7 @@
         <v>160</v>
       </c>
       <c r="J99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
@@ -5399,7 +5433,7 @@
         <v>100051</v>
       </c>
       <c r="N99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S99" s="21"/>
     </row>
@@ -5408,7 +5442,7 @@
         <v>210312</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C100">
         <v>5.7</v>
@@ -5431,7 +5465,7 @@
         <v>220</v>
       </c>
       <c r="J100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
@@ -5440,7 +5474,7 @@
         <v>200051</v>
       </c>
       <c r="N100" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S100" s="21"/>
     </row>
@@ -5449,7 +5483,7 @@
         <v>210322</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C101">
         <v>6.7</v>
@@ -5466,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
@@ -5475,7 +5509,7 @@
         <v>300051</v>
       </c>
       <c r="N101" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S101" s="21"/>
     </row>
@@ -5484,7 +5518,7 @@
         <v>210303</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -5507,7 +5541,7 @@
         <v>120</v>
       </c>
       <c r="J102" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
@@ -5517,7 +5551,7 @@
         <v>100112</v>
       </c>
       <c r="N102" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S102" s="21"/>
     </row>
@@ -5526,7 +5560,7 @@
         <v>210313</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -5549,7 +5583,7 @@
         <v>195</v>
       </c>
       <c r="J103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
@@ -5559,7 +5593,7 @@
         <v>200112</v>
       </c>
       <c r="N103" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S103" s="21"/>
     </row>
@@ -5568,7 +5602,7 @@
         <v>210323</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C104">
         <v>6.2</v>
@@ -5591,7 +5625,7 @@
         <v>300</v>
       </c>
       <c r="J104" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -5601,7 +5635,7 @@
         <v>300112</v>
       </c>
       <c r="N104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S104" s="21"/>
     </row>
@@ -5610,7 +5644,7 @@
         <v>210333</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C105">
         <v>7.1</v>
@@ -5627,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
@@ -5636,7 +5670,7 @@
         <v>400112</v>
       </c>
       <c r="N105" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="S105" s="21"/>
     </row>
@@ -5645,7 +5679,7 @@
         <v>210401</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C106">
         <v>6.1</v>
@@ -5668,7 +5702,7 @@
         <v>200</v>
       </c>
       <c r="J106" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
@@ -5677,7 +5711,7 @@
         <v>100112</v>
       </c>
       <c r="N106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S106" s="21"/>
     </row>
@@ -5686,7 +5720,7 @@
         <v>210411</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C107">
         <v>7.2</v>
@@ -5709,7 +5743,7 @@
         <v>230</v>
       </c>
       <c r="J107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
@@ -5718,7 +5752,7 @@
         <v>200112</v>
       </c>
       <c r="N107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S107" s="21"/>
     </row>
@@ -5727,7 +5761,7 @@
         <v>210421</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -5744,7 +5778,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
@@ -5753,7 +5787,7 @@
         <v>300112</v>
       </c>
       <c r="N108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S108" s="21"/>
     </row>
@@ -5762,7 +5796,7 @@
         <v>210501</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C109">
         <v>10</v>
@@ -5779,7 +5813,7 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K109" t="b">
         <v>1</v>
@@ -5794,7 +5828,7 @@
         <v>210601</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -5817,7 +5851,7 @@
         <v>200</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -5827,7 +5861,7 @@
         <v>100050</v>
       </c>
       <c r="N110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q110" t="s">
         <v>36</v>
@@ -5875,7 +5909,7 @@
         <v>200050</v>
       </c>
       <c r="N111" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q111" t="s">
         <v>36</v>
@@ -5890,7 +5924,7 @@
         <v>210621</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C112">
         <v>7.6</v>
@@ -5907,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
@@ -5917,7 +5951,7 @@
         <v>300050</v>
       </c>
       <c r="N112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q112" t="s">
         <v>36</v>
@@ -5928,130 +5962,214 @@
       <c r="S112" s="21"/>
     </row>
     <row r="113" customFormat="1" spans="1:19">
-      <c r="A113" s="27">
-        <v>210701</v>
+      <c r="A113" s="11">
+        <v>210602</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="C113">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="10"/>
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="11"/>
-        <v>1.899999981</v>
+        <v>1.99999998</v>
       </c>
       <c r="G113">
         <v>3</v>
       </c>
       <c r="H113">
-        <v>210711</v>
+        <v>210612</v>
       </c>
       <c r="I113">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="J113" t="s">
+        <v>261</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" s="9"/>
+      <c r="M113">
+        <v>100053</v>
+      </c>
+      <c r="N113" t="s">
         <v>260</v>
       </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" s="9"/>
-      <c r="M113" s="10">
-        <v>100112</v>
-      </c>
-      <c r="N113" t="s">
-        <v>261</v>
+      <c r="Q113" t="s">
+        <v>36</v>
+      </c>
+      <c r="R113" t="s">
+        <v>37</v>
       </c>
       <c r="S113" s="21"/>
     </row>
     <row r="114" customFormat="1" spans="1:19">
-      <c r="A114" s="27">
-        <v>210711</v>
+      <c r="A114" s="10">
+        <v>210612</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="C114">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="F114" s="7">
         <f t="shared" si="11"/>
-        <v>2.066666646</v>
+        <v>2.499999975</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
-      <c r="H114">
-        <v>210721</v>
-      </c>
-      <c r="I114">
-        <v>245</v>
-      </c>
       <c r="J114" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
       </c>
       <c r="L114" s="9"/>
-      <c r="M114" s="10">
-        <v>200112</v>
+      <c r="M114">
+        <v>200053</v>
       </c>
       <c r="N114" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>36</v>
+      </c>
+      <c r="R114" t="s">
+        <v>37</v>
       </c>
       <c r="S114" s="21"/>
     </row>
     <row r="115" customFormat="1" spans="1:19">
       <c r="A115" s="27">
-        <v>210721</v>
+        <v>210701</v>
       </c>
       <c r="B115" t="s">
         <v>263</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="F115" s="7">
         <f t="shared" si="11"/>
-        <v>2.33333331</v>
+        <v>1.899999981</v>
       </c>
       <c r="G115">
         <v>3</v>
       </c>
+      <c r="H115">
+        <v>210711</v>
+      </c>
+      <c r="I115">
+        <v>200</v>
+      </c>
       <c r="J115" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
       </c>
       <c r="L115" s="9"/>
       <c r="M115" s="10">
+        <v>100112</v>
+      </c>
+      <c r="N115" t="s">
+        <v>265</v>
+      </c>
+      <c r="S115" s="21"/>
+    </row>
+    <row r="116" customFormat="1" spans="1:19">
+      <c r="A116" s="27">
+        <v>210711</v>
+      </c>
+      <c r="B116" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116">
+        <v>6.2</v>
+      </c>
+      <c r="D116" s="7">
+        <f t="shared" si="10"/>
+        <v>6.2</v>
+      </c>
+      <c r="F116" s="7">
+        <f t="shared" si="11"/>
+        <v>2.066666646</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>210721</v>
+      </c>
+      <c r="I116">
+        <v>245</v>
+      </c>
+      <c r="J116" t="s">
+        <v>222</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" s="9"/>
+      <c r="M116" s="10">
+        <v>200112</v>
+      </c>
+      <c r="N116" t="s">
+        <v>265</v>
+      </c>
+      <c r="S116" s="21"/>
+    </row>
+    <row r="117" customFormat="1" spans="1:19">
+      <c r="A117" s="27">
+        <v>210721</v>
+      </c>
+      <c r="B117" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117" s="7">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="F117" s="7">
+        <f t="shared" si="11"/>
+        <v>2.33333331</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="J117" t="s">
+        <v>224</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" s="9"/>
+      <c r="M117" s="10">
         <v>300112</v>
       </c>
-      <c r="N115" t="s">
-        <v>261</v>
-      </c>
-      <c r="S115" s="21"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="25"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="25"/>
+      <c r="N117" t="s">
+        <v>265</v>
+      </c>
+      <c r="S117" s="21"/>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="25"/>
@@ -6108,7 +6226,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -6118,7 +6236,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6126,7 +6244,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6134,7 +6252,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6142,7 +6260,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6150,7 +6268,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6158,7 +6276,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -6176,7 +6294,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -6186,7 +6304,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6194,7 +6312,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6202,7 +6320,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6210,7 +6328,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6218,7 +6336,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6226,7 +6344,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6234,7 +6352,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6242,7 +6360,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6275,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6289,7 +6407,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -6306,7 +6424,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6317,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6325,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6333,7 +6451,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>800</v>
+        <v>730</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6341,7 +6459,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6349,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6357,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6365,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6373,7 +6491,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6396,7 +6514,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -6406,7 +6524,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -6414,7 +6532,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -6422,7 +6540,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>8</v>
